--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,16 +685,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -718,7 +718,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -685,16 +685,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1107</v>
+        <v>1090</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -718,7 +718,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,16 +685,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1090</v>
+        <v>1106</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -718,7 +718,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Patient</t>
   </si>
@@ -66,9 +67,6 @@
   </si>
   <si>
     <t>Aristoteles</t>
-  </si>
-  <si>
-    <t>Valores antigos</t>
   </si>
   <si>
     <t>Electrical Mechanical Coupling = Onset QRS – MVC (Troquei a ordem)</t>
@@ -186,12 +184,12 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
@@ -234,7 +232,6 @@
     <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
     <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -527,28 +524,28 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="F1" view="normal" windowProtection="0" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
-      <selection activeCell="K4" activeCellId="0" pane="topLeft" sqref="K4"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
+      <selection activeCell="A9" activeCellId="0" pane="topLeft" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="12.2857142857143"/>
-    <col customWidth="1" max="6" min="2" style="1" width="9.852040816326531"/>
-    <col customWidth="1" max="7" min="7" style="1" width="19.8418367346939"/>
-    <col customWidth="1" max="8" min="8" style="1" width="21.0612244897959"/>
-    <col customWidth="1" max="9" min="9" style="1" width="17.280612244898"/>
-    <col customWidth="1" max="10" min="10" style="1" width="16.6020408163265"/>
-    <col customWidth="1" max="11" min="11" style="1" width="17.5510204081633"/>
-    <col customWidth="1" max="12" min="12" style="1" width="24.4336734693878"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13.0918367346939"/>
-    <col customWidth="1" max="14" min="14" style="1" width="22.9489795918367"/>
-    <col customWidth="1" max="15" min="15" style="1" width="17.280612244898"/>
-    <col customWidth="1" max="16" min="16" style="1" width="14.5816326530612"/>
-    <col customWidth="1" max="18" min="17" style="1" width="15.5255102040816"/>
-    <col customWidth="1" max="1025" min="19" style="1" width="9.852040816326531"/>
+    <col customWidth="1" max="1" min="1" style="1" width="12.29"/>
+    <col customWidth="1" max="6" min="2" style="1" width="9.85"/>
+    <col customWidth="1" max="7" min="7" style="1" width="19.84"/>
+    <col customWidth="1" max="8" min="8" style="1" width="21.06"/>
+    <col customWidth="1" max="9" min="9" style="1" width="17.28"/>
+    <col customWidth="1" max="10" min="10" style="1" width="16.6"/>
+    <col customWidth="1" max="11" min="11" style="1" width="17.55"/>
+    <col customWidth="1" max="12" min="12" style="1" width="24.43"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13.09"/>
+    <col customWidth="1" max="14" min="14" style="1" width="22.95"/>
+    <col customWidth="1" max="15" min="15" style="1" width="17.28"/>
+    <col customWidth="1" max="16" min="16" style="1" width="14.58"/>
+    <col customWidth="1" max="18" min="17" style="1" width="15.53"/>
+    <col customWidth="1" max="1025" min="19" style="1" width="9.85"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="10" spans="1:26">
@@ -685,16 +682,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -718,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>
@@ -733,550 +730,20 @@
       <c r="Y4" s="2" t="n"/>
       <c r="Z4" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="5" s="10" spans="1:26">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n">
-        <v>453</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>382</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>92</v>
-      </c>
-      <c r="H5" s="3" t="n">
-        <v>1144</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>1026</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>1104</v>
-      </c>
-      <c r="K5" s="7" t="n"/>
-      <c r="L5" s="3">
-        <f>G5-D5</f>
-        <v/>
-      </c>
-      <c r="M5" s="3">
-        <f>E5-D5</f>
-        <v/>
-      </c>
-      <c r="N5" s="3">
-        <f>F5-E5</f>
-        <v/>
-      </c>
-      <c r="O5" s="3">
-        <f>C5-F5</f>
-        <v/>
-      </c>
-      <c r="P5" s="3">
-        <f>I5-C5</f>
-        <v/>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>740</v>
-      </c>
-      <c r="R5" s="3">
-        <f>J5-I5</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="6" s="10" spans="1:26">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n">
-        <v>453</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>382</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>79</v>
-      </c>
-      <c r="H6" s="3" t="n">
-        <v>1062</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>950</v>
-      </c>
-      <c r="J6" s="6" t="n">
-        <v>1021</v>
-      </c>
-      <c r="K6" s="7" t="n"/>
-      <c r="L6" s="3">
-        <f>G6-D6</f>
-        <v/>
-      </c>
-      <c r="M6" s="3">
-        <f>E6-D6</f>
-        <v/>
-      </c>
-      <c r="N6" s="3">
-        <f>F6-E6</f>
-        <v/>
-      </c>
-      <c r="O6" s="3">
-        <f>C6-F6</f>
-        <v/>
-      </c>
-      <c r="P6" s="3">
-        <f>I6-C6</f>
-        <v/>
-      </c>
-      <c r="Q6" s="7" t="n"/>
-      <c r="R6" s="3">
-        <f>J6-I6</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="7" s="10" spans="1:26">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n">
-        <v>453</v>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>382</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>143</v>
-      </c>
-      <c r="H7" s="3" t="n">
-        <v>205</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>922</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>1102</v>
-      </c>
-      <c r="K7" s="7" t="n"/>
-      <c r="L7" s="3">
-        <f>G7-D7</f>
-        <v/>
-      </c>
-      <c r="M7" s="3">
-        <f>E7-D7</f>
-        <v/>
-      </c>
-      <c r="N7" s="3">
-        <f>F7-E7</f>
-        <v/>
-      </c>
-      <c r="O7" s="3">
-        <f>C7-F7</f>
-        <v/>
-      </c>
-      <c r="P7" s="3">
-        <f>I7-C7</f>
-        <v/>
-      </c>
-      <c r="Q7" s="7" t="n"/>
-      <c r="R7" s="3">
-        <f>J7-I7</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="8" s="10" spans="1:26">
-      <c r="A8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n">
-        <v>453</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>382</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>143</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>205</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>922</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>1102</v>
-      </c>
-      <c r="K8" s="7" t="n"/>
-      <c r="L8" s="3">
-        <f>G8-D8</f>
-        <v/>
-      </c>
-      <c r="M8" s="3">
-        <f>E8-D8</f>
-        <v/>
-      </c>
-      <c r="N8" s="3">
-        <f>F8-E8</f>
-        <v/>
-      </c>
-      <c r="O8" s="3">
-        <f>C8-F8</f>
-        <v/>
-      </c>
-      <c r="P8" s="3">
-        <f>I8-C8</f>
-        <v/>
-      </c>
-      <c r="Q8" s="7" t="n"/>
-      <c r="R8" s="3">
-        <f>J8-I8</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="9" s="10" spans="1:26">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n">
-        <v>453</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>382</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>143</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>205</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>922</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>1102</v>
-      </c>
-      <c r="K9" s="7" t="n"/>
-      <c r="L9" s="3">
-        <f>G9-D9</f>
-        <v/>
-      </c>
-      <c r="M9" s="3">
-        <f>E9-D9</f>
-        <v/>
-      </c>
-      <c r="N9" s="3">
-        <f>F9-E9</f>
-        <v/>
-      </c>
-      <c r="O9" s="3">
-        <f>C9-F9</f>
-        <v/>
-      </c>
-      <c r="P9" s="3">
-        <f>I9-C9</f>
-        <v/>
-      </c>
-      <c r="Q9" s="7" t="n"/>
-      <c r="R9" s="3">
-        <f>J9-I9</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="10" s="10" spans="1:26">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n">
-        <v>453</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>382</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>143</v>
-      </c>
-      <c r="H10" s="3" t="n">
-        <v>205</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>922</v>
-      </c>
-      <c r="J10" s="6" t="n">
-        <v>1102</v>
-      </c>
-      <c r="K10" s="7" t="n"/>
-      <c r="L10" s="3">
-        <f>G10-D10</f>
-        <v/>
-      </c>
-      <c r="M10" s="3">
-        <f>E10-D10</f>
-        <v/>
-      </c>
-      <c r="N10" s="3">
-        <f>F10-E10</f>
-        <v/>
-      </c>
-      <c r="O10" s="3">
-        <f>C10-F10</f>
-        <v/>
-      </c>
-      <c r="P10" s="3">
-        <f>I10-C10</f>
-        <v/>
-      </c>
-      <c r="Q10" s="7" t="n"/>
-      <c r="R10" s="3">
-        <f>J10-I10</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="11" s="10" spans="1:26">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n">
-        <v>453</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>382</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>143</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>205</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>922</v>
-      </c>
-      <c r="J11" s="6" t="n">
-        <v>1102</v>
-      </c>
-      <c r="K11" s="7" t="n"/>
-      <c r="L11" s="3">
-        <f>G11-D11</f>
-        <v/>
-      </c>
-      <c r="M11" s="3">
-        <f>E11-D11</f>
-        <v/>
-      </c>
-      <c r="N11" s="3">
-        <f>F11-E11</f>
-        <v/>
-      </c>
-      <c r="O11" s="3">
-        <f>C11-F11</f>
-        <v/>
-      </c>
-      <c r="P11" s="3">
-        <f>I11-C11</f>
-        <v/>
-      </c>
-      <c r="Q11" s="7" t="n"/>
-      <c r="R11" s="3">
-        <f>J11-I11</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="12" s="10" spans="1:26">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n">
-        <v>453</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>382</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>143</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>205</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>922</v>
-      </c>
-      <c r="J12" s="6" t="n">
-        <v>1102</v>
-      </c>
-      <c r="K12" s="7" t="n"/>
-      <c r="L12" s="3">
-        <f>G12-D12</f>
-        <v/>
-      </c>
-      <c r="M12" s="3">
-        <f>E12-D12</f>
-        <v/>
-      </c>
-      <c r="N12" s="3">
-        <f>F12-E12</f>
-        <v/>
-      </c>
-      <c r="O12" s="3">
-        <f>C12-F12</f>
-        <v/>
-      </c>
-      <c r="P12" s="3">
-        <f>I12-C12</f>
-        <v/>
-      </c>
-      <c r="Q12" s="7" t="n"/>
-      <c r="R12" s="3">
-        <f>J12-I12</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="13" s="10" spans="1:26">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n">
-        <v>453</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>382</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>143</v>
-      </c>
-      <c r="H13" s="3" t="n">
-        <v>205</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>922</v>
-      </c>
-      <c r="J13" s="6" t="n">
-        <v>1102</v>
-      </c>
-      <c r="K13" s="7" t="n"/>
-      <c r="L13" s="3">
-        <f>G13-D13</f>
-        <v/>
-      </c>
-      <c r="M13" s="3">
-        <f>E13-D13</f>
-        <v/>
-      </c>
-      <c r="N13" s="3">
-        <f>F13-E13</f>
-        <v/>
-      </c>
-      <c r="O13" s="3">
-        <f>C13-F13</f>
-        <v/>
-      </c>
-      <c r="P13" s="3">
-        <f>I13-C13</f>
-        <v/>
-      </c>
-      <c r="Q13" s="7" t="n"/>
-      <c r="R13" s="3">
-        <f>J13-I13</f>
-        <v/>
-      </c>
-    </row>
+    <row customHeight="1" ht="15" r="5" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="6" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="7" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="8" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="9" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="10" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="11" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="12" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="13" s="10" spans="1:26"/>
     <row customHeight="1" ht="19.7" r="16" s="10" spans="1:26"/>
     <row customHeight="1" ht="15" r="17" s="10" spans="1:26"/>
     <row customHeight="1" ht="15" r="18" s="10" spans="1:26"/>
-    <row customHeight="1" ht="15" r="24" s="10" spans="1:26">
-      <c r="A24" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="25" s="10" spans="1:26">
-      <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n">
-        <v>453</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="F25" s="3" t="n">
-        <v>382</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>141</v>
-      </c>
-      <c r="H25" s="3" t="n">
-        <v>203</v>
-      </c>
-      <c r="I25" s="3" t="n">
-        <v>904</v>
-      </c>
-      <c r="J25" s="6" t="n">
-        <v>1090</v>
-      </c>
-    </row>
+    <row customHeight="1" ht="15" r="24" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="25" s="10" spans="1:26"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
@@ -1300,48 +767,48 @@
   </sheetPr>
   <dimension ref="B4:B17"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A2" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A2" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="E17" activeCellId="0" pane="topLeft" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="9" width="10.1224489795918"/>
+    <col customWidth="1" max="1025" min="1" style="9" width="10.12"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="4" s="10" spans="1:2">
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="6" s="10" spans="1:2">
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="9" s="10" spans="1:2">
       <c r="B9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="11" s="10" spans="1:2">
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="13" s="10" spans="1:2">
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="15" s="10" spans="1:2">
       <c r="B15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="17" s="10" spans="1:2">
       <c r="B17" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Patient</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Aristoteles</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Noemia</t>
   </si>
   <si>
     <t>Electrical Mechanical Coupling = Onset QRS – MVC (Troquei a ordem)</t>
@@ -213,14 +225,14 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -524,10 +536,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
-      <selection activeCell="A9" activeCellId="0" pane="topLeft" sqref="A9"/>
+      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -539,7 +551,7 @@
     <col customWidth="1" max="9" min="9" style="1" width="17.28"/>
     <col customWidth="1" max="10" min="10" style="1" width="16.6"/>
     <col customWidth="1" max="11" min="11" style="1" width="17.55"/>
-    <col customWidth="1" max="12" min="12" style="1" width="24.43"/>
+    <col customWidth="1" max="12" min="12" style="1" width="24.41"/>
     <col customWidth="1" max="13" min="13" style="1" width="13.09"/>
     <col customWidth="1" max="14" min="14" style="1" width="22.95"/>
     <col customWidth="1" max="15" min="15" style="1" width="17.28"/>
@@ -665,64 +677,63 @@
       <c r="Z3" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="4" s="10" spans="1:26">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n">
-        <v>453</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>72</v>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>382</v>
+      <c r="C4" s="7" t="n">
+        <v>447</v>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>63</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>378</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1140</v>
+        <v>1147</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1019</v>
+        <v>1038</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1102</v>
-      </c>
-      <c r="K4" s="7" t="n"/>
+        <v>1112</v>
+      </c>
+      <c r="K4" s="8" t="n"/>
       <c r="L4" s="3">
-        <f>G4-D4</f>
+        <f>G4-F27</f>
         <v/>
       </c>
       <c r="M4" s="3">
-        <f>E4-D4</f>
+        <f>G27-F27</f>
         <v/>
       </c>
       <c r="N4" s="3">
-        <f>F4-E4</f>
+        <f>H27-G27</f>
         <v/>
       </c>
       <c r="O4" s="3">
-        <f>C4-F4</f>
+        <f>E27-H27</f>
         <v/>
       </c>
       <c r="P4" s="3">
-        <f>I4-C4</f>
+        <f>I4-E27</f>
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>751</v>
+        <v>800</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>
         <v/>
       </c>
-      <c r="S4" s="8" t="n"/>
-      <c r="T4" s="8" t="n"/>
+      <c r="S4" s="9" t="n"/>
+      <c r="T4" s="9" t="n"/>
       <c r="U4" s="2" t="n"/>
       <c r="V4" s="2" t="n"/>
       <c r="W4" s="2" t="n"/>
@@ -730,20 +741,119 @@
       <c r="Y4" s="2" t="n"/>
       <c r="Z4" s="2" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="5" s="10" spans="1:26"/>
-    <row customHeight="1" ht="15" r="6" s="10" spans="1:26"/>
-    <row customHeight="1" ht="15" r="7" s="10" spans="1:26"/>
-    <row customHeight="1" ht="15" r="8" s="10" spans="1:26"/>
-    <row customHeight="1" ht="15" r="9" s="10" spans="1:26"/>
-    <row customHeight="1" ht="15" r="10" s="10" spans="1:26"/>
-    <row customHeight="1" ht="15" r="11" s="10" spans="1:26"/>
-    <row customHeight="1" ht="15" r="12" s="10" spans="1:26"/>
-    <row customHeight="1" ht="15" r="13" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="5" s="10" spans="1:26">
+      <c r="A5" s="7" t="n"/>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="10" spans="1:26">
+      <c r="A6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="10" spans="1:26">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="10" spans="1:26">
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="10" spans="1:26">
+      <c r="A9" s="7" t="n"/>
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="10" spans="1:26">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>445</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>81</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>394</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="11" s="10" spans="1:26">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>528</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>402</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="10" spans="1:26">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>468</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>38</v>
+      </c>
+      <c r="E12" s="7" t="n">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="13" s="10" spans="1:26">
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>511</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7" t="n">
+        <v>64</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>413</v>
+      </c>
+    </row>
     <row customHeight="1" ht="19.7" r="16" s="10" spans="1:26"/>
     <row customHeight="1" ht="15" r="17" s="10" spans="1:26"/>
     <row customHeight="1" ht="15" r="18" s="10" spans="1:26"/>
     <row customHeight="1" ht="15" r="24" s="10" spans="1:26"/>
     <row customHeight="1" ht="15" r="25" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="27" s="10" spans="1:26"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
@@ -773,42 +883,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="9" width="10.12"/>
+    <col customWidth="1" max="1025" min="1" style="7" width="10.12"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="4" s="10" spans="1:2">
-      <c r="B4" s="9" t="s">
-        <v>17</v>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="6" s="10" spans="1:2">
-      <c r="B6" s="9" t="s">
-        <v>18</v>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="9" s="10" spans="1:2">
-      <c r="B9" s="9" t="s">
-        <v>19</v>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="11" s="10" spans="1:2">
-      <c r="B11" s="9" t="s">
-        <v>20</v>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="13" s="10" spans="1:2">
-      <c r="B13" s="9" t="s">
-        <v>21</v>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="15" s="10" spans="1:2">
-      <c r="B15" s="9" t="s">
-        <v>22</v>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="17" s="10" spans="1:2">
-      <c r="B17" s="9" t="s">
-        <v>23</v>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -682,16 +682,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1145</v>
+        <v>1086</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1021</v>
+        <v>1004</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1110</v>
+        <v>1050</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -682,16 +682,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1086</v>
+        <v>1142</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1004</v>
+        <v>1030</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1050</v>
+        <v>1104</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>772</v>
+        <v>801</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -682,16 +682,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -682,16 +682,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>1026</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -682,16 +682,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>799</v>
+        <v>717</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -682,16 +682,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -685,13 +685,13 @@
         <v>98</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1106</v>
+        <v>1099</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -685,13 +685,13 @@
         <v>98</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -685,13 +685,13 @@
         <v>98</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -688,10 +688,10 @@
         <v>1139</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>716</v>
+        <v>743</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -682,16 +682,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -682,16 +682,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1001</v>
+        <v>1022</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,10 +685,10 @@
         <v>101</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="J4" s="6" t="n">
         <v>1104</v>
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -682,13 +682,13 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="J4" s="6" t="n">
         <v>1104</v>
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>720</v>
+        <v>702</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -688,10 +688,10 @@
         <v>1134</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>702</v>
+        <v>742</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -682,16 +682,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -682,16 +682,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1137</v>
+        <v>1142</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1012</v>
+        <v>1025</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>753</v>
+        <v>713</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -682,16 +682,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -94,9 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="General" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="9">
     <font>
       <name val="Arial"/>
@@ -191,38 +189,65 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="20">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -532,203 +557,203 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="12.29"/>
-    <col customWidth="1" max="6" min="2" style="1" width="9.85"/>
-    <col customWidth="1" max="7" min="7" style="1" width="19.84"/>
-    <col customWidth="1" max="8" min="8" style="1" width="21.06"/>
-    <col customWidth="1" max="9" min="9" style="1" width="17.28"/>
-    <col customWidth="1" max="10" min="10" style="1" width="16.6"/>
-    <col customWidth="1" max="11" min="11" style="1" width="17.55"/>
-    <col customWidth="1" max="12" min="12" style="1" width="24.43"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13.09"/>
-    <col customWidth="1" max="14" min="14" style="1" width="22.95"/>
-    <col customWidth="1" max="15" min="15" style="1" width="17.28"/>
-    <col customWidth="1" max="16" min="16" style="1" width="14.58"/>
-    <col customWidth="1" max="18" min="17" style="1" width="15.53"/>
-    <col customWidth="1" max="1025" min="19" style="1" width="9.85"/>
+    <col customWidth="1" max="1" min="1" style="11" width="12.29"/>
+    <col customWidth="1" max="6" min="2" style="11" width="9.85"/>
+    <col customWidth="1" max="7" min="7" style="11" width="19.84"/>
+    <col customWidth="1" max="8" min="8" style="11" width="21.06"/>
+    <col customWidth="1" max="9" min="9" style="11" width="17.28"/>
+    <col customWidth="1" max="10" min="10" style="11" width="16.6"/>
+    <col customWidth="1" max="11" min="11" style="11" width="17.55"/>
+    <col customWidth="1" max="12" min="12" style="11" width="24.43"/>
+    <col customWidth="1" max="13" min="13" style="11" width="13.09"/>
+    <col customWidth="1" max="14" min="14" style="11" width="22.95"/>
+    <col customWidth="1" max="15" min="15" style="11" width="17.28"/>
+    <col customWidth="1" max="16" min="16" style="11" width="14.58"/>
+    <col customWidth="1" max="18" min="17" style="11" width="15.53"/>
+    <col customWidth="1" max="1025" min="19" style="11" width="9.85"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="10" spans="1:26">
-      <c r="A1" s="2" t="n"/>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
+      <c r="A1" s="12" t="n"/>
+      <c r="B1" s="12" t="n"/>
+      <c r="C1" s="12" t="n"/>
+      <c r="D1" s="12" t="n"/>
+      <c r="E1" s="12" t="n"/>
+      <c r="F1" s="12" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="12" t="n"/>
+      <c r="K1" s="12" t="n"/>
+      <c r="L1" s="12" t="n"/>
+      <c r="M1" s="12" t="n"/>
+      <c r="N1" s="12" t="n"/>
+      <c r="O1" s="12" t="n"/>
+      <c r="P1" s="12" t="n"/>
+      <c r="Q1" s="12" t="n"/>
+      <c r="R1" s="12" t="n"/>
+      <c r="S1" s="12" t="n"/>
+      <c r="T1" s="12" t="n"/>
+      <c r="U1" s="12" t="n"/>
+      <c r="V1" s="12" t="n"/>
+      <c r="W1" s="12" t="n"/>
+      <c r="X1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="19.7" r="2" s="10" spans="1:26">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="n"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="14" t="n"/>
+      <c r="L2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="2" t="n"/>
-      <c r="T2" s="2" t="n"/>
-      <c r="U2" s="2" t="n"/>
-      <c r="V2" s="2" t="n"/>
-      <c r="W2" s="2" t="n"/>
-      <c r="X2" s="2" t="n"/>
-      <c r="Y2" s="2" t="n"/>
-      <c r="Z2" s="2" t="n"/>
+      <c r="S2" s="12" t="n"/>
+      <c r="T2" s="12" t="n"/>
+      <c r="U2" s="12" t="n"/>
+      <c r="V2" s="12" t="n"/>
+      <c r="W2" s="12" t="n"/>
+      <c r="X2" s="12" t="n"/>
+      <c r="Y2" s="12" t="n"/>
+      <c r="Z2" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="3" s="10" spans="1:26">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="3" t="n"/>
-      <c r="G3" s="3" t="n"/>
-      <c r="H3" s="3" t="n"/>
-      <c r="I3" s="3" t="n"/>
-      <c r="J3" s="6" t="n"/>
-      <c r="K3" s="6" t="n"/>
-      <c r="L3" s="3" t="n"/>
-      <c r="M3" s="3" t="n"/>
-      <c r="N3" s="3" t="n"/>
-      <c r="O3" s="3" t="n"/>
-      <c r="P3" s="3" t="n"/>
-      <c r="Q3" s="3" t="n"/>
-      <c r="R3" s="3" t="n"/>
-      <c r="S3" s="2" t="n"/>
-      <c r="T3" s="2" t="n"/>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="n"/>
-      <c r="W3" s="2" t="n"/>
-      <c r="X3" s="2" t="n"/>
-      <c r="Y3" s="2" t="n"/>
-      <c r="Z3" s="2" t="n"/>
+      <c r="A3" s="13" t="n"/>
+      <c r="B3" s="13" t="n"/>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="13" t="n"/>
+      <c r="E3" s="13" t="n"/>
+      <c r="F3" s="13" t="n"/>
+      <c r="G3" s="13" t="n"/>
+      <c r="H3" s="13" t="n"/>
+      <c r="I3" s="13" t="n"/>
+      <c r="J3" s="16" t="n"/>
+      <c r="K3" s="16" t="n"/>
+      <c r="L3" s="13" t="n"/>
+      <c r="M3" s="13" t="n"/>
+      <c r="N3" s="13" t="n"/>
+      <c r="O3" s="13" t="n"/>
+      <c r="P3" s="13" t="n"/>
+      <c r="Q3" s="13" t="n"/>
+      <c r="R3" s="13" t="n"/>
+      <c r="S3" s="12" t="n"/>
+      <c r="T3" s="12" t="n"/>
+      <c r="U3" s="12" t="n"/>
+      <c r="V3" s="12" t="n"/>
+      <c r="W3" s="12" t="n"/>
+      <c r="X3" s="12" t="n"/>
+      <c r="Y3" s="12" t="n"/>
+      <c r="Z3" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="4" s="10" spans="1:26">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n">
+      <c r="B4" s="13" t="n"/>
+      <c r="C4" s="13" t="n">
         <v>453</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="13" t="n">
         <v>72</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="13" t="n">
         <v>382</v>
       </c>
-      <c r="G4" s="3" t="n">
-        <v>103</v>
-      </c>
-      <c r="H4" s="3" t="n">
-        <v>1136</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1013</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>1101</v>
-      </c>
-      <c r="K4" s="7" t="n"/>
-      <c r="L4" s="3">
+      <c r="G4" s="13" t="n">
+        <v>107</v>
+      </c>
+      <c r="H4" s="13" t="n">
+        <v>1143</v>
+      </c>
+      <c r="I4" s="13" t="n">
+        <v>1011</v>
+      </c>
+      <c r="J4" s="16" t="n">
+        <v>1103</v>
+      </c>
+      <c r="K4" s="17" t="n"/>
+      <c r="L4" s="13">
         <f>G4-D4</f>
         <v/>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="13">
         <f>E4-D4</f>
         <v/>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="13">
         <f>F4-E4</f>
         <v/>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="13">
         <f>C4-F4</f>
         <v/>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="13">
         <f>I4-C4</f>
         <v/>
       </c>
-      <c r="Q4" s="3" t="n">
-        <v>692</v>
-      </c>
-      <c r="R4" s="3">
+      <c r="Q4" s="13" t="n">
+        <v>721</v>
+      </c>
+      <c r="R4" s="13">
         <f>J4-I4</f>
         <v/>
       </c>
-      <c r="S4" s="8" t="n"/>
-      <c r="T4" s="8" t="n"/>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
-      <c r="W4" s="2" t="n"/>
-      <c r="X4" s="2" t="n"/>
-      <c r="Y4" s="2" t="n"/>
-      <c r="Z4" s="2" t="n"/>
+      <c r="S4" s="18" t="n"/>
+      <c r="T4" s="18" t="n"/>
+      <c r="U4" s="12" t="n"/>
+      <c r="V4" s="12" t="n"/>
+      <c r="W4" s="12" t="n"/>
+      <c r="X4" s="12" t="n"/>
+      <c r="Y4" s="12" t="n"/>
+      <c r="Z4" s="12" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="5" s="10" spans="1:26"/>
     <row customHeight="1" ht="15" r="6" s="10" spans="1:26"/>
@@ -773,41 +798,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="9" width="10.12"/>
+    <col customWidth="1" max="1025" min="1" style="19" width="10.12"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="4" s="10" spans="1:2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="6" s="10" spans="1:2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="9" s="10" spans="1:2">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="11" s="10" spans="1:2">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="13" s="10" spans="1:2">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="15" s="10" spans="1:2">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="17" s="10" spans="1:2">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="19" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,16 +707,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H4" s="13" t="n">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="I4" s="13" t="n">
-        <v>1011</v>
+        <v>1030</v>
       </c>
       <c r="J4" s="16" t="n">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="K4" s="17" t="n"/>
       <c r="L4" s="13">
@@ -740,7 +740,7 @@
         <v/>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="R4" s="13">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,16 +707,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H4" s="13" t="n">
-        <v>1140</v>
+        <v>1145</v>
       </c>
       <c r="I4" s="13" t="n">
-        <v>1030</v>
+        <v>1012</v>
       </c>
       <c r="J4" s="16" t="n">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="K4" s="17" t="n"/>
       <c r="L4" s="13">
@@ -740,7 +740,7 @@
         <v/>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>718</v>
+        <v>734</v>
       </c>
       <c r="R4" s="13">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,16 +707,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H4" s="13" t="n">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="I4" s="13" t="n">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="J4" s="16" t="n">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="K4" s="17" t="n"/>
       <c r="L4" s="13">
@@ -740,7 +740,7 @@
         <v/>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="R4" s="13">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,16 +707,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="H4" s="13" t="n">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="I4" s="13" t="n">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="J4" s="16" t="n">
-        <v>1102</v>
+        <v>1107</v>
       </c>
       <c r="K4" s="17" t="n"/>
       <c r="L4" s="13">
@@ -740,7 +740,7 @@
         <v/>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="R4" s="13">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -66,7 +66,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>Aristoteles</t>
+    <t>Sim_LBBB</t>
   </si>
   <si>
     <t>Electrical Mechanical Coupling = Onset QRS – MVC (Troquei a ordem)</t>
@@ -94,7 +94,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="General" numFmtId="164"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <name val="Arial"/>
@@ -189,65 +191,38 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="11">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -552,208 +527,208 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+      <selection activeCell="I9" activeCellId="0" pane="topLeft" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="12.29"/>
-    <col customWidth="1" max="6" min="2" style="11" width="9.85"/>
-    <col customWidth="1" max="7" min="7" style="11" width="19.84"/>
-    <col customWidth="1" max="8" min="8" style="11" width="21.06"/>
-    <col customWidth="1" max="9" min="9" style="11" width="17.28"/>
-    <col customWidth="1" max="10" min="10" style="11" width="16.6"/>
-    <col customWidth="1" max="11" min="11" style="11" width="17.55"/>
-    <col customWidth="1" max="12" min="12" style="11" width="24.43"/>
-    <col customWidth="1" max="13" min="13" style="11" width="13.09"/>
-    <col customWidth="1" max="14" min="14" style="11" width="22.95"/>
-    <col customWidth="1" max="15" min="15" style="11" width="17.28"/>
-    <col customWidth="1" max="16" min="16" style="11" width="14.58"/>
-    <col customWidth="1" max="18" min="17" style="11" width="15.53"/>
-    <col customWidth="1" max="1025" min="19" style="11" width="9.85"/>
+    <col customWidth="1" max="1" min="1" style="1" width="12.29"/>
+    <col customWidth="1" max="6" min="2" style="1" width="9.85"/>
+    <col customWidth="1" max="7" min="7" style="1" width="19.84"/>
+    <col customWidth="1" max="8" min="8" style="1" width="21.06"/>
+    <col customWidth="1" max="9" min="9" style="1" width="17.28"/>
+    <col customWidth="1" max="10" min="10" style="1" width="16.6"/>
+    <col customWidth="1" max="11" min="11" style="1" width="17.55"/>
+    <col customWidth="1" max="12" min="12" style="1" width="24.42"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13.09"/>
+    <col customWidth="1" max="14" min="14" style="1" width="22.95"/>
+    <col customWidth="1" max="15" min="15" style="1" width="17.28"/>
+    <col customWidth="1" max="16" min="16" style="1" width="14.58"/>
+    <col customWidth="1" max="18" min="17" style="1" width="15.53"/>
+    <col customWidth="1" max="1025" min="19" style="1" width="9.85"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="1" s="10" spans="1:26">
-      <c r="A1" s="12" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="12" t="n"/>
-      <c r="P1" s="12" t="n"/>
-      <c r="Q1" s="12" t="n"/>
-      <c r="R1" s="12" t="n"/>
-      <c r="S1" s="12" t="n"/>
-      <c r="T1" s="12" t="n"/>
-      <c r="U1" s="12" t="n"/>
-      <c r="V1" s="12" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="19.7" r="2" s="10" spans="1:26">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="14" t="n"/>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="4" t="n"/>
+      <c r="L2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="12" t="n"/>
-      <c r="T2" s="12" t="n"/>
-      <c r="U2" s="12" t="n"/>
-      <c r="V2" s="12" t="n"/>
-      <c r="W2" s="12" t="n"/>
-      <c r="X2" s="12" t="n"/>
-      <c r="Y2" s="12" t="n"/>
-      <c r="Z2" s="12" t="n"/>
+      <c r="S2" s="2" t="n"/>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="n"/>
+      <c r="W2" s="2" t="n"/>
+      <c r="X2" s="2" t="n"/>
+      <c r="Y2" s="2" t="n"/>
+      <c r="Z2" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="3" s="10" spans="1:26">
-      <c r="A3" s="13" t="n"/>
-      <c r="B3" s="13" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="13" t="n"/>
-      <c r="G3" s="13" t="n"/>
-      <c r="H3" s="13" t="n"/>
-      <c r="I3" s="13" t="n"/>
-      <c r="J3" s="16" t="n"/>
-      <c r="K3" s="16" t="n"/>
-      <c r="L3" s="13" t="n"/>
-      <c r="M3" s="13" t="n"/>
-      <c r="N3" s="13" t="n"/>
-      <c r="O3" s="13" t="n"/>
-      <c r="P3" s="13" t="n"/>
-      <c r="Q3" s="13" t="n"/>
-      <c r="R3" s="13" t="n"/>
-      <c r="S3" s="12" t="n"/>
-      <c r="T3" s="12" t="n"/>
-      <c r="U3" s="12" t="n"/>
-      <c r="V3" s="12" t="n"/>
-      <c r="W3" s="12" t="n"/>
-      <c r="X3" s="12" t="n"/>
-      <c r="Y3" s="12" t="n"/>
-      <c r="Z3" s="12" t="n"/>
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="3" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="3" t="n"/>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
+      <c r="J3" s="6" t="n"/>
+      <c r="K3" s="6" t="n"/>
+      <c r="L3" s="3" t="n"/>
+      <c r="M3" s="3" t="n"/>
+      <c r="N3" s="3" t="n"/>
+      <c r="O3" s="3" t="n"/>
+      <c r="P3" s="3" t="n"/>
+      <c r="Q3" s="3" t="n"/>
+      <c r="R3" s="3" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+      <c r="X3" s="2" t="n"/>
+      <c r="Y3" s="2" t="n"/>
+      <c r="Z3" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="4" s="10" spans="1:26">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="13" t="n">
-        <v>453</v>
-      </c>
-      <c r="D4" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="E4" s="13" t="n">
-        <v>72</v>
-      </c>
-      <c r="F4" s="13" t="n">
-        <v>382</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" s="13" t="n">
-        <v>1140</v>
-      </c>
-      <c r="I4" s="13" t="n">
-        <v>1026</v>
-      </c>
-      <c r="J4" s="16" t="n">
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n">
+        <v>714</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>257</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>318</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>640</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>103</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>1145</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1022</v>
+      </c>
+      <c r="J4" s="6" t="n">
         <v>1107</v>
       </c>
-      <c r="K4" s="17" t="n"/>
-      <c r="L4" s="13">
+      <c r="K4" s="7" t="n"/>
+      <c r="L4" s="3">
         <f>G4-D4</f>
         <v/>
       </c>
-      <c r="M4" s="13">
+      <c r="M4" s="3">
         <f>E4-D4</f>
         <v/>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="3">
         <f>F4-E4</f>
         <v/>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="3">
         <f>C4-F4</f>
         <v/>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="3">
         <f>I4-C4</f>
         <v/>
       </c>
-      <c r="Q4" s="13" t="n">
-        <v>735</v>
-      </c>
-      <c r="R4" s="13">
+      <c r="Q4" s="3" t="n">
+        <v>709</v>
+      </c>
+      <c r="R4" s="3">
         <f>J4-I4</f>
         <v/>
       </c>
-      <c r="S4" s="18" t="n"/>
-      <c r="T4" s="18" t="n"/>
-      <c r="U4" s="12" t="n"/>
-      <c r="V4" s="12" t="n"/>
-      <c r="W4" s="12" t="n"/>
-      <c r="X4" s="12" t="n"/>
-      <c r="Y4" s="12" t="n"/>
-      <c r="Z4" s="12" t="n"/>
+      <c r="S4" s="8" t="n"/>
+      <c r="T4" s="8" t="n"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="n"/>
+      <c r="W4" s="2" t="n"/>
+      <c r="X4" s="2" t="n"/>
+      <c r="Y4" s="2" t="n"/>
+      <c r="Z4" s="2" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="5" s="10" spans="1:26"/>
     <row customHeight="1" ht="15" r="6" s="10" spans="1:26"/>
@@ -798,41 +773,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="19" width="10.12"/>
+    <col customWidth="1" max="1025" min="1" style="9" width="10.12"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="12.8" r="4" s="10" spans="1:2">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="6" s="10" spans="1:2">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="9" s="10" spans="1:2">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="11" s="10" spans="1:2">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="13" s="10" spans="1:2">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="15" s="10" spans="1:2">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row customHeight="1" ht="12.8" r="17" s="10" spans="1:2">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>709</v>
+        <v>655</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -682,16 +682,16 @@
         <v>640</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>1022</v>
+        <v>1010</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="K4" s="7" t="n"/>
       <c r="L4" s="3">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>655</v>
+        <v>722</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>722</v>
+        <v>594</v>
       </c>
       <c r="R4" s="3">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -477,16 +477,16 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="n">
-        <v>670.5</v>
+        <v>654.5</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>266.8</v>
+        <v>272.8</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>335.9</v>
+        <v>336</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>600.4</v>
+        <v>586.034402</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>100</v>
@@ -503,23 +503,23 @@
       <c r="K4" s="7"/>
       <c r="L4" s="3" t="n">
         <f aca="false">G4-D4</f>
-        <v>-166.8</v>
+        <v>-172.8</v>
       </c>
       <c r="M4" s="3" t="n">
         <f aca="false">E4-D4</f>
-        <v>69.1</v>
+        <v>63.2</v>
       </c>
       <c r="N4" s="3" t="n">
         <f aca="false">F4-E4</f>
-        <v>264.5</v>
+        <v>250.034402</v>
       </c>
       <c r="O4" s="3" t="n">
         <f aca="false">C4-F4</f>
-        <v>70.1</v>
+        <v>68.465598</v>
       </c>
       <c r="P4" s="3" t="n">
         <f aca="false">I4-C4</f>
-        <v>355.5</v>
+        <v>371.5</v>
       </c>
       <c r="Q4" s="3" t="n">
         <v>712</v>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -707,13 +707,13 @@
         <v>382</v>
       </c>
       <c r="G4" s="13" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H4" s="13" t="n">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="I4" s="13" t="n">
-        <v>1012</v>
+        <v>1037</v>
       </c>
       <c r="J4" s="16" t="n">
         <v>1101</v>
@@ -740,7 +740,7 @@
         <v/>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="R4" s="13">
         <f>J4-I4</f>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
-  <si>
-    <t>Patient</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>pontos marcados</t>
+  </si>
+  <si>
+    <t>IdPatient</t>
   </si>
   <si>
     <t>MVO</t>
@@ -36,55 +39,13 @@
     <t xml:space="preserve"> Onset QRS 1</t>
   </si>
   <si>
+    <t xml:space="preserve"> Onset P</t>
+  </si>
+  <si>
     <t>Onset QRS 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> Onset P</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Peak P</t>
-  </si>
-  <si>
-    <t>EMC</t>
-  </si>
-  <si>
-    <t>IVC</t>
-  </si>
-  <si>
-    <t>Ejection Time</t>
-  </si>
-  <si>
-    <t>IVRT</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>Diastase</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Aristoteles</t>
-  </si>
-  <si>
-    <t>IdPatient</t>
-  </si>
-  <si>
-    <t>NamePatient</t>
-  </si>
-  <si>
-    <t>MVO(ms)</t>
-  </si>
-  <si>
-    <t>MVC(ms)</t>
-  </si>
-  <si>
-    <t>AVO(ms)</t>
-  </si>
-  <si>
-    <t>AVC(ms)</t>
   </si>
   <si>
     <t>Electrical Mechanical Coupling = Onset QRS – MVC (Troquei a ordem)</t>
@@ -113,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -145,8 +106,7 @@
       <name val="Arial"/>
       <charset val="1"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
+      <sz val="16"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -155,6 +115,13 @@
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -209,7 +176,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -229,12 +196,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -257,12 +227,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -569,355 +542,191 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Z12"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A16" view="normal" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
-      <selection activeCell="B20" activeCellId="0" pane="topLeft" sqref="B20"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
+      <selection activeCell="B16" activeCellId="0" pane="topLeft" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="10" width="28.21"/>
-    <col customWidth="1" max="2" min="2" style="10" width="44.89"/>
-    <col customWidth="1" max="3" min="3" style="10" width="17.1"/>
-    <col customWidth="1" max="4" min="4" style="10" width="15.6"/>
-    <col customWidth="1" max="5" min="5" style="10" width="15.39"/>
-    <col customWidth="1" max="6" min="6" style="10" width="17.1"/>
-    <col customWidth="1" max="7" min="7" style="10" width="19.84"/>
-    <col customWidth="1" max="8" min="8" style="10" width="21.06"/>
-    <col customWidth="1" max="9" min="9" style="10" width="17.28"/>
-    <col customWidth="1" max="10" min="10" style="10" width="23.3"/>
-    <col customWidth="1" max="11" min="11" style="10" width="17.55"/>
-    <col customWidth="1" max="12" min="12" style="10" width="24.42"/>
-    <col customWidth="1" max="13" min="13" style="10" width="13.09"/>
-    <col customWidth="1" max="14" min="14" style="10" width="22.95"/>
-    <col customWidth="1" max="15" min="15" style="10" width="17.28"/>
-    <col customWidth="1" max="16" min="16" style="10" width="14.58"/>
-    <col customWidth="1" max="18" min="17" style="10" width="15.53"/>
-    <col customWidth="1" max="1025" min="19" style="10" width="9.85"/>
+    <col customWidth="1" max="1" min="1" style="11" width="28.21"/>
+    <col customWidth="1" max="2" min="2" style="11" width="44.89"/>
+    <col customWidth="1" max="3" min="3" style="11" width="17.1"/>
+    <col customWidth="1" max="4" min="4" style="11" width="15.61"/>
+    <col customWidth="1" max="5" min="5" style="11" width="15.39"/>
+    <col customWidth="1" max="6" min="6" style="11" width="17.1"/>
+    <col customWidth="1" max="7" min="7" style="11" width="19.84"/>
+    <col customWidth="1" max="8" min="8" style="11" width="21.06"/>
+    <col customWidth="1" max="9" min="9" style="11" width="26.51"/>
+    <col customWidth="1" max="10" min="10" style="11" width="23.3"/>
+    <col customWidth="1" max="11" min="11" style="11" width="17.55"/>
+    <col customWidth="1" max="12" min="12" style="11" width="24.41"/>
+    <col customWidth="1" max="13" min="13" style="11" width="13.09"/>
+    <col customWidth="1" max="14" min="14" style="11" width="22.95"/>
+    <col customWidth="1" max="15" min="15" style="11" width="17.28"/>
+    <col customWidth="1" max="16" min="16" style="11" width="14.58"/>
+    <col customWidth="1" max="18" min="17" style="11" width="15.53"/>
+    <col customWidth="1" max="1025" min="19" style="11" width="9.85"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="11" spans="1:26">
-      <c r="A1" s="12" t="n"/>
-      <c r="B1" s="12" t="n"/>
-      <c r="C1" s="12" t="n"/>
-      <c r="D1" s="12" t="n"/>
-      <c r="E1" s="12" t="n"/>
-      <c r="F1" s="12" t="n"/>
-      <c r="G1" s="12" t="n"/>
-      <c r="H1" s="12" t="n"/>
-      <c r="I1" s="12" t="n"/>
-      <c r="J1" s="12" t="n"/>
-      <c r="K1" s="12" t="n"/>
-      <c r="L1" s="12" t="n"/>
-      <c r="M1" s="12" t="n"/>
-      <c r="N1" s="12" t="n"/>
-      <c r="O1" s="12" t="n"/>
-      <c r="P1" s="12" t="n"/>
-      <c r="Q1" s="12" t="n"/>
-      <c r="R1" s="12" t="n"/>
-      <c r="S1" s="12" t="n"/>
-      <c r="T1" s="12" t="n"/>
-      <c r="U1" s="12" t="n"/>
-      <c r="V1" s="12" t="n"/>
-      <c r="W1" s="12" t="n"/>
-      <c r="X1" s="12" t="n"/>
-      <c r="Y1" s="12" t="n"/>
-      <c r="Z1" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.7" r="2" s="11" spans="1:26">
-      <c r="A2" s="13" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="12" spans="1:26">
+      <c r="A1" s="13" t="n"/>
+      <c r="B1" s="13" t="n"/>
+      <c r="C1" s="13" t="n"/>
+      <c r="D1" s="13" t="n"/>
+      <c r="E1" s="13" t="n"/>
+      <c r="F1" s="13" t="n"/>
+      <c r="G1" s="13" t="n"/>
+      <c r="H1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="14" t="s">
+      <c r="I1" s="13" t="n"/>
+      <c r="J1" s="13" t="n"/>
+      <c r="K1" s="13" t="n"/>
+      <c r="L1" s="13" t="n"/>
+      <c r="M1" s="13" t="n"/>
+      <c r="N1" s="13" t="n"/>
+      <c r="O1" s="13" t="n"/>
+      <c r="P1" s="13" t="n"/>
+      <c r="Q1" s="13" t="n"/>
+      <c r="R1" s="13" t="n"/>
+      <c r="S1" s="13" t="n"/>
+      <c r="T1" s="13" t="n"/>
+      <c r="U1" s="13" t="n"/>
+      <c r="V1" s="13" t="n"/>
+      <c r="W1" s="13" t="n"/>
+      <c r="X1" s="13" t="n"/>
+      <c r="Y1" s="13" t="n"/>
+      <c r="Z1" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="19.7" r="2" s="12" spans="1:26">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="15" t="n"/>
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="14" t="n"/>
-      <c r="L2" s="15" t="s">
+      <c r="J2" s="15" t="n"/>
+      <c r="K2" s="15" t="n"/>
+      <c r="L2" s="16" t="n"/>
+      <c r="M2" s="16" t="n"/>
+      <c r="N2" s="16" t="n"/>
+      <c r="O2" s="16" t="n"/>
+      <c r="P2" s="16" t="n"/>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="16" t="n"/>
+      <c r="S2" s="13" t="n"/>
+      <c r="T2" s="13" t="n"/>
+      <c r="U2" s="13" t="n"/>
+      <c r="V2" s="13" t="n"/>
+      <c r="W2" s="13" t="n"/>
+      <c r="X2" s="13" t="n"/>
+      <c r="Y2" s="13" t="n"/>
+      <c r="Z2" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="12" spans="1:26">
+      <c r="A3" s="17" t="n"/>
+      <c r="B3" s="17" t="n"/>
+      <c r="C3" s="17" t="n"/>
+      <c r="D3" s="17" t="n"/>
+      <c r="E3" s="17" t="n"/>
+      <c r="F3" s="17" t="n"/>
+      <c r="G3" s="17" t="n"/>
+      <c r="H3" s="17" t="n"/>
+      <c r="I3" s="17" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="17" t="n"/>
+      <c r="M3" s="17" t="n"/>
+      <c r="N3" s="17" t="n"/>
+      <c r="O3" s="17" t="n"/>
+      <c r="P3" s="17" t="n"/>
+      <c r="Q3" s="17" t="n"/>
+      <c r="R3" s="17" t="n"/>
+      <c r="S3" s="13" t="n"/>
+      <c r="T3" s="13" t="n"/>
+      <c r="U3" s="13" t="n"/>
+      <c r="V3" s="13" t="n"/>
+      <c r="W3" s="13" t="n"/>
+      <c r="X3" s="13" t="n"/>
+      <c r="Y3" s="13" t="n"/>
+      <c r="Z3" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="12" spans="1:26">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="12" t="n"/>
-      <c r="T2" s="12" t="n"/>
-      <c r="U2" s="12" t="n"/>
-      <c r="V2" s="12" t="n"/>
-      <c r="W2" s="12" t="n"/>
-      <c r="X2" s="12" t="n"/>
-      <c r="Y2" s="12" t="n"/>
-      <c r="Z2" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="3" s="11" spans="1:26">
-      <c r="A3" s="13" t="n"/>
-      <c r="B3" s="13" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="13" t="n"/>
-      <c r="E3" s="13" t="n"/>
-      <c r="F3" s="13" t="n"/>
-      <c r="G3" s="13" t="n"/>
-      <c r="H3" s="13" t="n"/>
-      <c r="I3" s="13" t="n"/>
-      <c r="J3" s="16" t="n"/>
-      <c r="K3" s="16" t="n"/>
-      <c r="L3" s="13" t="n"/>
-      <c r="M3" s="13" t="n"/>
-      <c r="N3" s="13" t="n"/>
-      <c r="O3" s="13" t="n"/>
-      <c r="P3" s="13" t="n"/>
-      <c r="Q3" s="13" t="n"/>
-      <c r="R3" s="13" t="n"/>
-      <c r="S3" s="12" t="n"/>
-      <c r="T3" s="12" t="n"/>
-      <c r="U3" s="12" t="n"/>
-      <c r="V3" s="12" t="n"/>
-      <c r="W3" s="12" t="n"/>
-      <c r="X3" s="12" t="n"/>
-      <c r="Y3" s="12" t="n"/>
-      <c r="Z3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="4" s="11" spans="1:26">
-      <c r="A4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="13" t="n"/>
-      <c r="C4" s="13" t="n">
+      <c r="B4" s="17" t="n"/>
+      <c r="C4" s="17" t="n">
         <v>453</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="17" t="n">
         <v>72</v>
       </c>
-      <c r="F4" s="13" t="n">
+      <c r="F4" s="17" t="n">
         <v>382</v>
       </c>
-      <c r="G4" s="13" t="n">
-        <v>102</v>
-      </c>
-      <c r="H4" s="13" t="n">
-        <v>1142</v>
-      </c>
-      <c r="I4" s="13" t="n">
-        <v>1034</v>
-      </c>
-      <c r="J4" s="16" t="n">
-        <v>1104</v>
-      </c>
-      <c r="K4" s="17" t="n"/>
-      <c r="L4" s="13">
-        <f>G4-D4</f>
-        <v/>
-      </c>
-      <c r="M4" s="13">
-        <f>E4-D4</f>
-        <v/>
-      </c>
-      <c r="N4" s="13">
-        <f>F4-E4</f>
-        <v/>
-      </c>
-      <c r="O4" s="13">
-        <f>C4-F4</f>
-        <v/>
-      </c>
-      <c r="P4" s="13">
-        <f>I4-C4</f>
-        <v/>
-      </c>
-      <c r="Q4" s="13" t="n">
-        <v>750</v>
-      </c>
-      <c r="R4" s="13">
-        <f>J4-I4</f>
-        <v/>
-      </c>
-      <c r="S4" s="18" t="n"/>
-      <c r="T4" s="18" t="n"/>
-      <c r="U4" s="12" t="n"/>
-      <c r="V4" s="12" t="n"/>
-      <c r="W4" s="12" t="n"/>
-      <c r="X4" s="12" t="n"/>
-      <c r="Y4" s="12" t="n"/>
-      <c r="Z4" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="6" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="7" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="8" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="9" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="10" s="11" spans="1:26">
-      <c r="A10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="14" t="n"/>
-      <c r="I10" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K10" s="14" t="n"/>
-      <c r="L10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="11" s="11" spans="1:26">
-      <c r="A11" s="13" t="n"/>
-      <c r="B11" s="13" t="n"/>
-      <c r="C11" s="13" t="n"/>
-      <c r="D11" s="13" t="n"/>
-      <c r="E11" s="13" t="n"/>
-      <c r="F11" s="13" t="n"/>
-      <c r="G11" s="13" t="n"/>
-      <c r="H11" s="13" t="n"/>
-      <c r="I11" s="13" t="n"/>
-      <c r="J11" s="13" t="n"/>
-      <c r="K11" s="16" t="n"/>
-      <c r="L11" s="13" t="n"/>
-      <c r="M11" s="13" t="n"/>
-      <c r="N11" s="13" t="n"/>
-      <c r="O11" s="13" t="n"/>
-      <c r="P11" s="13" t="n"/>
-      <c r="Q11" s="13" t="n"/>
-      <c r="R11" s="13" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="12" s="11" spans="1:26">
-      <c r="A12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="13" t="n"/>
-      <c r="C12" s="13" t="n">
-        <v>453</v>
-      </c>
-      <c r="D12" s="13" t="n">
-        <v>24</v>
-      </c>
-      <c r="E12" s="13" t="n">
-        <v>72</v>
-      </c>
-      <c r="F12" s="13" t="n">
-        <v>382</v>
-      </c>
-      <c r="G12" s="13" t="n">
-        <v>102</v>
-      </c>
-      <c r="H12" s="13" t="n"/>
-      <c r="I12" s="13" t="n">
-        <v>1037</v>
-      </c>
-      <c r="J12" s="13" t="n">
-        <v>1140</v>
-      </c>
-      <c r="K12" s="17" t="n"/>
-      <c r="L12" s="13">
-        <f>G12-D12</f>
-        <v/>
-      </c>
-      <c r="M12" s="13">
-        <f>E12-D12</f>
-        <v/>
-      </c>
-      <c r="N12" s="13">
-        <f>F12-E12</f>
-        <v/>
-      </c>
-      <c r="O12" s="13">
-        <f>C12-F12</f>
-        <v/>
-      </c>
-      <c r="P12" s="13">
-        <f>I12-C12</f>
-        <v/>
-      </c>
-      <c r="Q12" s="13" t="n">
-        <v>700</v>
-      </c>
-      <c r="R12" s="13">
-        <f>J12-I12</f>
-        <v/>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="13" s="11" spans="1:26"/>
-    <row customHeight="1" ht="19.7" r="16" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="17" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="18" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="24" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="25" s="11" spans="1:26"/>
+      <c r="G4" s="17" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" s="17" t="n">
+        <v>1141</v>
+      </c>
+      <c r="I4" s="17" t="n">
+        <v>1025</v>
+      </c>
+      <c r="J4" s="18" t="n"/>
+      <c r="K4" s="19" t="n"/>
+      <c r="L4" s="17" t="n"/>
+      <c r="M4" s="17" t="n"/>
+      <c r="N4" s="17" t="n"/>
+      <c r="O4" s="17" t="n"/>
+      <c r="P4" s="17" t="n"/>
+      <c r="Q4" s="17" t="n"/>
+      <c r="R4" s="17" t="n"/>
+      <c r="S4" s="20" t="n"/>
+      <c r="T4" s="20" t="n"/>
+      <c r="U4" s="13" t="n"/>
+      <c r="V4" s="13" t="n"/>
+      <c r="W4" s="13" t="n"/>
+      <c r="X4" s="13" t="n"/>
+      <c r="Y4" s="13" t="n"/>
+      <c r="Z4" s="13" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="12" spans="1:26"/>
+    <row customHeight="1" ht="15" r="6" s="12" spans="1:26"/>
+    <row customHeight="1" ht="15" r="7" s="12" spans="1:26"/>
+    <row customHeight="1" ht="15" r="8" s="12" spans="1:26"/>
+    <row customHeight="1" ht="15" r="9" s="12" spans="1:26"/>
+    <row customHeight="1" ht="15" r="10" s="12" spans="1:26"/>
+    <row customHeight="1" ht="19.7" r="13" s="12" spans="1:26"/>
+    <row customHeight="1" ht="15" r="14" s="12" spans="1:26"/>
+    <row customHeight="1" ht="15" r="15" s="12" spans="1:26"/>
+    <row customHeight="1" ht="15" r="21" s="12" spans="1:26"/>
+    <row customHeight="1" ht="15" r="22" s="12" spans="1:26"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
@@ -947,42 +756,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" style="19" width="10.12"/>
+    <col customWidth="1" max="1025" min="1" style="21" width="10.12"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="4" s="11" spans="1:2">
-      <c r="B4" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="11" spans="1:2">
-      <c r="B6" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="9" s="11" spans="1:2">
-      <c r="B9" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="11" s="11" spans="1:2">
-      <c r="B11" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="13" s="11" spans="1:2">
-      <c r="B13" s="19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="15" s="11" spans="1:2">
-      <c r="B15" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="17" s="11" spans="1:2">
-      <c r="B17" s="19" t="s">
-        <v>29</v>
+    <row customHeight="1" ht="12.8" r="4" s="12" spans="1:2">
+      <c r="B4" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="6" s="12" spans="1:2">
+      <c r="B6" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="9" s="12" spans="1:2">
+      <c r="B9" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="11" s="12" spans="1:2">
+      <c r="B11" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="13" s="12" spans="1:2">
+      <c r="B13" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="15" s="12" spans="1:2">
+      <c r="B15" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12.8" r="17" s="12" spans="1:2">
+      <c r="B17" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -690,13 +690,13 @@
         <v>382</v>
       </c>
       <c r="G4" s="17" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H4" s="17" t="n">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="I4" s="17" t="n">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="J4" s="18" t="n"/>
       <c r="K4" s="19" t="n"/>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -690,13 +690,13 @@
         <v>382</v>
       </c>
       <c r="G4" s="17" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H4" s="17" t="n">
-        <v>1144</v>
+        <v>1107</v>
       </c>
       <c r="I4" s="17" t="n">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="J4" s="18" t="n"/>
       <c r="K4" s="19" t="n"/>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -690,13 +690,13 @@
         <v>382</v>
       </c>
       <c r="G4" s="17" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H4" s="17" t="n">
-        <v>1107</v>
+        <v>1143</v>
       </c>
       <c r="I4" s="17" t="n">
-        <v>1035</v>
+        <v>1018</v>
       </c>
       <c r="J4" s="18" t="n"/>
       <c r="K4" s="19" t="n"/>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -690,13 +690,13 @@
         <v>382</v>
       </c>
       <c r="G4" s="17" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H4" s="17" t="n">
-        <v>1143</v>
+        <v>1108</v>
       </c>
       <c r="I4" s="17" t="n">
-        <v>1018</v>
+        <v>1031</v>
       </c>
       <c r="J4" s="18" t="n"/>
       <c r="K4" s="19" t="n"/>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
@@ -16,14 +15,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
-  <si>
-    <t>pontos marcados</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+  <si>
+    <t>Pontos marcados</t>
   </si>
   <si>
     <t>IdPatient</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>MVO</t>
   </si>
   <si>
@@ -48,25 +50,16 @@
     <t>Aristoteles</t>
   </si>
   <si>
-    <t>Electrical Mechanical Coupling = Onset QRS – MVC (Troquei a ordem)</t>
-  </si>
-  <si>
-    <t>IVC = AVO - MVC</t>
-  </si>
-  <si>
-    <t>Eject = AVC – AVO</t>
-  </si>
-  <si>
-    <t>Isovolumetric Relaxation Time = MVO – AVC</t>
-  </si>
-  <si>
-    <t>Early Filling Phase = Onset P Wave – MVO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Late Filling Phase = </t>
-  </si>
-  <si>
-    <t>Atrial Contraction = P wave peak – P wave onset</t>
+    <t>Adilson</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Yamaguchi</t>
+  </si>
+  <si>
+    <t>Teste1</t>
   </si>
 </sst>
 </file>
@@ -74,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -101,12 +94,6 @@
       <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="16"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -176,7 +163,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
@@ -186,29 +173,23 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -217,29 +198,23 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -542,191 +517,279 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100">
-      <selection activeCell="B16" activeCellId="0" pane="topLeft" sqref="B16"/>
+      <selection activeCell="B21" activeCellId="0" pane="topLeft" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="28.21"/>
-    <col customWidth="1" max="2" min="2" style="11" width="44.89"/>
-    <col customWidth="1" max="3" min="3" style="11" width="17.1"/>
-    <col customWidth="1" max="4" min="4" style="11" width="15.61"/>
-    <col customWidth="1" max="5" min="5" style="11" width="15.39"/>
-    <col customWidth="1" max="6" min="6" style="11" width="17.1"/>
-    <col customWidth="1" max="7" min="7" style="11" width="19.84"/>
-    <col customWidth="1" max="8" min="8" style="11" width="21.06"/>
-    <col customWidth="1" max="9" min="9" style="11" width="26.51"/>
-    <col customWidth="1" max="10" min="10" style="11" width="23.3"/>
-    <col customWidth="1" max="11" min="11" style="11" width="17.55"/>
-    <col customWidth="1" max="12" min="12" style="11" width="24.41"/>
-    <col customWidth="1" max="13" min="13" style="11" width="13.09"/>
-    <col customWidth="1" max="14" min="14" style="11" width="22.95"/>
-    <col customWidth="1" max="15" min="15" style="11" width="17.28"/>
-    <col customWidth="1" max="16" min="16" style="11" width="14.58"/>
-    <col customWidth="1" max="18" min="17" style="11" width="15.53"/>
-    <col customWidth="1" max="1025" min="19" style="11" width="9.85"/>
+    <col customWidth="1" max="1" min="1" style="9" width="28.21"/>
+    <col customWidth="1" max="2" min="2" style="9" width="44.89"/>
+    <col customWidth="1" max="3" min="3" style="9" width="17.1"/>
+    <col customWidth="1" max="4" min="4" style="9" width="15.61"/>
+    <col customWidth="1" max="5" min="5" style="9" width="15.39"/>
+    <col customWidth="1" max="6" min="6" style="9" width="17.1"/>
+    <col customWidth="1" max="7" min="7" style="9" width="19.84"/>
+    <col customWidth="1" max="8" min="8" style="9" width="21.06"/>
+    <col customWidth="1" max="9" min="9" style="9" width="26.51"/>
+    <col customWidth="1" max="10" min="10" style="9" width="23.3"/>
+    <col customWidth="1" max="11" min="11" style="9" width="17.55"/>
+    <col customWidth="1" max="12" min="12" style="9" width="24.41"/>
+    <col customWidth="1" max="13" min="13" style="9" width="13.09"/>
+    <col customWidth="1" max="14" min="14" style="9" width="22.95"/>
+    <col customWidth="1" max="15" min="15" style="9" width="17.28"/>
+    <col customWidth="1" max="16" min="16" style="9" width="14.58"/>
+    <col customWidth="1" max="18" min="17" style="9" width="15.53"/>
+    <col customWidth="1" max="1025" min="19" style="9" width="9.85"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="12" spans="1:26">
-      <c r="A1" s="13" t="n"/>
-      <c r="B1" s="13" t="n"/>
-      <c r="C1" s="13" t="n"/>
-      <c r="D1" s="13" t="n"/>
-      <c r="E1" s="13" t="n"/>
-      <c r="F1" s="13" t="n"/>
-      <c r="G1" s="13" t="n"/>
-      <c r="H1" s="14" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="10" spans="1:26">
+      <c r="A1" s="11" t="n"/>
+      <c r="B1" s="11" t="n"/>
+      <c r="C1" s="11" t="n"/>
+      <c r="D1" s="11" t="n"/>
+      <c r="E1" s="11" t="n"/>
+      <c r="F1" s="11" t="n"/>
+      <c r="G1" s="12" t="n"/>
+      <c r="H1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="13" t="n"/>
-      <c r="J1" s="13" t="n"/>
-      <c r="K1" s="13" t="n"/>
-      <c r="L1" s="13" t="n"/>
-      <c r="M1" s="13" t="n"/>
-      <c r="N1" s="13" t="n"/>
-      <c r="O1" s="13" t="n"/>
-      <c r="P1" s="13" t="n"/>
-      <c r="Q1" s="13" t="n"/>
-      <c r="R1" s="13" t="n"/>
-      <c r="S1" s="13" t="n"/>
-      <c r="T1" s="13" t="n"/>
-      <c r="U1" s="13" t="n"/>
-      <c r="V1" s="13" t="n"/>
-      <c r="W1" s="13" t="n"/>
-      <c r="X1" s="13" t="n"/>
-      <c r="Y1" s="13" t="n"/>
-      <c r="Z1" s="13" t="n"/>
+      <c r="I1" s="12" t="n"/>
+      <c r="J1" s="11" t="n"/>
+      <c r="K1" s="11" t="n"/>
+      <c r="L1" s="11" t="n"/>
+      <c r="M1" s="11" t="n"/>
+      <c r="N1" s="11" t="n"/>
+      <c r="O1" s="11" t="n"/>
+      <c r="P1" s="11" t="n"/>
+      <c r="Q1" s="11" t="n"/>
+      <c r="R1" s="11" t="n"/>
+      <c r="S1" s="11" t="n"/>
+      <c r="T1" s="11" t="n"/>
+      <c r="U1" s="11" t="n"/>
+      <c r="V1" s="11" t="n"/>
+      <c r="W1" s="11" t="n"/>
+      <c r="X1" s="11" t="n"/>
+      <c r="Y1" s="11" t="n"/>
+      <c r="Z1" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="19.7" r="2" s="12" spans="1:26">
-      <c r="A2" s="15" t="s">
+    <row customHeight="1" ht="19.7" r="2" s="10" spans="1:26">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="n"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="15" t="n"/>
-      <c r="K2" s="15" t="n"/>
-      <c r="L2" s="16" t="n"/>
-      <c r="M2" s="16" t="n"/>
-      <c r="N2" s="16" t="n"/>
-      <c r="O2" s="16" t="n"/>
-      <c r="P2" s="16" t="n"/>
-      <c r="Q2" s="16" t="n"/>
-      <c r="R2" s="16" t="n"/>
-      <c r="S2" s="13" t="n"/>
-      <c r="T2" s="13" t="n"/>
-      <c r="U2" s="13" t="n"/>
-      <c r="V2" s="13" t="n"/>
-      <c r="W2" s="13" t="n"/>
-      <c r="X2" s="13" t="n"/>
-      <c r="Y2" s="13" t="n"/>
-      <c r="Z2" s="13" t="n"/>
+      <c r="I2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="12" t="n"/>
+      <c r="L2" s="13" t="n"/>
+      <c r="M2" s="13" t="n"/>
+      <c r="N2" s="13" t="n"/>
+      <c r="O2" s="13" t="n"/>
+      <c r="P2" s="13" t="n"/>
+      <c r="Q2" s="13" t="n"/>
+      <c r="R2" s="13" t="n"/>
+      <c r="S2" s="11" t="n"/>
+      <c r="T2" s="11" t="n"/>
+      <c r="U2" s="11" t="n"/>
+      <c r="V2" s="11" t="n"/>
+      <c r="W2" s="11" t="n"/>
+      <c r="X2" s="11" t="n"/>
+      <c r="Y2" s="11" t="n"/>
+      <c r="Z2" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="3" s="12" spans="1:26">
-      <c r="A3" s="17" t="n"/>
-      <c r="B3" s="17" t="n"/>
-      <c r="C3" s="17" t="n"/>
-      <c r="D3" s="17" t="n"/>
-      <c r="E3" s="17" t="n"/>
-      <c r="F3" s="17" t="n"/>
-      <c r="G3" s="17" t="n"/>
-      <c r="H3" s="17" t="n"/>
-      <c r="I3" s="17" t="n"/>
-      <c r="J3" s="18" t="n"/>
-      <c r="K3" s="18" t="n"/>
-      <c r="L3" s="17" t="n"/>
-      <c r="M3" s="17" t="n"/>
-      <c r="N3" s="17" t="n"/>
-      <c r="O3" s="17" t="n"/>
-      <c r="P3" s="17" t="n"/>
-      <c r="Q3" s="17" t="n"/>
-      <c r="R3" s="17" t="n"/>
-      <c r="S3" s="13" t="n"/>
-      <c r="T3" s="13" t="n"/>
-      <c r="U3" s="13" t="n"/>
-      <c r="V3" s="13" t="n"/>
-      <c r="W3" s="13" t="n"/>
-      <c r="X3" s="13" t="n"/>
-      <c r="Y3" s="13" t="n"/>
-      <c r="Z3" s="13" t="n"/>
+    <row customHeight="1" ht="15" r="3" s="10" spans="1:26">
+      <c r="A3" s="14" t="n"/>
+      <c r="B3" s="14" t="n"/>
+      <c r="C3" s="14" t="n"/>
+      <c r="D3" s="14" t="n"/>
+      <c r="E3" s="14" t="n"/>
+      <c r="F3" s="14" t="n"/>
+      <c r="G3" s="14" t="n"/>
+      <c r="H3" s="14" t="n"/>
+      <c r="I3" s="14" t="n"/>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="15" t="n"/>
+      <c r="L3" s="14" t="n"/>
+      <c r="M3" s="14" t="n"/>
+      <c r="N3" s="14" t="n"/>
+      <c r="O3" s="14" t="n"/>
+      <c r="P3" s="14" t="n"/>
+      <c r="Q3" s="14" t="n"/>
+      <c r="R3" s="14" t="n"/>
+      <c r="S3" s="11" t="n"/>
+      <c r="T3" s="11" t="n"/>
+      <c r="U3" s="11" t="n"/>
+      <c r="V3" s="11" t="n"/>
+      <c r="W3" s="11" t="n"/>
+      <c r="X3" s="11" t="n"/>
+      <c r="Y3" s="11" t="n"/>
+      <c r="Z3" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="4" s="12" spans="1:26">
-      <c r="A4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="17" t="n"/>
-      <c r="C4" s="17" t="n">
+    <row customHeight="1" ht="15" r="4" s="10" spans="1:26">
+      <c r="A4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="14" t="n"/>
+      <c r="C4" s="14" t="n">
         <v>453</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="14" t="n">
         <v>24</v>
       </c>
-      <c r="E4" s="17" t="n">
+      <c r="E4" s="14" t="n">
         <v>72</v>
       </c>
-      <c r="F4" s="17" t="n">
+      <c r="F4" s="14" t="n">
         <v>382</v>
       </c>
-      <c r="G4" s="17" t="n">
-        <v>102</v>
-      </c>
-      <c r="H4" s="17" t="n">
-        <v>1108</v>
-      </c>
-      <c r="I4" s="17" t="n">
-        <v>1031</v>
-      </c>
-      <c r="J4" s="18" t="n"/>
-      <c r="K4" s="19" t="n"/>
-      <c r="L4" s="17" t="n"/>
-      <c r="M4" s="17" t="n"/>
-      <c r="N4" s="17" t="n"/>
-      <c r="O4" s="17" t="n"/>
-      <c r="P4" s="17" t="n"/>
-      <c r="Q4" s="17" t="n"/>
-      <c r="R4" s="17" t="n"/>
-      <c r="S4" s="20" t="n"/>
-      <c r="T4" s="20" t="n"/>
-      <c r="U4" s="13" t="n"/>
-      <c r="V4" s="13" t="n"/>
-      <c r="W4" s="13" t="n"/>
-      <c r="X4" s="13" t="n"/>
-      <c r="Y4" s="13" t="n"/>
-      <c r="Z4" s="13" t="n"/>
+      <c r="G4" s="14" t="n">
+        <v>105</v>
+      </c>
+      <c r="H4" s="14" t="n">
+        <v>1139</v>
+      </c>
+      <c r="I4" s="14" t="n">
+        <v>1029</v>
+      </c>
+      <c r="J4" s="15" t="n"/>
+      <c r="K4" s="16" t="n"/>
+      <c r="L4" s="14" t="n"/>
+      <c r="M4" s="14" t="n"/>
+      <c r="N4" s="14" t="n"/>
+      <c r="O4" s="14" t="n"/>
+      <c r="P4" s="14" t="n"/>
+      <c r="Q4" s="14" t="n"/>
+      <c r="R4" s="14" t="n"/>
+      <c r="S4" s="17" t="n"/>
+      <c r="T4" s="17" t="n"/>
+      <c r="U4" s="11" t="n"/>
+      <c r="V4" s="11" t="n"/>
+      <c r="W4" s="11" t="n"/>
+      <c r="X4" s="11" t="n"/>
+      <c r="Y4" s="11" t="n"/>
+      <c r="Z4" s="11" t="n"/>
     </row>
-    <row customHeight="1" ht="15" r="5" s="12" spans="1:26"/>
-    <row customHeight="1" ht="15" r="6" s="12" spans="1:26"/>
-    <row customHeight="1" ht="15" r="7" s="12" spans="1:26"/>
-    <row customHeight="1" ht="15" r="8" s="12" spans="1:26"/>
-    <row customHeight="1" ht="15" r="9" s="12" spans="1:26"/>
-    <row customHeight="1" ht="15" r="10" s="12" spans="1:26"/>
-    <row customHeight="1" ht="19.7" r="13" s="12" spans="1:26"/>
-    <row customHeight="1" ht="15" r="14" s="12" spans="1:26"/>
-    <row customHeight="1" ht="15" r="15" s="12" spans="1:26"/>
-    <row customHeight="1" ht="15" r="21" s="12" spans="1:26"/>
-    <row customHeight="1" ht="15" r="22" s="12" spans="1:26"/>
+    <row customHeight="1" ht="15" r="5" s="10" spans="1:26">
+      <c r="A5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14" t="n"/>
+      <c r="C5" s="14" t="n">
+        <v>609</v>
+      </c>
+      <c r="D5" s="14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" s="14" t="n">
+        <v>126</v>
+      </c>
+      <c r="F5" s="14" t="n">
+        <v>428</v>
+      </c>
+      <c r="G5" s="14" t="n"/>
+      <c r="H5" s="14" t="n"/>
+      <c r="I5" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="10" spans="1:26">
+      <c r="A6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14" t="n"/>
+      <c r="C6" s="14" t="n">
+        <v>525</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>37</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>152</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>441</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>40</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>1080</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="10" spans="1:26">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="14" t="n"/>
+      <c r="C7" s="14" t="n">
+        <v>404</v>
+      </c>
+      <c r="D7" s="14" t="n">
+        <v>823</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>61</v>
+      </c>
+      <c r="F7" s="14" t="n">
+        <v>310</v>
+      </c>
+      <c r="G7" s="14" t="n"/>
+      <c r="H7" s="14" t="n"/>
+      <c r="I7" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="10" spans="1:26">
+      <c r="A8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="n"/>
+      <c r="C8" s="14" t="n">
+        <v>654.5</v>
+      </c>
+      <c r="D8" s="14" t="n">
+        <v>272.8</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>336</v>
+      </c>
+      <c r="F8" s="14" t="n">
+        <v>586.034402</v>
+      </c>
+      <c r="G8" s="14" t="n"/>
+      <c r="H8" s="14" t="n"/>
+      <c r="I8" s="14" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="10" s="10" spans="1:26"/>
+    <row customHeight="1" ht="19.7" r="13" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="14" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="15" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="21" s="10" spans="1:26"/>
+    <row customHeight="1" ht="15" r="22" s="10" spans="1:26"/>
   </sheetData>
   <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="1" verticalCentered="1"/>
   <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
@@ -740,71 +803,4 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="B4:B17"/>
-  <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E17" activeCellId="0" pane="topLeft" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
-  <cols>
-    <col customWidth="1" max="1025" min="1" style="21" width="10.12"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="12.8" r="4" s="12" spans="1:2">
-      <c r="B4" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="6" s="12" spans="1:2">
-      <c r="B6" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="9" s="12" spans="1:2">
-      <c r="B9" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="11" s="12" spans="1:2">
-      <c r="B11" s="21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="13" s="12" spans="1:2">
-      <c r="B13" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="15" s="12" spans="1:2">
-      <c r="B15" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12.8" r="17" s="12" spans="1:2">
-      <c r="B17" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
-  <headerFooter differentFirst="0" differentOddEven="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -667,13 +667,13 @@
         <v>382</v>
       </c>
       <c r="G4" s="14" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H4" s="14" t="n">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="I4" s="14" t="n">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="J4" s="15" t="n"/>
       <c r="K4" s="16" t="n"/>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -667,13 +667,13 @@
         <v>382</v>
       </c>
       <c r="G4" s="14" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H4" s="14" t="n">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="I4" s="14" t="n">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="J4" s="15" t="n"/>
       <c r="K4" s="16" t="n"/>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -667,13 +667,13 @@
         <v>382</v>
       </c>
       <c r="G4" s="14" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H4" s="14" t="n">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="I4" s="14" t="n">
-        <v>1018</v>
+        <v>1029</v>
       </c>
       <c r="J4" s="15" t="n"/>
       <c r="K4" s="16" t="n"/>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Pontos marcados</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosemeire</t>
   </si>
 </sst>
 </file>
@@ -321,7 +324,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -480,7 +483,7 @@
         <v>1143</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="J4" s="8" t="n">
         <v>-17.83</v>
@@ -620,13 +623,13 @@
         <v>460</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1140</v>
+        <v>999</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>969</v>
+        <v>901</v>
       </c>
       <c r="J9" s="8" t="n">
         <v>-13.53</v>
@@ -653,13 +656,13 @@
         <v>395</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="J10" s="8" t="n">
         <v>-18.18</v>
@@ -668,8 +671,30 @@
         <v>132.95</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6" t="n">
+        <v>674</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>383</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>286</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Pontos marcados</t>
   </si>
@@ -93,6 +93,60 @@
   </si>
   <si>
     <t>MariaBento</t>
+  </si>
+  <si>
+    <t>FatimaAparecida</t>
+  </si>
+  <si>
+    <t>MarliRosa</t>
+  </si>
+  <si>
+    <t>JoseMacedo</t>
+  </si>
+  <si>
+    <t>SEMTEMPOS</t>
+  </si>
+  <si>
+    <t>FabricioLucena</t>
+  </si>
+  <si>
+    <t>Neusa</t>
+  </si>
+  <si>
+    <t>Eliene</t>
+  </si>
+  <si>
+    <t>Adauto</t>
+  </si>
+  <si>
+    <t>JoseSilva</t>
+  </si>
+  <si>
+    <t>Diogenes</t>
+  </si>
+  <si>
+    <t>MariaSilva</t>
+  </si>
+  <si>
+    <t>MarcoAntonio</t>
+  </si>
+  <si>
+    <t>Marlene</t>
+  </si>
+  <si>
+    <t>Valdir</t>
+  </si>
+  <si>
+    <t>PedroFernandes</t>
+  </si>
+  <si>
+    <t>MariaNogueira</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Roseli</t>
   </si>
 </sst>
 </file>
@@ -553,10 +607,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100">
-      <selection activeCell="C35" activeCellId="0" pane="topLeft" sqref="C35"/>
+      <selection activeCell="B25" activeCellId="0" pane="topLeft" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -708,19 +762,19 @@
         <v>382</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>1144</v>
+        <v>1149</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>1034</v>
+        <v>961</v>
       </c>
       <c r="J4" s="17" t="n">
-        <v>-17.83</v>
+        <v>-16.94</v>
       </c>
       <c r="K4" s="17" t="n">
-        <v>37.29</v>
+        <v>51.55</v>
       </c>
       <c r="L4" s="15" t="n"/>
       <c r="M4" s="15" t="n"/>
@@ -833,8 +887,12 @@
       <c r="G8" s="15" t="n"/>
       <c r="H8" s="15" t="n"/>
       <c r="I8" s="15" t="n"/>
-      <c r="J8" s="17" t="n"/>
-      <c r="K8" s="17" t="n"/>
+      <c r="J8" s="17" t="n">
+        <v>-12.58</v>
+      </c>
+      <c r="K8" s="17" t="n">
+        <v>140.33</v>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="9" s="11" spans="1:26">
       <c r="A9" s="15" t="s">
@@ -920,19 +978,19 @@
         <v>286</v>
       </c>
       <c r="G11" s="15" t="n">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="H11" s="15" t="n">
-        <v>791</v>
+        <v>754</v>
       </c>
       <c r="I11" s="15" t="n">
-        <v>747</v>
+        <v>693</v>
       </c>
       <c r="J11" s="17" t="n">
-        <v>-4.11</v>
+        <v>-4.18</v>
       </c>
       <c r="K11" s="17" t="n">
-        <v>89.23</v>
+        <v>91.81999999999999</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="12" s="11" spans="1:26">
@@ -1100,12 +1158,649 @@
         <v>100.27</v>
       </c>
     </row>
-    <row customHeight="1" ht="15" r="17" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="18" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="19" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="20" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="21" s="11" spans="1:26"/>
-    <row customHeight="1" ht="15" r="22" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="17" s="11" spans="1:26">
+      <c r="A17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="17" t="n"/>
+      <c r="C17" s="17" t="n">
+        <v>451</v>
+      </c>
+      <c r="D17" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" s="17" t="n">
+        <v>67</v>
+      </c>
+      <c r="F17" s="17" t="n">
+        <v>374</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <v>67</v>
+      </c>
+      <c r="H17" s="17" t="n">
+        <v>883</v>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>782</v>
+      </c>
+      <c r="J17" s="17" t="n">
+        <v>-17.01</v>
+      </c>
+      <c r="K17" s="17" t="n">
+        <v>37.28</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="18" s="11" spans="1:26">
+      <c r="A18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="17" t="n"/>
+      <c r="C18" s="17" t="n">
+        <v>493</v>
+      </c>
+      <c r="D18" s="17" t="n">
+        <v>905</v>
+      </c>
+      <c r="E18" s="17" t="n">
+        <v>46</v>
+      </c>
+      <c r="F18" s="17" t="n">
+        <v>384</v>
+      </c>
+      <c r="G18" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="H18" s="17" t="n">
+        <v>938</v>
+      </c>
+      <c r="I18" s="17" t="n">
+        <v>840</v>
+      </c>
+      <c r="J18" s="17" t="n">
+        <v>-20.02</v>
+      </c>
+      <c r="K18" s="17" t="n">
+        <v>41.47</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="19" s="11" spans="1:26">
+      <c r="A19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="17" t="n"/>
+      <c r="C19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="17" t="n"/>
+      <c r="E19" s="17" t="n"/>
+      <c r="F19" s="17" t="n"/>
+      <c r="G19" s="17" t="n"/>
+      <c r="H19" s="17" t="n"/>
+      <c r="I19" s="17" t="n"/>
+      <c r="J19" s="17" t="n"/>
+      <c r="K19" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="20" s="11" spans="1:26">
+      <c r="A20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="17" t="n"/>
+      <c r="C20" s="17" t="n">
+        <v>397</v>
+      </c>
+      <c r="D20" s="17" t="n">
+        <v>877</v>
+      </c>
+      <c r="E20" s="17" t="n">
+        <v>65</v>
+      </c>
+      <c r="F20" s="17" t="n">
+        <v>326</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>48</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <v>942</v>
+      </c>
+      <c r="I20" s="17" t="n">
+        <v>835</v>
+      </c>
+      <c r="J20" s="17" t="n">
+        <v>-19.29</v>
+      </c>
+      <c r="K20" s="17" t="n">
+        <v>37.97</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="21" s="11" spans="1:26">
+      <c r="A21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="17" t="n"/>
+      <c r="C21" s="17" t="n">
+        <v>515</v>
+      </c>
+      <c r="D21" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" s="17" t="n">
+        <v>31</v>
+      </c>
+      <c r="F21" s="17" t="n">
+        <v>385</v>
+      </c>
+      <c r="G21" s="17" t="n">
+        <v>119</v>
+      </c>
+      <c r="H21" s="17" t="n">
+        <v>1216</v>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>1113</v>
+      </c>
+      <c r="J21" s="17" t="n">
+        <v>-15.15</v>
+      </c>
+      <c r="K21" s="17" t="n">
+        <v>69.8</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="11" spans="1:26">
+      <c r="A22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="17" t="n">
+        <v>484</v>
+      </c>
+      <c r="D22" s="17" t="n">
+        <v>1071</v>
+      </c>
+      <c r="E22" s="17" t="n">
+        <v>78</v>
+      </c>
+      <c r="F22" s="17" t="n">
+        <v>396</v>
+      </c>
+      <c r="G22" s="17" t="n">
+        <v>22</v>
+      </c>
+      <c r="H22" s="17" t="n">
+        <v>1014</v>
+      </c>
+      <c r="I22" s="17" t="n">
+        <v>784</v>
+      </c>
+      <c r="J22" s="17" t="n">
+        <v>-16.42</v>
+      </c>
+      <c r="K22" s="17" t="n">
+        <v>89.34</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="23" s="11" spans="1:26">
+      <c r="A23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="17" t="n"/>
+      <c r="C23" s="17" t="n">
+        <v>561</v>
+      </c>
+      <c r="D23" s="17" t="n">
+        <v>45</v>
+      </c>
+      <c r="E23" s="17" t="n">
+        <v>68</v>
+      </c>
+      <c r="F23" s="17" t="n">
+        <v>412</v>
+      </c>
+      <c r="G23" s="17" t="n">
+        <v>119</v>
+      </c>
+      <c r="H23" s="17" t="n">
+        <v>1255</v>
+      </c>
+      <c r="I23" s="17" t="n">
+        <v>1099</v>
+      </c>
+      <c r="J23" s="17" t="n">
+        <v>-18.99</v>
+      </c>
+      <c r="K23" s="17" t="n">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="24" s="11" spans="1:26">
+      <c r="A24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="17" t="n"/>
+      <c r="C24" s="17" t="n">
+        <v>453</v>
+      </c>
+      <c r="D24" s="17" t="n">
+        <v>924</v>
+      </c>
+      <c r="E24" s="17" t="n">
+        <v>49</v>
+      </c>
+      <c r="F24" s="17" t="n">
+        <v>355</v>
+      </c>
+      <c r="G24" s="17" t="n">
+        <v>140</v>
+      </c>
+      <c r="H24" s="17" t="n">
+        <v>1153</v>
+      </c>
+      <c r="I24" s="17" t="n">
+        <v>950</v>
+      </c>
+      <c r="J24" s="17" t="n">
+        <v>-16.81</v>
+      </c>
+      <c r="K24" s="17" t="n">
+        <v>51.55</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="25" s="11" spans="1:26">
+      <c r="A25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="17" t="n"/>
+      <c r="C25" s="17" t="n">
+        <v>399</v>
+      </c>
+      <c r="D25" s="17" t="n">
+        <v>796</v>
+      </c>
+      <c r="E25" s="17" t="n">
+        <v>74</v>
+      </c>
+      <c r="F25" s="17" t="n">
+        <v>354</v>
+      </c>
+      <c r="G25" s="17" t="n">
+        <v>16</v>
+      </c>
+      <c r="H25" s="17" t="n">
+        <v>1162</v>
+      </c>
+      <c r="I25" s="17" t="n">
+        <v>1043</v>
+      </c>
+      <c r="J25" s="17" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="K25" s="17" t="n">
+        <v>96.77</v>
+      </c>
+      <c r="L25" s="17" t="n"/>
+      <c r="M25" s="17" t="n"/>
+      <c r="N25" s="17" t="n"/>
+      <c r="O25" s="17" t="n"/>
+      <c r="P25" s="17" t="n"/>
+      <c r="Q25" s="17" t="n"/>
+      <c r="R25" s="17" t="n"/>
+      <c r="S25" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="26" s="11" spans="1:26">
+      <c r="A26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="17" t="n"/>
+      <c r="C26" s="17" t="n">
+        <v>548</v>
+      </c>
+      <c r="D26" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="E26" s="17" t="n">
+        <v>78</v>
+      </c>
+      <c r="F26" s="17" t="n">
+        <v>409</v>
+      </c>
+      <c r="G26" s="17" t="n">
+        <v>115</v>
+      </c>
+      <c r="H26" s="17" t="n">
+        <v>1280</v>
+      </c>
+      <c r="I26" s="17" t="n">
+        <v>1194</v>
+      </c>
+      <c r="J26" s="17" t="n">
+        <v>-19.84</v>
+      </c>
+      <c r="K26" s="17" t="n">
+        <v>36.86</v>
+      </c>
+      <c r="L26" s="17" t="n"/>
+      <c r="M26" s="17" t="n"/>
+      <c r="N26" s="17" t="n"/>
+      <c r="O26" s="17" t="n"/>
+      <c r="P26" s="17" t="n"/>
+      <c r="Q26" s="17" t="n"/>
+      <c r="R26" s="17" t="n"/>
+      <c r="S26" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="27" s="11" spans="1:26">
+      <c r="A27" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="17" t="n"/>
+      <c r="C27" s="17" t="n">
+        <v>730</v>
+      </c>
+      <c r="D27" s="17" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E27" s="17" t="n">
+        <v>1085</v>
+      </c>
+      <c r="F27" s="17" t="n">
+        <v>1333</v>
+      </c>
+      <c r="G27" s="17" t="n"/>
+      <c r="H27" s="17" t="n"/>
+      <c r="I27" s="17" t="n"/>
+      <c r="J27" s="17" t="n"/>
+      <c r="K27" s="17" t="n"/>
+      <c r="L27" s="17" t="n"/>
+      <c r="M27" s="17" t="n"/>
+      <c r="N27" s="17" t="n"/>
+      <c r="O27" s="17" t="n"/>
+      <c r="P27" s="17" t="n"/>
+      <c r="Q27" s="17" t="n"/>
+      <c r="R27" s="17" t="n"/>
+      <c r="S27" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="28" s="11" spans="1:26">
+      <c r="A28" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="17" t="n"/>
+      <c r="C28" s="17" t="n">
+        <v>493</v>
+      </c>
+      <c r="D28" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E28" s="17" t="n">
+        <v>63</v>
+      </c>
+      <c r="F28" s="17" t="n">
+        <v>425</v>
+      </c>
+      <c r="G28" s="17" t="n">
+        <v>35</v>
+      </c>
+      <c r="H28" s="17" t="n">
+        <v>939</v>
+      </c>
+      <c r="I28" s="17" t="n">
+        <v>851</v>
+      </c>
+      <c r="J28" s="17" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="K28" s="17" t="n">
+        <v>132.72</v>
+      </c>
+      <c r="L28" s="17" t="n"/>
+      <c r="M28" s="17" t="n"/>
+      <c r="N28" s="17" t="n"/>
+      <c r="O28" s="17" t="n"/>
+      <c r="P28" s="17" t="n"/>
+      <c r="Q28" s="17" t="n"/>
+      <c r="R28" s="17" t="n"/>
+      <c r="S28" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="29" s="11" spans="1:26">
+      <c r="A29" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="17" t="n"/>
+      <c r="C29" s="17" t="n">
+        <v>422</v>
+      </c>
+      <c r="D29" s="17" t="n">
+        <v>840</v>
+      </c>
+      <c r="E29" s="17" t="n">
+        <v>38</v>
+      </c>
+      <c r="F29" s="17" t="n">
+        <v>331</v>
+      </c>
+      <c r="G29" s="17" t="n">
+        <v>101</v>
+      </c>
+      <c r="H29" s="17" t="n">
+        <v>1019</v>
+      </c>
+      <c r="I29" s="17" t="n">
+        <v>954</v>
+      </c>
+      <c r="J29" s="17" t="n">
+        <v>-15.04</v>
+      </c>
+      <c r="K29" s="17" t="n">
+        <v>82.59</v>
+      </c>
+      <c r="L29" s="17" t="n"/>
+      <c r="M29" s="17" t="n"/>
+      <c r="N29" s="17" t="n"/>
+      <c r="O29" s="17" t="n"/>
+      <c r="P29" s="17" t="n"/>
+      <c r="Q29" s="17" t="n"/>
+      <c r="R29" s="17" t="n"/>
+      <c r="S29" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="30" s="11" spans="1:26">
+      <c r="A30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="17" t="n"/>
+      <c r="C30" s="17" t="n">
+        <v>434</v>
+      </c>
+      <c r="D30" s="17" t="n">
+        <v>976</v>
+      </c>
+      <c r="E30" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="F30" s="17" t="n">
+        <v>341</v>
+      </c>
+      <c r="G30" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="H30" s="17" t="n">
+        <v>1074</v>
+      </c>
+      <c r="I30" s="17" t="n">
+        <v>871</v>
+      </c>
+      <c r="J30" s="17" t="n">
+        <v>-19.96</v>
+      </c>
+      <c r="K30" s="17" t="n">
+        <v>101.56</v>
+      </c>
+      <c r="L30" s="17" t="n"/>
+      <c r="M30" s="17" t="n"/>
+      <c r="N30" s="17" t="n"/>
+      <c r="O30" s="17" t="n"/>
+      <c r="P30" s="17" t="n"/>
+      <c r="Q30" s="17" t="n"/>
+      <c r="R30" s="17" t="n"/>
+      <c r="S30" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="31" s="11" spans="1:26">
+      <c r="A31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="17" t="n"/>
+      <c r="C31" s="17" t="n">
+        <v>351</v>
+      </c>
+      <c r="D31" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="E31" s="17" t="n">
+        <v>74</v>
+      </c>
+      <c r="F31" s="17" t="n">
+        <v>384</v>
+      </c>
+      <c r="G31" s="17" t="n"/>
+      <c r="H31" s="17" t="n"/>
+      <c r="I31" s="17" t="n"/>
+      <c r="J31" s="17" t="n"/>
+      <c r="K31" s="17" t="n"/>
+      <c r="L31" s="17" t="n"/>
+      <c r="M31" s="17" t="n"/>
+      <c r="N31" s="17" t="n"/>
+      <c r="O31" s="17" t="n"/>
+      <c r="P31" s="17" t="n"/>
+      <c r="Q31" s="17" t="n"/>
+      <c r="R31" s="17" t="n"/>
+      <c r="S31" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="32" s="11" spans="1:26">
+      <c r="A32" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="17" t="n"/>
+      <c r="C32" s="17" t="n">
+        <v>445</v>
+      </c>
+      <c r="D32" s="17" t="n">
+        <v>817</v>
+      </c>
+      <c r="E32" s="17" t="n">
+        <v>60</v>
+      </c>
+      <c r="F32" s="17" t="n">
+        <v>399</v>
+      </c>
+      <c r="G32" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="H32" s="17" t="n">
+        <v>837</v>
+      </c>
+      <c r="I32" s="17" t="n">
+        <v>761</v>
+      </c>
+      <c r="J32" s="17" t="n">
+        <v>-20.42</v>
+      </c>
+      <c r="K32" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="L32" s="17" t="n"/>
+      <c r="M32" s="17" t="n"/>
+      <c r="N32" s="17" t="n"/>
+      <c r="O32" s="17" t="n"/>
+      <c r="P32" s="17" t="n"/>
+      <c r="Q32" s="17" t="n"/>
+      <c r="R32" s="17" t="n"/>
+      <c r="S32" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="33" s="11" spans="1:26">
+      <c r="A33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="17" t="n"/>
+      <c r="C33" s="17" t="n">
+        <v>443</v>
+      </c>
+      <c r="D33" s="17" t="n">
+        <v>783</v>
+      </c>
+      <c r="E33" s="17" t="n">
+        <v>61</v>
+      </c>
+      <c r="F33" s="17" t="n">
+        <v>359</v>
+      </c>
+      <c r="G33" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="H33" s="17" t="n">
+        <v>698</v>
+      </c>
+      <c r="I33" s="17" t="n">
+        <v>610</v>
+      </c>
+      <c r="J33" s="17" t="n">
+        <v>-17.96</v>
+      </c>
+      <c r="K33" s="17" t="n">
+        <v>150.33</v>
+      </c>
+      <c r="L33" s="17" t="n"/>
+      <c r="M33" s="17" t="n"/>
+      <c r="N33" s="17" t="n"/>
+      <c r="O33" s="17" t="n"/>
+      <c r="P33" s="17" t="n"/>
+      <c r="Q33" s="17" t="n"/>
+      <c r="R33" s="17" t="n"/>
+      <c r="S33" s="17" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="34" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="35" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="36" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="37" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="38" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="39" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="40" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="41" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="42" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="43" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="44" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="45" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="46" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="47" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="48" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="49" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="50" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="51" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="52" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="53" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="54" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="55" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="56" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="57" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="58" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="59" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="60" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="61" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="62" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="63" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="64" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="65" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="66" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="67" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="68" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="69" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="70" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="71" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="72" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="73" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="74" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="75" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="76" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="77" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="78" s="11" spans="1:26"/>
+    <row customHeight="1" ht="15" r="79" s="11" spans="1:26"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="J1:K1"/>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -762,19 +762,19 @@
         <v>382</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>961</v>
+        <v>1028</v>
       </c>
       <c r="J4" s="17" t="n">
-        <v>-16.94</v>
+        <v>-17.83</v>
       </c>
       <c r="K4" s="17" t="n">
-        <v>51.55</v>
+        <v>38.37</v>
       </c>
       <c r="L4" s="15" t="n"/>
       <c r="M4" s="15" t="n"/>
@@ -891,7 +891,7 @@
         <v>-12.58</v>
       </c>
       <c r="K8" s="17" t="n">
-        <v>140.33</v>
+        <v>144.93</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="9" s="11" spans="1:26">

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -2177,43 +2177,43 @@
         <v>339</v>
       </c>
       <c r="G34" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H34" t="n">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="I34" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="J34" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K34" t="n">
-        <v>471</v>
+        <v>658</v>
       </c>
       <c r="L34" t="n">
-        <v>67</v>
+        <v>254</v>
       </c>
       <c r="M34" t="n">
-        <v>352</v>
+        <v>539</v>
       </c>
       <c r="N34" t="n">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="O34" t="n">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="P34" t="n">
-        <v>1162</v>
+        <v>1153</v>
       </c>
       <c r="Q34" t="n">
-        <v>1472</v>
+        <v>1699</v>
       </c>
       <c r="R34" t="n">
-        <v>1068</v>
+        <v>1295</v>
       </c>
       <c r="V34" t="n">
-        <v>-9.949999999999999</v>
+        <v>-16.86</v>
       </c>
       <c r="W34" t="n">
         <v>99.58</v>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -666,8 +666,8 @@
   </sheetPr>
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100">
-      <selection activeCell="C35" activeCellId="0" pane="topLeft" sqref="C35"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
+      <selection activeCell="C25" activeCellId="0" pane="topLeft" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -849,40 +849,40 @@
         <v>382</v>
       </c>
       <c r="G4" s="20" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H4" s="20" t="n">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="I4" s="20" t="n">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="J4" s="22" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K4" s="22" t="n">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L4" s="20" t="n">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>1166</v>
+        <v>1246</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>1214</v>
+        <v>1294</v>
       </c>
       <c r="S4" s="22" t="n">
         <v>358</v>
@@ -1179,28 +1179,46 @@
         <v>286</v>
       </c>
       <c r="G11" s="20" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H11" s="20" t="n">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="I11" s="20" t="n">
-        <v>693</v>
-      </c>
-      <c r="J11" s="22" t="n"/>
-      <c r="K11" s="22" t="n"/>
-      <c r="L11" s="24" t="n"/>
-      <c r="M11" s="24" t="n"/>
-      <c r="N11" s="24" t="n"/>
-      <c r="O11" s="24" t="n"/>
-      <c r="P11" s="24" t="n"/>
-      <c r="Q11" s="24" t="n"/>
-      <c r="R11" s="24" t="n"/>
+        <v>682</v>
+      </c>
+      <c r="J11" s="22" t="n">
+        <v>54</v>
+      </c>
+      <c r="K11" s="22" t="n">
+        <v>808</v>
+      </c>
+      <c r="L11" s="24" t="n">
+        <v>225</v>
+      </c>
+      <c r="M11" s="24" t="n">
+        <v>420</v>
+      </c>
+      <c r="N11" s="24" t="n">
+        <v>517</v>
+      </c>
+      <c r="O11" s="24" t="n">
+        <v>682</v>
+      </c>
+      <c r="P11" s="24" t="n">
+        <v>758</v>
+      </c>
+      <c r="Q11" s="24" t="n">
+        <v>1491</v>
+      </c>
+      <c r="R11" s="24" t="n">
+        <v>908</v>
+      </c>
       <c r="S11" s="22" t="n"/>
       <c r="T11" s="22" t="n"/>
       <c r="U11" s="24" t="n"/>
       <c r="V11" s="24" t="n">
-        <v>-4.18</v>
+        <v>-4.4</v>
       </c>
       <c r="W11" s="24" t="n">
         <v>91.81999999999999</v>
@@ -1269,31 +1287,49 @@
         <v>375</v>
       </c>
       <c r="G13" s="20" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="H13" s="20" t="n">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="I13" s="20" t="n">
-        <v>951</v>
-      </c>
-      <c r="J13" s="22" t="n"/>
-      <c r="K13" s="22" t="n"/>
-      <c r="L13" s="24" t="n"/>
-      <c r="M13" s="24" t="n"/>
-      <c r="N13" s="24" t="n"/>
-      <c r="O13" s="24" t="n"/>
-      <c r="P13" s="24" t="n"/>
-      <c r="Q13" s="24" t="n"/>
-      <c r="R13" s="24" t="n"/>
+        <v>950</v>
+      </c>
+      <c r="J13" s="22" t="n">
+        <v>78</v>
+      </c>
+      <c r="K13" s="22" t="n">
+        <v>212</v>
+      </c>
+      <c r="L13" s="24" t="n">
+        <v>245</v>
+      </c>
+      <c r="M13" s="24" t="n">
+        <v>559</v>
+      </c>
+      <c r="N13" s="24" t="n">
+        <v>656</v>
+      </c>
+      <c r="O13" s="24" t="n">
+        <v>950</v>
+      </c>
+      <c r="P13" s="24" t="n">
+        <v>1041</v>
+      </c>
+      <c r="Q13" s="24" t="n">
+        <v>1149</v>
+      </c>
+      <c r="R13" s="24" t="n">
+        <v>1182</v>
+      </c>
       <c r="S13" s="22" t="n"/>
       <c r="T13" s="22" t="n"/>
       <c r="U13" s="24" t="n"/>
       <c r="V13" s="24" t="n">
-        <v>-16.33</v>
+        <v>-16.09</v>
       </c>
       <c r="W13" s="24" t="n">
-        <v>40.64</v>
+        <v>41.81</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="14" s="14" spans="1:26">
@@ -1359,23 +1395,41 @@
         <v>358</v>
       </c>
       <c r="G15" s="20" t="n">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="H15" s="20" t="n">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="I15" s="20" t="n">
-        <v>1058</v>
-      </c>
-      <c r="J15" s="22" t="n"/>
-      <c r="K15" s="22" t="n"/>
-      <c r="L15" s="24" t="n"/>
-      <c r="M15" s="24" t="n"/>
-      <c r="N15" s="24" t="n"/>
-      <c r="O15" s="24" t="n"/>
-      <c r="P15" s="24" t="n"/>
-      <c r="Q15" s="24" t="n"/>
-      <c r="R15" s="24" t="n"/>
+        <v>996</v>
+      </c>
+      <c r="J15" s="22" t="n">
+        <v>83</v>
+      </c>
+      <c r="K15" s="22" t="n">
+        <v>223</v>
+      </c>
+      <c r="L15" s="24" t="n">
+        <v>242</v>
+      </c>
+      <c r="M15" s="24" t="n">
+        <v>555</v>
+      </c>
+      <c r="N15" s="24" t="n">
+        <v>675</v>
+      </c>
+      <c r="O15" s="24" t="n">
+        <v>996</v>
+      </c>
+      <c r="P15" s="24" t="n">
+        <v>1134</v>
+      </c>
+      <c r="Q15" s="24" t="n">
+        <v>1244</v>
+      </c>
+      <c r="R15" s="24" t="n">
+        <v>1263</v>
+      </c>
       <c r="S15" s="22" t="n"/>
       <c r="T15" s="22" t="n"/>
       <c r="U15" s="24" t="n"/>
@@ -1383,7 +1437,7 @@
         <v>-24.87</v>
       </c>
       <c r="W15" s="24" t="n">
-        <v>40.78</v>
+        <v>41.96</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="16" s="14" spans="1:26">
@@ -1404,31 +1458,49 @@
         <v>399</v>
       </c>
       <c r="G16" s="20" t="n">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="H16" s="20" t="n">
-        <v>1232</v>
+        <v>1189</v>
       </c>
       <c r="I16" s="20" t="n">
-        <v>1084</v>
-      </c>
-      <c r="J16" s="22" t="n"/>
-      <c r="K16" s="22" t="n"/>
-      <c r="L16" s="24" t="n"/>
-      <c r="M16" s="24" t="n"/>
-      <c r="N16" s="24" t="n"/>
-      <c r="O16" s="24" t="n"/>
-      <c r="P16" s="24" t="n"/>
-      <c r="Q16" s="24" t="n"/>
-      <c r="R16" s="24" t="n"/>
+        <v>1065</v>
+      </c>
+      <c r="J16" s="22" t="n">
+        <v>118</v>
+      </c>
+      <c r="K16" s="22" t="n">
+        <v>223</v>
+      </c>
+      <c r="L16" s="24" t="n">
+        <v>306</v>
+      </c>
+      <c r="M16" s="24" t="n">
+        <v>612</v>
+      </c>
+      <c r="N16" s="24" t="n">
+        <v>696</v>
+      </c>
+      <c r="O16" s="24" t="n">
+        <v>1065</v>
+      </c>
+      <c r="P16" s="24" t="n">
+        <v>1189</v>
+      </c>
+      <c r="Q16" s="24" t="n">
+        <v>1290</v>
+      </c>
+      <c r="R16" s="24" t="n">
+        <v>1373</v>
+      </c>
       <c r="S16" s="22" t="n"/>
       <c r="T16" s="22" t="n"/>
       <c r="U16" s="24" t="n"/>
       <c r="V16" s="24" t="n">
-        <v>-7.94</v>
+        <v>-7.24</v>
       </c>
       <c r="W16" s="24" t="n">
-        <v>100.27</v>
+        <v>103.17</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="17" s="14" spans="1:26">
@@ -1613,31 +1685,49 @@
         <v>385</v>
       </c>
       <c r="G21" s="24" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H21" s="24" t="n">
         <v>1216</v>
       </c>
       <c r="I21" s="24" t="n">
-        <v>1113</v>
-      </c>
-      <c r="J21" s="22" t="n"/>
-      <c r="K21" s="22" t="n"/>
-      <c r="L21" s="24" t="n"/>
-      <c r="M21" s="24" t="n"/>
-      <c r="N21" s="24" t="n"/>
-      <c r="O21" s="24" t="n"/>
-      <c r="P21" s="24" t="n"/>
-      <c r="Q21" s="24" t="n"/>
-      <c r="R21" s="24" t="n"/>
+        <v>1122</v>
+      </c>
+      <c r="J21" s="22" t="n">
+        <v>113</v>
+      </c>
+      <c r="K21" s="22" t="n">
+        <v>226</v>
+      </c>
+      <c r="L21" s="24" t="n">
+        <v>244</v>
+      </c>
+      <c r="M21" s="24" t="n">
+        <v>598</v>
+      </c>
+      <c r="N21" s="24" t="n">
+        <v>728</v>
+      </c>
+      <c r="O21" s="24" t="n">
+        <v>1122</v>
+      </c>
+      <c r="P21" s="24" t="n">
+        <v>1216</v>
+      </c>
+      <c r="Q21" s="24" t="n">
+        <v>1333</v>
+      </c>
+      <c r="R21" s="24" t="n">
+        <v>1351</v>
+      </c>
       <c r="S21" s="22" t="n"/>
       <c r="T21" s="22" t="n"/>
       <c r="U21" s="24" t="n"/>
       <c r="V21" s="24" t="n">
-        <v>-15.15</v>
+        <v>-14.82</v>
       </c>
       <c r="W21" s="24" t="n">
-        <v>69.8</v>
+        <v>72.09</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="22" s="14" spans="1:26">
@@ -2008,31 +2098,49 @@
         <v>341</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H30" s="24" t="n">
-        <v>1074</v>
+        <v>966</v>
       </c>
       <c r="I30" s="24" t="n">
-        <v>871</v>
-      </c>
-      <c r="J30" s="22" t="n"/>
-      <c r="K30" s="22" t="n"/>
-      <c r="L30" s="24" t="n"/>
-      <c r="M30" s="24" t="n"/>
-      <c r="N30" s="24" t="n"/>
-      <c r="O30" s="24" t="n"/>
-      <c r="P30" s="24" t="n"/>
-      <c r="Q30" s="24" t="n"/>
-      <c r="R30" s="24" t="n"/>
+        <v>860</v>
+      </c>
+      <c r="J30" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" s="22" t="n">
+        <v>987</v>
+      </c>
+      <c r="L30" s="24" t="n">
+        <v>51</v>
+      </c>
+      <c r="M30" s="24" t="n">
+        <v>352</v>
+      </c>
+      <c r="N30" s="24" t="n">
+        <v>445</v>
+      </c>
+      <c r="O30" s="24" t="n">
+        <v>860</v>
+      </c>
+      <c r="P30" s="24" t="n">
+        <v>966</v>
+      </c>
+      <c r="Q30" s="24" t="n">
+        <v>2036</v>
+      </c>
+      <c r="R30" s="24" t="n">
+        <v>1100</v>
+      </c>
       <c r="S30" s="22" t="n"/>
       <c r="T30" s="22" t="n"/>
       <c r="U30" s="24" t="n"/>
       <c r="V30" s="24" t="n">
-        <v>-19.96</v>
+        <v>-19.62</v>
       </c>
       <c r="W30" s="24" t="n">
-        <v>101.56</v>
+        <v>104.51</v>
       </c>
     </row>
     <row customHeight="1" ht="15" r="31" s="14" spans="1:26">
@@ -2161,61 +2269,61 @@
       </c>
     </row>
     <row customHeight="1" ht="15" r="34" s="14" spans="1:26">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="13" t="n">
+      <c r="C34" s="24" t="n">
         <v>32</v>
       </c>
-      <c r="D34" s="13" t="n">
+      <c r="D34" s="24" t="n">
         <v>458</v>
       </c>
-      <c r="E34" s="13" t="n">
+      <c r="E34" s="24" t="n">
         <v>54</v>
       </c>
-      <c r="F34" s="13" t="n">
+      <c r="F34" s="24" t="n">
         <v>339</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="24" t="n">
         <v>94</v>
       </c>
-      <c r="H34" t="n">
-        <v>1153</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1041</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="H34" s="24" t="n">
+        <v>1158</v>
+      </c>
+      <c r="I34" s="24" t="n">
+        <v>1042</v>
+      </c>
+      <c r="J34" s="13" t="n">
         <v>94</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34" s="13" t="n">
         <v>658</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34" s="13" t="n">
         <v>254</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34" s="13" t="n">
         <v>539</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34" s="13" t="n">
         <v>232</v>
       </c>
-      <c r="O34" t="n">
-        <v>1041</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1153</v>
-      </c>
-      <c r="Q34" t="n">
+      <c r="O34" s="13" t="n">
+        <v>1042</v>
+      </c>
+      <c r="P34" s="13" t="n">
+        <v>1158</v>
+      </c>
+      <c r="Q34" s="13" t="n">
         <v>1699</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34" s="13" t="n">
         <v>1295</v>
       </c>
-      <c r="V34" t="n">
-        <v>-16.86</v>
-      </c>
-      <c r="W34" t="n">
+      <c r="V34" s="13" t="n">
+        <v>-16.64</v>
+      </c>
+      <c r="W34" s="13" t="n">
         <v>99.58</v>
       </c>
     </row>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,49 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
-  <si>
-    <t xml:space="preserve">Pontos marcados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parâmetros calculados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IdPatient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVO(ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVC(ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVO(ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVC(ms)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+  <si>
+    <t>Pontos marcados</t>
+  </si>
+  <si>
+    <t>Parâmetros calculados</t>
+  </si>
+  <si>
+    <t>IdPatient</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MVO(ms)</t>
+  </si>
+  <si>
+    <t>MVC(ms)</t>
+  </si>
+  <si>
+    <t>AVO(ms)</t>
+  </si>
+  <si>
+    <t>AVC(ms)</t>
   </si>
   <si>
     <t xml:space="preserve"> Onset QRS 1(ms)</t>
@@ -52,256 +47,254 @@
     <t xml:space="preserve"> Onset P(ms)</t>
   </si>
   <si>
-    <t xml:space="preserve">Onset QRS 2(ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ejection Time 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ejection Time 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systolic Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diastolic Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystolicTime/
+    <t>Onset QRS 2(ms)</t>
+  </si>
+  <si>
+    <t>EMC1</t>
+  </si>
+  <si>
+    <t>IVC1</t>
+  </si>
+  <si>
+    <t>Ejection Time 1</t>
+  </si>
+  <si>
+    <t>IVR</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>EMC2</t>
+  </si>
+  <si>
+    <t>IVC2</t>
+  </si>
+  <si>
+    <t>Ejection Time 2</t>
+  </si>
+  <si>
+    <t>Systolic Time</t>
+  </si>
+  <si>
+    <t>Diastolic Time</t>
+  </si>
+  <si>
+    <t>SystolicTime/
 DiastolicTime</t>
   </si>
   <si>
-    <t xml:space="preserve">GLS(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD(ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aristoteles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yamaguchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MariaPastora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosemeire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoaoBartolomeu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MariaValentim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MariaBento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FatimaAparecida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarliRosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FabricioLucena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neusa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adauto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoseSilva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diogenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MariaSilva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarcoAntonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marlene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valdir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PedroFernandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MariaNogueira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roseli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio_Vesceslau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirceu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirceujr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flavio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoniobezerra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andersongabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabiorodrigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gedirvaldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marialuiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariarosa</t>
+    <t>GLS(%)</t>
+  </si>
+  <si>
+    <t>MD(ms)</t>
+  </si>
+  <si>
+    <t>Aristoteles</t>
+  </si>
+  <si>
+    <t>Adilson</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Yamaguchi</t>
+  </si>
+  <si>
+    <t>Teste1</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>MariaPastora</t>
+  </si>
+  <si>
+    <t>Rosemeire</t>
+  </si>
+  <si>
+    <t>JoaoBartolomeu</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>MariaValentim</t>
+  </si>
+  <si>
+    <t>MariaBento</t>
+  </si>
+  <si>
+    <t>FatimaAparecida</t>
+  </si>
+  <si>
+    <t>MarliRosa</t>
+  </si>
+  <si>
+    <t>FabricioLucena</t>
+  </si>
+  <si>
+    <t>Neusa</t>
+  </si>
+  <si>
+    <t>Eliene</t>
+  </si>
+  <si>
+    <t>Adauto</t>
+  </si>
+  <si>
+    <t>JoseSilva</t>
+  </si>
+  <si>
+    <t>Diogenes</t>
+  </si>
+  <si>
+    <t>MariaSilva</t>
+  </si>
+  <si>
+    <t>MarcoAntonio</t>
+  </si>
+  <si>
+    <t>Marlene</t>
+  </si>
+  <si>
+    <t>Valdir</t>
+  </si>
+  <si>
+    <t>PedroFernandes</t>
+  </si>
+  <si>
+    <t>MariaNogueira</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Roseli</t>
+  </si>
+  <si>
+    <t>Antonio_Vesceslau</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Dirceu</t>
+  </si>
+  <si>
+    <t>Dirceujr</t>
+  </si>
+  <si>
+    <t>Flavio</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Antoniobezerra</t>
+  </si>
+  <si>
+    <t>Andersongabriel</t>
+  </si>
+  <si>
+    <t>Fabiorodrigo</t>
+  </si>
+  <si>
+    <t>Gedirvaldo</t>
+  </si>
+  <si>
+    <t>Marialuiza</t>
+  </si>
+  <si>
+    <t>Mariarosa</t>
   </si>
   <si>
     <t xml:space="preserve">Nilton </t>
   </si>
   <si>
-    <t xml:space="preserve">Osvaldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reginaldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abel</t>
+    <t>Osvaldo</t>
+  </si>
+  <si>
+    <t>Reginaldo</t>
+  </si>
+  <si>
+    <t>Abel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="9">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
-      <charset val="1"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -320,7 +313,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -328,3163 +321,3398 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="27">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFEBF1DE"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Z50"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
+      <selection activeCell="H34" activeCellId="0" pane="topLeft" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="33.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="23.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="1" width="9.85"/>
+    <col customWidth="1" max="1" min="1" style="14" width="28.21"/>
+    <col customWidth="1" max="2" min="2" style="14" width="44.89"/>
+    <col customWidth="1" max="3" min="3" style="14" width="17.1"/>
+    <col customWidth="1" max="4" min="4" style="14" width="15.61"/>
+    <col customWidth="1" max="5" min="5" style="14" width="15.39"/>
+    <col customWidth="1" max="6" min="6" style="14" width="17.1"/>
+    <col customWidth="1" max="7" min="7" style="14" width="27.78"/>
+    <col customWidth="1" max="8" min="8" style="14" width="22.01"/>
+    <col customWidth="1" max="9" min="9" style="14" width="26.51"/>
+    <col customWidth="1" max="10" min="10" style="14" width="27.36"/>
+    <col customWidth="1" max="11" min="11" style="14" width="24.36"/>
+    <col customWidth="1" max="12" min="12" style="14" width="24.41"/>
+    <col customWidth="1" max="13" min="13" style="14" width="13.09"/>
+    <col customWidth="1" max="14" min="14" style="14" width="22.95"/>
+    <col customWidth="1" max="15" min="15" style="14" width="17.28"/>
+    <col customWidth="1" max="16" min="16" style="14" width="14.58"/>
+    <col customWidth="1" max="17" min="17" style="14" width="15.53"/>
+    <col customWidth="1" max="18" min="18" style="14" width="24.49"/>
+    <col customWidth="1" max="19" min="19" style="14" width="22.23"/>
+    <col customWidth="1" max="20" min="20" style="14" width="22.96"/>
+    <col customWidth="1" max="21" min="21" style="14" width="33.34"/>
+    <col customWidth="1" max="22" min="22" style="14" width="23.49"/>
+    <col customWidth="1" max="23" min="23" style="14" width="13.37"/>
+    <col customWidth="1" max="1025" min="24" style="14" width="9.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="15" spans="1:26">
+      <c r="A1" s="16" t="n"/>
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="16" t="n"/>
+      <c r="D1" s="16" t="n"/>
+      <c r="E1" s="16" t="n"/>
+      <c r="F1" s="16" t="n"/>
+      <c r="G1" s="17" t="n"/>
+      <c r="H1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="5" t="s">
+      <c r="I1" s="17" t="n"/>
+      <c r="J1" s="18" t="n"/>
+      <c r="K1" s="18" t="n"/>
+      <c r="L1" s="16" t="n"/>
+      <c r="M1" s="16" t="n"/>
+      <c r="N1" s="16" t="n"/>
+      <c r="O1" s="16" t="n"/>
+      <c r="P1" s="16" t="n"/>
+      <c r="Q1" s="16" t="n"/>
+      <c r="R1" s="16" t="n"/>
+      <c r="S1" s="18" t="n"/>
+      <c r="T1" s="18" t="n"/>
+      <c r="U1" s="16" t="n"/>
+      <c r="V1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="X1" s="16" t="n"/>
+      <c r="Y1" s="16" t="n"/>
+      <c r="Z1" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="45" r="2" s="15" spans="1:26">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="15" spans="1:26">
+      <c r="A3" s="21" t="n"/>
+      <c r="B3" s="21" t="n"/>
+      <c r="C3" s="21" t="n"/>
+      <c r="D3" s="21" t="n"/>
+      <c r="E3" s="21" t="n"/>
+      <c r="F3" s="21" t="n"/>
+      <c r="G3" s="21" t="n"/>
+      <c r="H3" s="21" t="n"/>
+      <c r="I3" s="21" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="21" t="n"/>
+      <c r="M3" s="21" t="n"/>
+      <c r="N3" s="21" t="n"/>
+      <c r="O3" s="21" t="n"/>
+      <c r="P3" s="21" t="n"/>
+      <c r="Q3" s="21" t="n"/>
+      <c r="R3" s="21" t="n"/>
+      <c r="S3" s="18" t="n"/>
+      <c r="T3" s="18" t="n"/>
+      <c r="U3" s="16" t="n"/>
+      <c r="V3" s="22" t="n"/>
+      <c r="W3" s="22" t="n"/>
+      <c r="X3" s="16" t="n"/>
+      <c r="Y3" s="16" t="n"/>
+      <c r="Z3" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="15" spans="1:26">
+      <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="n">
+      <c r="B4" s="21" t="n"/>
+      <c r="C4" s="21" t="n">
         <v>453</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="21" t="n">
         <v>72</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="21" t="n">
         <v>382</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="21" t="n">
         <v>123</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="21" t="n">
         <v>1244</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="21" t="n">
         <v>1162</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="23" t="n">
         <v>123</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="23" t="n">
         <v>237</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="21" t="n">
         <v>285</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="M4" s="21" t="n">
         <v>595</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="21" t="n">
         <v>666</v>
       </c>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="21" t="n">
         <v>1162</v>
       </c>
-      <c r="P4" s="8" t="n">
+      <c r="P4" s="21" t="n">
         <v>1244</v>
       </c>
-      <c r="Q4" s="8" t="n">
+      <c r="Q4" s="21" t="n">
         <v>1352</v>
       </c>
-      <c r="R4" s="8" t="n">
+      <c r="R4" s="21" t="n">
         <v>1400</v>
       </c>
-      <c r="S4" s="10" t="n">
+      <c r="S4" s="23" t="n">
         <v>358</v>
       </c>
-      <c r="T4" s="10" t="n">
+      <c r="T4" s="23" t="n">
         <v>784</v>
       </c>
-      <c r="U4" s="11" t="n">
+      <c r="U4" s="24" t="n">
         <v>0.456632653061225</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="25" t="n">
         <v>-16.89</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="25" t="n">
         <v>30.64</v>
       </c>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="X4" s="16" t="n"/>
+      <c r="Y4" s="16" t="n"/>
+      <c r="Z4" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="15" spans="1:26">
+      <c r="A5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="n">
+      <c r="B5" s="21" t="n"/>
+      <c r="C5" s="21" t="n">
         <v>609</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="21" t="n">
         <v>50</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="21" t="n">
         <v>126</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="21" t="n">
         <v>428</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="21" t="n">
         <v>91</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="21" t="n">
         <v>1062</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="21" t="n">
         <v>966</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="23" t="n">
         <v>91</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="23" t="n">
         <v>236</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="25" t="n">
         <v>312</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="25" t="n">
         <v>614</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="25" t="n">
         <v>795</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="25" t="n">
         <v>966</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="25" t="n">
         <v>1062</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="25" t="n">
         <v>1183</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="25" t="n">
         <v>1259</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12" t="n">
+      <c r="S5" s="23" t="n"/>
+      <c r="T5" s="23" t="n"/>
+      <c r="U5" s="25" t="n"/>
+      <c r="V5" s="25" t="n">
         <v>-6.74</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="25" t="n">
         <v>144.6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row customHeight="1" ht="15" r="6" s="15" spans="1:26">
+      <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="n">
+      <c r="B6" s="21" t="n"/>
+      <c r="C6" s="21" t="n">
         <v>525</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="21" t="n">
         <v>37</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="21" t="n">
         <v>152</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="21" t="n">
         <v>441</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="21" t="n">
         <v>36</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="21" t="n">
         <v>1079</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="21" t="n">
         <v>961</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="23" t="n">
         <v>36</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="23" t="n">
         <v>230</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="25" t="n">
         <v>345</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="25" t="n">
         <v>634</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="25" t="n">
         <v>718</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="25" t="n">
         <v>961</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="25" t="n">
         <v>1079</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="25" t="n">
         <v>1249</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="25" t="n">
         <v>1364</v>
       </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12" t="n">
+      <c r="S6" s="23" t="n"/>
+      <c r="T6" s="23" t="n"/>
+      <c r="U6" s="25" t="n"/>
+      <c r="V6" s="25" t="n">
         <v>-11.34</v>
       </c>
-      <c r="W6" s="12" t="n">
-        <v>80.35</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="W6" s="25" t="n">
+        <v>80.34999999999999</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="15" spans="1:26">
+      <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="n">
+      <c r="B7" s="21" t="n"/>
+      <c r="C7" s="21" t="n">
         <v>404</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="21" t="n">
         <v>823</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="21" t="n">
         <v>61</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="21" t="n">
         <v>310</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="21" t="n">
         <v>842</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="21" t="n">
         <v>628</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="23" t="n">
         <v>839</v>
       </c>
-      <c r="L7" s="12" t="n">
+      <c r="L7" s="25" t="n">
         <v>77</v>
       </c>
-      <c r="M7" s="12" t="n">
+      <c r="M7" s="25" t="n">
         <v>326</v>
       </c>
-      <c r="N7" s="12" t="n">
+      <c r="N7" s="25" t="n">
         <v>420</v>
       </c>
-      <c r="O7" s="12" t="n">
+      <c r="O7" s="25" t="n">
         <v>628</v>
       </c>
-      <c r="P7" s="12" t="n">
+      <c r="P7" s="25" t="n">
         <v>842</v>
       </c>
-      <c r="Q7" s="12" t="n">
+      <c r="Q7" s="25" t="n">
         <v>1663</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="25" t="n">
         <v>901</v>
       </c>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12" t="n">
-        <v>-8.39</v>
-      </c>
-      <c r="W7" s="12" t="n">
+      <c r="S7" s="23" t="n"/>
+      <c r="T7" s="23" t="n"/>
+      <c r="U7" s="25" t="n"/>
+      <c r="V7" s="25" t="n">
+        <v>-8.390000000000001</v>
+      </c>
+      <c r="W7" s="25" t="n">
         <v>83.16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row customHeight="1" ht="15" r="8" s="15" spans="1:26">
+      <c r="A8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="n">
+      <c r="B8" s="21" t="n"/>
+      <c r="C8" s="21" t="n">
         <v>654.5</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="21" t="n">
         <v>272.8</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="21" t="n">
         <v>336</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="21" t="n">
         <v>586.034402</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="n">
+      <c r="G8" s="21" t="n"/>
+      <c r="H8" s="21" t="n"/>
+      <c r="I8" s="21" t="n"/>
+      <c r="J8" s="23" t="n"/>
+      <c r="K8" s="23" t="n">
         <v>272</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="L8" s="25" t="n">
         <v>336</v>
       </c>
-      <c r="M8" s="12" t="n">
+      <c r="M8" s="25" t="n">
         <v>586</v>
       </c>
-      <c r="N8" s="12" t="n">
+      <c r="N8" s="25" t="n">
         <v>654</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12" t="n">
+      <c r="O8" s="25" t="n"/>
+      <c r="P8" s="25" t="n"/>
+      <c r="Q8" s="25" t="n">
         <v>1105</v>
       </c>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="25" t="n">
         <v>1169</v>
       </c>
-      <c r="S8" s="10" t="n">
+      <c r="S8" s="23" t="n">
         <v>314</v>
       </c>
-      <c r="T8" s="10" t="n">
+      <c r="T8" s="23" t="n">
         <v>519.333333</v>
       </c>
-      <c r="U8" s="12" t="n">
+      <c r="U8" s="25" t="n">
         <v>0.604621309759064</v>
       </c>
-      <c r="V8" s="12" t="n">
+      <c r="V8" s="25" t="n">
         <v>-12.58</v>
       </c>
-      <c r="W8" s="12" t="n">
+      <c r="W8" s="25" t="n">
         <v>144.93</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    <row customHeight="1" ht="15" r="9" s="15" spans="1:26">
+      <c r="A9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="n">
+      <c r="B9" s="21" t="n"/>
+      <c r="C9" s="21" t="n">
         <v>485</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="21" t="n">
         <v>903</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="21" t="n">
         <v>75</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="21" t="n">
         <v>460</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="21" t="n">
         <v>116</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="21" t="n">
         <v>1108</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="21" t="n">
         <v>996</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="23" t="n">
         <v>116</v>
       </c>
-      <c r="K9" s="10" t="n">
+      <c r="K9" s="23" t="n">
         <v>1087</v>
       </c>
-      <c r="L9" s="12" t="n">
+      <c r="L9" s="25" t="n">
         <v>259</v>
       </c>
-      <c r="M9" s="12" t="n">
+      <c r="M9" s="25" t="n">
         <v>644</v>
       </c>
-      <c r="N9" s="12" t="n">
+      <c r="N9" s="25" t="n">
         <v>669</v>
       </c>
-      <c r="O9" s="12" t="n">
+      <c r="O9" s="25" t="n">
         <v>996</v>
       </c>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="25" t="n">
         <v>1108</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="25" t="n">
         <v>2039</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="25" t="n">
         <v>1211</v>
       </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12" t="n">
+      <c r="S9" s="23" t="n"/>
+      <c r="T9" s="23" t="n"/>
+      <c r="U9" s="25" t="n"/>
+      <c r="V9" s="25" t="n">
         <v>-13.53</v>
       </c>
-      <c r="W9" s="12" t="n">
-        <v>80.65</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="W9" s="25" t="n">
+        <v>80.65000000000001</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="15" spans="1:26">
+      <c r="A10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="n">
+      <c r="B10" s="21" t="n"/>
+      <c r="C10" s="21" t="n">
         <v>479</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="21" t="n">
         <v>887</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="21" t="n">
         <v>62</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="21" t="n">
         <v>395</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="21" t="n">
         <v>45</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="21" t="n">
         <v>910</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="21" t="n">
         <v>826</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="23" t="n">
         <v>45</v>
       </c>
-      <c r="K10" s="10" t="n">
+      <c r="K10" s="23" t="n">
         <v>1058</v>
       </c>
-      <c r="L10" s="12" t="n">
+      <c r="L10" s="25" t="n">
         <v>233</v>
       </c>
-      <c r="M10" s="12" t="n">
+      <c r="M10" s="25" t="n">
         <v>566</v>
       </c>
-      <c r="N10" s="12" t="n">
+      <c r="N10" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="O10" s="12" t="n">
+      <c r="O10" s="25" t="n">
         <v>826</v>
       </c>
-      <c r="P10" s="12" t="n">
+      <c r="P10" s="25" t="n">
         <v>910</v>
       </c>
-      <c r="Q10" s="12" t="n">
+      <c r="Q10" s="25" t="n">
         <v>1914</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="25" t="n">
         <v>1089</v>
       </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12" t="n">
+      <c r="S10" s="23" t="n"/>
+      <c r="T10" s="23" t="n"/>
+      <c r="U10" s="25" t="n"/>
+      <c r="V10" s="25" t="n">
         <v>-18.17</v>
       </c>
-      <c r="W10" s="12" t="n">
+      <c r="W10" s="25" t="n">
         <v>45.62</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row customHeight="1" ht="15" r="11" s="15" spans="1:26">
+      <c r="A11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="n">
+      <c r="B11" s="21" t="n"/>
+      <c r="C11" s="21" t="n">
         <v>383</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="21" t="n">
         <v>674</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="21" t="n">
         <v>91</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="21" t="n">
         <v>286</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="21" t="n">
         <v>56</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="21" t="n">
         <v>755</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="21" t="n">
         <v>610</v>
       </c>
-      <c r="J11" s="10" t="n">
+      <c r="J11" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="K11" s="10" t="n">
+      <c r="K11" s="23" t="n">
         <v>808</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="25" t="n">
         <v>225</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="25" t="n">
         <v>420</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="25" t="n">
         <v>517</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="25" t="n">
         <v>610</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="25" t="n">
         <v>755</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="25" t="n">
         <v>1491</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="25" t="n">
         <v>908</v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12" t="n">
+      <c r="S11" s="23" t="n"/>
+      <c r="T11" s="23" t="n"/>
+      <c r="U11" s="25" t="n"/>
+      <c r="V11" s="25" t="n">
         <v>-4.4</v>
       </c>
-      <c r="W11" s="12" t="n">
-        <v>91.82</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="W11" s="25" t="n">
+        <v>91.81999999999999</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="12" s="15" spans="1:26">
+      <c r="A12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="n">
+      <c r="B12" s="21" t="n"/>
+      <c r="C12" s="21" t="n">
         <v>387</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="21" t="n">
         <v>673</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="21" t="n">
         <v>38</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="21" t="n">
         <v>311</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="21" t="n">
         <v>27</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="21" t="n">
         <v>705</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="21" t="n">
         <v>597</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="23" t="n">
         <v>27</v>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="23" t="n">
         <v>801</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="25" t="n">
         <v>166</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="25" t="n">
         <v>439</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="25" t="n">
         <v>515</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="25" t="n">
         <v>597</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="25" t="n">
         <v>705</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="25" t="n">
         <v>1484</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="25" t="n">
         <v>849</v>
       </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12" t="n">
+      <c r="S12" s="23" t="n"/>
+      <c r="T12" s="23" t="n"/>
+      <c r="U12" s="25" t="n"/>
+      <c r="V12" s="25" t="n">
         <v>-21.39</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="25" t="n">
         <v>26.34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+    <row customHeight="1" ht="19.7" r="13" s="15" spans="1:26">
+      <c r="A13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="n">
+      <c r="B13" s="21" t="n"/>
+      <c r="C13" s="21" t="n">
         <v>472</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="21" t="n">
         <v>28</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="21" t="n">
         <v>61</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="21" t="n">
         <v>375</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="21" t="n">
         <v>76</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="21" t="n">
         <v>1047</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="21" t="n">
         <v>952</v>
       </c>
-      <c r="J13" s="10" t="n">
+      <c r="J13" s="23" t="n">
         <v>76</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="23" t="n">
         <v>212</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="25" t="n">
         <v>245</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="25" t="n">
         <v>559</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="25" t="n">
         <v>656</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="25" t="n">
         <v>952</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="25" t="n">
         <v>1047</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="25" t="n">
         <v>1149</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="25" t="n">
         <v>1182</v>
       </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12" t="n">
+      <c r="S13" s="23" t="n"/>
+      <c r="T13" s="23" t="n"/>
+      <c r="U13" s="25" t="n"/>
+      <c r="V13" s="25" t="n">
         <v>-16.09</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="25" t="n">
         <v>41.81</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+    <row customHeight="1" ht="15" r="14" s="15" spans="1:26">
+      <c r="A14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="n">
+      <c r="B14" s="21" t="n"/>
+      <c r="C14" s="21" t="n">
         <v>408</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="21" t="n">
         <v>763</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="21" t="n">
         <v>79</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="21" t="n">
         <v>294</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="21" t="n">
         <v>66</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="21" t="n">
         <v>778</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="21" t="n">
         <v>698</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J14" s="23" t="n">
         <v>66</v>
       </c>
-      <c r="K14" s="10" t="n">
+      <c r="K14" s="23" t="n">
         <v>902</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="25" t="n">
         <v>218</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="25" t="n">
         <v>433</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="25" t="n">
         <v>547</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="25" t="n">
         <v>698</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="25" t="n">
         <v>778</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="25" t="n">
         <v>1660</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="25" t="n">
         <v>976</v>
       </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12" t="n">
+      <c r="S14" s="23" t="n"/>
+      <c r="T14" s="23" t="n"/>
+      <c r="U14" s="25" t="n"/>
+      <c r="V14" s="25" t="n">
         <v>-11.14</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="25" t="n">
         <v>52.58</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+    <row customHeight="1" ht="15" r="15" s="15" spans="1:26">
+      <c r="A15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="n">
+      <c r="B15" s="21" t="n"/>
+      <c r="C15" s="21" t="n">
         <v>478</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="21" t="n">
         <v>26</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="21" t="n">
         <v>45</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="21" t="n">
         <v>358</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="21" t="n">
         <v>87</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="21" t="n">
         <v>1146</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="21" t="n">
         <v>1053</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="23" t="n">
         <v>87</v>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="23" t="n">
         <v>223</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="25" t="n">
         <v>242</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="25" t="n">
         <v>555</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="25" t="n">
         <v>675</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="25" t="n">
         <v>1053</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="25" t="n">
         <v>1146</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="25" t="n">
         <v>1244</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="25" t="n">
         <v>1263</v>
       </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12" t="n">
+      <c r="S15" s="23" t="n"/>
+      <c r="T15" s="23" t="n"/>
+      <c r="U15" s="25" t="n"/>
+      <c r="V15" s="25" t="n">
         <v>-24.87</v>
       </c>
-      <c r="W15" s="12" t="n">
+      <c r="W15" s="25" t="n">
         <v>41.96</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+    <row customHeight="1" ht="15" r="16" s="15" spans="1:26">
+      <c r="A16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="n">
+      <c r="B16" s="21" t="n"/>
+      <c r="C16" s="21" t="n">
         <v>483</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="21" t="n">
         <v>93</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="21" t="n">
         <v>399</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="21" t="n">
         <v>140</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="21" t="n">
         <v>1192</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="21" t="n">
         <v>1075</v>
       </c>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="23" t="n">
         <v>140</v>
       </c>
-      <c r="K16" s="10" t="n">
+      <c r="K16" s="23" t="n">
         <v>223</v>
       </c>
-      <c r="L16" s="12" t="n">
+      <c r="L16" s="25" t="n">
         <v>306</v>
       </c>
-      <c r="M16" s="12" t="n">
+      <c r="M16" s="25" t="n">
         <v>612</v>
       </c>
-      <c r="N16" s="12" t="n">
+      <c r="N16" s="25" t="n">
         <v>696</v>
       </c>
-      <c r="O16" s="12" t="n">
+      <c r="O16" s="25" t="n">
         <v>1075</v>
       </c>
-      <c r="P16" s="12" t="n">
+      <c r="P16" s="25" t="n">
         <v>1192</v>
       </c>
-      <c r="Q16" s="12" t="n">
+      <c r="Q16" s="25" t="n">
         <v>1290</v>
       </c>
-      <c r="R16" s="12" t="n">
+      <c r="R16" s="25" t="n">
         <v>1373</v>
       </c>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12" t="n">
+      <c r="S16" s="23" t="n"/>
+      <c r="T16" s="23" t="n"/>
+      <c r="U16" s="25" t="n"/>
+      <c r="V16" s="25" t="n">
         <v>-7.24</v>
       </c>
-      <c r="W16" s="12" t="n">
+      <c r="W16" s="25" t="n">
         <v>103.17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+    <row customHeight="1" ht="15" r="17" s="15" spans="1:26">
+      <c r="A17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="n">
+      <c r="B17" s="25" t="n"/>
+      <c r="C17" s="25" t="n">
         <v>451</v>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="25" t="n">
         <v>67</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="25" t="n">
         <v>374</v>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="G17" s="25" t="n">
         <v>71</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="25" t="n">
         <v>883</v>
       </c>
-      <c r="I17" s="12" t="n">
+      <c r="I17" s="25" t="n">
         <v>788</v>
       </c>
-      <c r="J17" s="10" t="n">
+      <c r="J17" s="23" t="n">
         <v>71</v>
       </c>
-      <c r="K17" s="10" t="n">
+      <c r="K17" s="23" t="n">
         <v>165</v>
       </c>
-      <c r="L17" s="12" t="n">
+      <c r="L17" s="25" t="n">
         <v>224</v>
       </c>
-      <c r="M17" s="12" t="n">
+      <c r="M17" s="25" t="n">
         <v>531</v>
       </c>
-      <c r="N17" s="12" t="n">
+      <c r="N17" s="25" t="n">
         <v>608</v>
       </c>
-      <c r="O17" s="12" t="n">
+      <c r="O17" s="25" t="n">
         <v>788</v>
       </c>
-      <c r="P17" s="12" t="n">
+      <c r="P17" s="25" t="n">
         <v>883</v>
       </c>
-      <c r="Q17" s="12" t="n">
+      <c r="Q17" s="25" t="n">
         <v>965</v>
       </c>
-      <c r="R17" s="12" t="n">
+      <c r="R17" s="25" t="n">
         <v>1024</v>
       </c>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12" t="n">
+      <c r="S17" s="23" t="n"/>
+      <c r="T17" s="23" t="n"/>
+      <c r="U17" s="25" t="n"/>
+      <c r="V17" s="25" t="n">
         <v>-17.32</v>
       </c>
-      <c r="W17" s="12" t="n">
+      <c r="W17" s="25" t="n">
         <v>38.36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+    <row customHeight="1" ht="15" r="18" s="15" spans="1:26">
+      <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="n">
+      <c r="B18" s="25" t="n"/>
+      <c r="C18" s="25" t="n">
         <v>493</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="25" t="n">
         <v>905</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="25" t="n">
         <v>46</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="25" t="n">
         <v>384</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="25" t="n">
         <v>40</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="25" t="n">
         <v>935</v>
       </c>
-      <c r="I18" s="12" t="n">
+      <c r="I18" s="25" t="n">
         <v>843</v>
       </c>
-      <c r="J18" s="10" t="n">
+      <c r="J18" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="K18" s="10" t="n">
+      <c r="K18" s="23" t="n">
         <v>1070</v>
       </c>
-      <c r="L18" s="12" t="n">
+      <c r="L18" s="25" t="n">
         <v>211</v>
       </c>
-      <c r="M18" s="12" t="n">
+      <c r="M18" s="25" t="n">
         <v>549</v>
       </c>
-      <c r="N18" s="12" t="n">
+      <c r="N18" s="25" t="n">
         <v>658</v>
       </c>
-      <c r="O18" s="12" t="n">
+      <c r="O18" s="25" t="n">
         <v>843</v>
       </c>
-      <c r="P18" s="12" t="n">
+      <c r="P18" s="25" t="n">
         <v>935</v>
       </c>
-      <c r="Q18" s="12" t="n">
+      <c r="Q18" s="25" t="n">
         <v>1958</v>
       </c>
-      <c r="R18" s="12" t="n">
+      <c r="R18" s="25" t="n">
         <v>1099</v>
       </c>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12" t="n">
+      <c r="S18" s="23" t="n"/>
+      <c r="T18" s="23" t="n"/>
+      <c r="U18" s="25" t="n"/>
+      <c r="V18" s="25" t="n">
         <v>-19.69</v>
       </c>
-      <c r="W18" s="12" t="n">
+      <c r="W18" s="25" t="n">
         <v>42.67</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+    <row customHeight="1" ht="15" r="19" s="15" spans="1:26">
+      <c r="A19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="n">
+      <c r="B19" s="25" t="n"/>
+      <c r="C19" s="25" t="n">
         <v>397</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="25" t="n">
         <v>877</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="25" t="n">
         <v>65</v>
       </c>
-      <c r="F19" s="12" t="n">
+      <c r="F19" s="25" t="n">
         <v>326</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G19" s="25" t="n">
         <v>48</v>
       </c>
-      <c r="H19" s="12" t="n">
+      <c r="H19" s="25" t="n">
         <v>924</v>
       </c>
-      <c r="I19" s="12" t="n">
+      <c r="I19" s="25" t="n">
         <v>828</v>
       </c>
-      <c r="J19" s="10" t="n">
+      <c r="J19" s="23" t="n">
         <v>48</v>
       </c>
-      <c r="K19" s="10" t="n">
+      <c r="K19" s="23" t="n">
         <v>1048</v>
       </c>
-      <c r="L19" s="12" t="n">
+      <c r="L19" s="25" t="n">
         <v>236</v>
       </c>
-      <c r="M19" s="12" t="n">
+      <c r="M19" s="25" t="n">
         <v>497</v>
       </c>
-      <c r="N19" s="12" t="n">
+      <c r="N19" s="25" t="n">
         <v>568</v>
       </c>
-      <c r="O19" s="12" t="n">
+      <c r="O19" s="25" t="n">
         <v>828</v>
       </c>
-      <c r="P19" s="12" t="n">
+      <c r="P19" s="25" t="n">
         <v>924</v>
       </c>
-      <c r="Q19" s="12" t="n">
+      <c r="Q19" s="25" t="n">
         <v>1901</v>
       </c>
-      <c r="R19" s="12" t="n">
+      <c r="R19" s="25" t="n">
         <v>1089</v>
       </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12" t="n">
+      <c r="S19" s="23" t="n"/>
+      <c r="T19" s="23" t="n"/>
+      <c r="U19" s="25" t="n"/>
+      <c r="V19" s="25" t="n">
         <v>-19.51</v>
       </c>
-      <c r="W19" s="12" t="n">
+      <c r="W19" s="25" t="n">
         <v>39.07</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+    <row customHeight="1" ht="15" r="20" s="15" spans="1:26">
+      <c r="A20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="n">
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="25" t="n">
         <v>515</v>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="25" t="n">
         <v>13</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="25" t="n">
         <v>31</v>
       </c>
-      <c r="F20" s="12" t="n">
+      <c r="F20" s="25" t="n">
         <v>385</v>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G20" s="25" t="n">
         <v>119</v>
       </c>
-      <c r="H20" s="12" t="n">
+      <c r="H20" s="25" t="n">
         <v>1215</v>
       </c>
-      <c r="I20" s="12" t="n">
+      <c r="I20" s="25" t="n">
         <v>1107</v>
       </c>
-      <c r="J20" s="10" t="n">
+      <c r="J20" s="23" t="n">
         <v>119</v>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="23" t="n">
         <v>226</v>
       </c>
-      <c r="L20" s="12" t="n">
+      <c r="L20" s="25" t="n">
         <v>244</v>
       </c>
-      <c r="M20" s="12" t="n">
+      <c r="M20" s="25" t="n">
         <v>598</v>
       </c>
-      <c r="N20" s="12" t="n">
+      <c r="N20" s="25" t="n">
         <v>728</v>
       </c>
-      <c r="O20" s="12" t="n">
+      <c r="O20" s="25" t="n">
         <v>1107</v>
       </c>
-      <c r="P20" s="12" t="n">
+      <c r="P20" s="25" t="n">
         <v>1215</v>
       </c>
-      <c r="Q20" s="12" t="n">
+      <c r="Q20" s="25" t="n">
         <v>1333</v>
       </c>
-      <c r="R20" s="12" t="n">
+      <c r="R20" s="25" t="n">
         <v>1351</v>
       </c>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12" t="n">
+      <c r="S20" s="23" t="n"/>
+      <c r="T20" s="23" t="n"/>
+      <c r="U20" s="25" t="n"/>
+      <c r="V20" s="25" t="n">
         <v>-14.82</v>
       </c>
-      <c r="W20" s="12" t="n">
+      <c r="W20" s="25" t="n">
         <v>72.09</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+    <row customHeight="1" ht="15" r="21" s="15" spans="1:26">
+      <c r="A21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12" t="n">
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="25" t="n">
         <v>484</v>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="25" t="n">
         <v>1071</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="25" t="n">
         <v>78</v>
       </c>
-      <c r="F21" s="12" t="n">
+      <c r="F21" s="25" t="n">
         <v>396</v>
       </c>
-      <c r="G21" s="12" t="n">
+      <c r="G21" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="H21" s="12" t="n">
+      <c r="H21" s="25" t="n">
         <v>989</v>
       </c>
-      <c r="I21" s="12" t="n">
+      <c r="I21" s="25" t="n">
         <v>798</v>
       </c>
-      <c r="J21" s="10" t="n">
+      <c r="J21" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="K21" s="10" t="n">
+      <c r="K21" s="23" t="n">
         <v>1091</v>
       </c>
-      <c r="L21" s="12" t="n">
+      <c r="L21" s="25" t="n">
         <v>98</v>
       </c>
-      <c r="M21" s="12" t="n">
+      <c r="M21" s="25" t="n">
         <v>416</v>
       </c>
-      <c r="N21" s="12" t="n">
+      <c r="N21" s="25" t="n">
         <v>504</v>
       </c>
-      <c r="O21" s="12" t="n">
+      <c r="O21" s="25" t="n">
         <v>798</v>
       </c>
-      <c r="P21" s="12" t="n">
+      <c r="P21" s="25" t="n">
         <v>989</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="25" t="n">
         <v>2041</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="25" t="n">
         <v>1048</v>
       </c>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12" t="n">
+      <c r="S21" s="23" t="n"/>
+      <c r="T21" s="23" t="n"/>
+      <c r="U21" s="25" t="n"/>
+      <c r="V21" s="25" t="n">
         <v>-15.89</v>
       </c>
-      <c r="W21" s="12" t="n">
-        <v>91.93</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="W21" s="25" t="n">
+        <v>91.93000000000001</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="22" s="15" spans="1:26">
+      <c r="A22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="n">
+      <c r="B22" s="25" t="n"/>
+      <c r="C22" s="25" t="n">
         <v>561</v>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="25" t="n">
         <v>45</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="25" t="n">
         <v>68</v>
       </c>
-      <c r="F22" s="12" t="n">
+      <c r="F22" s="25" t="n">
         <v>412</v>
       </c>
-      <c r="G22" s="12" t="n">
+      <c r="G22" s="25" t="n">
         <v>128</v>
       </c>
-      <c r="H22" s="12" t="n">
+      <c r="H22" s="25" t="n">
         <v>1250</v>
       </c>
-      <c r="I22" s="12" t="n">
+      <c r="I22" s="25" t="n">
         <v>1098</v>
       </c>
-      <c r="J22" s="10" t="n">
+      <c r="J22" s="23" t="n">
         <v>128</v>
       </c>
-      <c r="K22" s="10" t="n">
+      <c r="K22" s="23" t="n">
         <v>259</v>
       </c>
-      <c r="L22" s="12" t="n">
+      <c r="L22" s="25" t="n">
         <v>282</v>
       </c>
-      <c r="M22" s="12" t="n">
+      <c r="M22" s="25" t="n">
         <v>626</v>
       </c>
-      <c r="N22" s="12" t="n">
+      <c r="N22" s="25" t="n">
         <v>775</v>
       </c>
-      <c r="O22" s="12" t="n">
+      <c r="O22" s="25" t="n">
         <v>1098</v>
       </c>
-      <c r="P22" s="12" t="n">
+      <c r="P22" s="25" t="n">
         <v>1250</v>
       </c>
-      <c r="Q22" s="12" t="n">
+      <c r="Q22" s="25" t="n">
         <v>1378</v>
       </c>
-      <c r="R22" s="12" t="n">
+      <c r="R22" s="25" t="n">
         <v>1401</v>
       </c>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12" t="n">
+      <c r="S22" s="23" t="n"/>
+      <c r="T22" s="23" t="n"/>
+      <c r="U22" s="25" t="n"/>
+      <c r="V22" s="25" t="n">
         <v>-18.87</v>
       </c>
-      <c r="W22" s="12" t="n">
+      <c r="W22" s="25" t="n">
         <v>51.4</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+    <row customHeight="1" ht="15" r="23" s="15" spans="1:26">
+      <c r="A23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="n">
+      <c r="B23" s="25" t="n"/>
+      <c r="C23" s="25" t="n">
         <v>453</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="25" t="n">
         <v>924</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="25" t="n">
         <v>49</v>
       </c>
-      <c r="F23" s="12" t="n">
+      <c r="F23" s="25" t="n">
         <v>355</v>
       </c>
-      <c r="G23" s="12" t="n">
+      <c r="G23" s="25" t="n">
         <v>139</v>
       </c>
-      <c r="H23" s="12" t="n">
+      <c r="H23" s="25" t="n">
         <v>1076</v>
       </c>
-      <c r="I23" s="12" t="n">
+      <c r="I23" s="25" t="n">
         <v>956</v>
       </c>
-      <c r="J23" s="10" t="n">
+      <c r="J23" s="23" t="n">
         <v>139</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="23" t="n">
         <v>1123</v>
       </c>
-      <c r="L23" s="12" t="n">
+      <c r="L23" s="25" t="n">
         <v>248</v>
       </c>
-      <c r="M23" s="12" t="n">
+      <c r="M23" s="25" t="n">
         <v>554</v>
       </c>
-      <c r="N23" s="12" t="n">
+      <c r="N23" s="25" t="n">
         <v>652</v>
       </c>
-      <c r="O23" s="12" t="n">
+      <c r="O23" s="25" t="n">
         <v>956</v>
       </c>
-      <c r="P23" s="12" t="n">
+      <c r="P23" s="25" t="n">
         <v>1076</v>
       </c>
-      <c r="Q23" s="12" t="n">
+      <c r="Q23" s="25" t="n">
         <v>2119</v>
       </c>
-      <c r="R23" s="12" t="n">
+      <c r="R23" s="25" t="n">
         <v>1244</v>
       </c>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12" t="n">
+      <c r="S23" s="23" t="n"/>
+      <c r="T23" s="23" t="n"/>
+      <c r="U23" s="25" t="n"/>
+      <c r="V23" s="25" t="n">
         <v>-16.75</v>
       </c>
-      <c r="W23" s="12" t="n">
+      <c r="W23" s="25" t="n">
         <v>53.05</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+    <row customHeight="1" ht="15" r="24" s="15" spans="1:26">
+      <c r="A24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12" t="n">
+      <c r="B24" s="25" t="n"/>
+      <c r="C24" s="25" t="n">
         <v>399</v>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="25" t="n">
         <v>796</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="25" t="n">
         <v>74</v>
       </c>
-      <c r="F24" s="12" t="n">
+      <c r="F24" s="25" t="n">
         <v>354</v>
       </c>
-      <c r="G24" s="12" t="n">
-        <v>105</v>
-      </c>
-      <c r="H24" s="12" t="n">
-        <v>1155</v>
-      </c>
-      <c r="I24" s="12" t="n">
-        <v>1034</v>
-      </c>
-      <c r="J24" s="10" t="n">
-        <v>105</v>
-      </c>
-      <c r="K24" s="10" t="n">
+      <c r="G24" s="25" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" s="25" t="n">
+        <v>1157</v>
+      </c>
+      <c r="I24" s="25" t="n">
+        <v>1008</v>
+      </c>
+      <c r="J24" s="23" t="n">
+        <v>100</v>
+      </c>
+      <c r="K24" s="23" t="n">
         <v>996</v>
       </c>
-      <c r="L24" s="12" t="n">
+      <c r="L24" s="25" t="n">
         <v>274</v>
       </c>
-      <c r="M24" s="12" t="n">
+      <c r="M24" s="25" t="n">
         <v>554</v>
       </c>
-      <c r="N24" s="12" t="n">
+      <c r="N24" s="25" t="n">
         <v>599</v>
       </c>
-      <c r="O24" s="12" t="n">
-        <v>1034</v>
-      </c>
-      <c r="P24" s="12" t="n">
-        <v>1155</v>
-      </c>
-      <c r="Q24" s="12" t="n">
+      <c r="O24" s="25" t="n">
+        <v>1008</v>
+      </c>
+      <c r="P24" s="25" t="n">
+        <v>1157</v>
+      </c>
+      <c r="Q24" s="25" t="n">
         <v>2037</v>
       </c>
-      <c r="R24" s="12" t="n">
+      <c r="R24" s="25" t="n">
         <v>1315</v>
       </c>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12" t="n">
+      <c r="S24" s="23" t="n"/>
+      <c r="T24" s="23" t="n"/>
+      <c r="U24" s="25" t="n"/>
+      <c r="V24" s="25" t="n">
         <v>-16.64</v>
       </c>
-      <c r="W24" s="12" t="n">
+      <c r="W24" s="25" t="n">
         <v>99.58</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+    <row customHeight="1" ht="15" r="25" s="15" spans="1:26">
+      <c r="A25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="n">
+      <c r="B25" s="25" t="n"/>
+      <c r="C25" s="25" t="n">
         <v>548</v>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="25" t="n">
         <v>55</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="25" t="n">
         <v>78</v>
       </c>
-      <c r="F25" s="12" t="n">
+      <c r="F25" s="25" t="n">
         <v>409</v>
       </c>
-      <c r="G25" s="12" t="n">
+      <c r="G25" s="25" t="n">
         <v>112</v>
       </c>
-      <c r="H25" s="12" t="n">
+      <c r="H25" s="25" t="n">
         <v>1280</v>
       </c>
-      <c r="I25" s="12" t="n">
+      <c r="I25" s="25" t="n">
         <v>1186</v>
       </c>
-      <c r="J25" s="10" t="n">
+      <c r="J25" s="23" t="n">
         <v>112</v>
       </c>
-      <c r="K25" s="10" t="n">
+      <c r="K25" s="23" t="n">
         <v>271</v>
       </c>
-      <c r="L25" s="12" t="n">
+      <c r="L25" s="25" t="n">
         <v>294</v>
       </c>
-      <c r="M25" s="12" t="n">
+      <c r="M25" s="25" t="n">
         <v>625</v>
       </c>
-      <c r="N25" s="12" t="n">
+      <c r="N25" s="25" t="n">
         <v>764</v>
       </c>
-      <c r="O25" s="12" t="n">
+      <c r="O25" s="25" t="n">
         <v>1186</v>
       </c>
-      <c r="P25" s="12" t="n">
+      <c r="P25" s="25" t="n">
         <v>1280</v>
       </c>
-      <c r="Q25" s="12" t="n">
+      <c r="Q25" s="25" t="n">
         <v>1410</v>
       </c>
-      <c r="R25" s="12" t="n">
+      <c r="R25" s="25" t="n">
         <v>1433</v>
       </c>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12" t="n">
+      <c r="S25" s="23" t="n"/>
+      <c r="T25" s="23" t="n"/>
+      <c r="U25" s="25" t="n"/>
+      <c r="V25" s="25" t="n">
         <v>-19.7</v>
       </c>
-      <c r="W25" s="12" t="n">
+      <c r="W25" s="25" t="n">
         <v>37.93</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+    <row customHeight="1" ht="15" r="26" s="15" spans="1:26">
+      <c r="A26" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12" t="n">
+      <c r="B26" s="25" t="n"/>
+      <c r="C26" s="25" t="n">
         <v>730</v>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="25" t="n">
         <v>1011</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="25" t="n">
         <v>1085</v>
       </c>
-      <c r="F26" s="12" t="n">
+      <c r="F26" s="25" t="n">
         <v>1333</v>
       </c>
-      <c r="G26" s="12" t="n">
+      <c r="G26" s="25" t="n">
         <v>115</v>
       </c>
-      <c r="H26" s="12" t="n">
+      <c r="H26" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="I26" s="12" t="n">
+      <c r="I26" s="25" t="n">
         <v>619</v>
       </c>
-      <c r="J26" s="10" t="n">
+      <c r="J26" s="23" t="n">
         <v>115</v>
       </c>
-      <c r="K26" s="10" t="n">
+      <c r="K26" s="23" t="n">
         <v>1207</v>
       </c>
-      <c r="L26" s="12" t="n">
+      <c r="L26" s="25" t="n">
         <v>1281</v>
       </c>
-      <c r="M26" s="12" t="n">
+      <c r="M26" s="25" t="n">
         <v>1529</v>
       </c>
-      <c r="N26" s="12" t="n">
+      <c r="N26" s="25" t="n">
         <v>926</v>
       </c>
-      <c r="O26" s="12" t="n">
+      <c r="O26" s="25" t="n">
         <v>619</v>
       </c>
-      <c r="P26" s="12" t="n">
+      <c r="P26" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="Q26" s="12" t="n">
+      <c r="Q26" s="25" t="n">
         <v>2216</v>
       </c>
-      <c r="R26" s="12" t="n">
+      <c r="R26" s="25" t="n">
         <v>2290</v>
       </c>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12" t="n">
+      <c r="S26" s="23" t="n"/>
+      <c r="T26" s="23" t="n"/>
+      <c r="U26" s="25" t="n"/>
+      <c r="V26" s="25" t="n">
         <v>-15.69</v>
       </c>
-      <c r="W26" s="12" t="n">
+      <c r="W26" s="25" t="n">
         <v>70.39</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+    <row customHeight="1" ht="15" r="27" s="15" spans="1:26">
+      <c r="A27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="n">
+      <c r="B27" s="25" t="n"/>
+      <c r="C27" s="25" t="n">
         <v>493</v>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E27" s="12" t="n">
+      <c r="E27" s="25" t="n">
         <v>63</v>
       </c>
-      <c r="F27" s="12" t="n">
+      <c r="F27" s="25" t="n">
         <v>425</v>
       </c>
-      <c r="G27" s="12" t="n">
+      <c r="G27" s="25" t="n">
         <v>86</v>
       </c>
-      <c r="H27" s="12" t="n">
+      <c r="H27" s="25" t="n">
         <v>997</v>
       </c>
-      <c r="I27" s="12" t="n">
+      <c r="I27" s="25" t="n">
         <v>848</v>
       </c>
-      <c r="J27" s="10" t="n">
+      <c r="J27" s="23" t="n">
         <v>86</v>
       </c>
-      <c r="K27" s="10" t="n">
+      <c r="K27" s="23" t="n">
         <v>175</v>
       </c>
-      <c r="L27" s="12" t="n">
+      <c r="L27" s="25" t="n">
         <v>234</v>
       </c>
-      <c r="M27" s="12" t="n">
+      <c r="M27" s="25" t="n">
         <v>596</v>
       </c>
-      <c r="N27" s="12" t="n">
+      <c r="N27" s="25" t="n">
         <v>664</v>
       </c>
-      <c r="O27" s="12" t="n">
+      <c r="O27" s="25" t="n">
         <v>848</v>
       </c>
-      <c r="P27" s="12" t="n">
+      <c r="P27" s="25" t="n">
         <v>997</v>
       </c>
-      <c r="Q27" s="12" t="n">
+      <c r="Q27" s="25" t="n">
         <v>1071</v>
       </c>
-      <c r="R27" s="12" t="n">
+      <c r="R27" s="25" t="n">
         <v>1130</v>
       </c>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12" t="n">
+      <c r="S27" s="23" t="n"/>
+      <c r="T27" s="23" t="n"/>
+      <c r="U27" s="25" t="n"/>
+      <c r="V27" s="25" t="n">
         <v>-20.59</v>
       </c>
-      <c r="W27" s="12" t="n">
+      <c r="W27" s="25" t="n">
         <v>42.68</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
+    <row customHeight="1" ht="15" r="28" s="15" spans="1:26">
+      <c r="A28" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="n">
+      <c r="B28" s="25" t="n"/>
+      <c r="C28" s="25" t="n">
         <v>422</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="25" t="n">
         <v>840</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="25" t="n">
         <v>38</v>
       </c>
-      <c r="F28" s="12" t="n">
+      <c r="F28" s="25" t="n">
         <v>331</v>
       </c>
-      <c r="G28" s="12" t="n">
+      <c r="G28" s="25" t="n">
         <v>104</v>
       </c>
-      <c r="H28" s="12" t="n">
+      <c r="H28" s="25" t="n">
         <v>980</v>
       </c>
-      <c r="I28" s="12" t="n">
+      <c r="I28" s="25" t="n">
         <v>882</v>
       </c>
-      <c r="J28" s="10" t="n">
+      <c r="J28" s="23" t="n">
         <v>104</v>
       </c>
-      <c r="K28" s="10" t="n">
+      <c r="K28" s="23" t="n">
         <v>1005</v>
       </c>
-      <c r="L28" s="12" t="n">
+      <c r="L28" s="25" t="n">
         <v>203</v>
       </c>
-      <c r="M28" s="12" t="n">
+      <c r="M28" s="25" t="n">
         <v>496</v>
       </c>
-      <c r="N28" s="12" t="n">
+      <c r="N28" s="25" t="n">
         <v>587</v>
       </c>
-      <c r="O28" s="12" t="n">
+      <c r="O28" s="25" t="n">
         <v>882</v>
       </c>
-      <c r="P28" s="12" t="n">
+      <c r="P28" s="25" t="n">
         <v>980</v>
       </c>
-      <c r="Q28" s="12" t="n">
+      <c r="Q28" s="25" t="n">
         <v>1893</v>
       </c>
-      <c r="R28" s="12" t="n">
+      <c r="R28" s="25" t="n">
         <v>1091</v>
       </c>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12" t="n">
+      <c r="S28" s="23" t="n"/>
+      <c r="T28" s="23" t="n"/>
+      <c r="U28" s="25" t="n"/>
+      <c r="V28" s="25" t="n">
         <v>-14.47</v>
       </c>
-      <c r="W28" s="12" t="n">
-        <v>84.99</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+      <c r="W28" s="25" t="n">
+        <v>84.98999999999999</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="29" s="15" spans="1:26">
+      <c r="A29" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12" t="n">
+      <c r="B29" s="25" t="n"/>
+      <c r="C29" s="25" t="n">
         <v>434</v>
       </c>
-      <c r="D29" s="12" t="n">
+      <c r="D29" s="25" t="n">
         <v>976</v>
       </c>
-      <c r="E29" s="12" t="n">
+      <c r="E29" s="25" t="n">
         <v>40</v>
       </c>
-      <c r="F29" s="12" t="n">
+      <c r="F29" s="25" t="n">
         <v>341</v>
       </c>
-      <c r="G29" s="12" t="n">
+      <c r="G29" s="25" t="n">
         <v>15</v>
       </c>
-      <c r="H29" s="12" t="n">
+      <c r="H29" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="I29" s="12" t="n">
+      <c r="I29" s="25" t="n">
         <v>866</v>
       </c>
-      <c r="J29" s="10" t="n">
+      <c r="J29" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="K29" s="10" t="n">
+      <c r="K29" s="23" t="n">
         <v>987</v>
       </c>
-      <c r="L29" s="12" t="n">
+      <c r="L29" s="25" t="n">
         <v>51</v>
       </c>
-      <c r="M29" s="12" t="n">
+      <c r="M29" s="25" t="n">
         <v>352</v>
       </c>
-      <c r="N29" s="12" t="n">
+      <c r="N29" s="25" t="n">
         <v>445</v>
       </c>
-      <c r="O29" s="12" t="n">
+      <c r="O29" s="25" t="n">
         <v>866</v>
       </c>
-      <c r="P29" s="12" t="n">
+      <c r="P29" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="Q29" s="12" t="n">
+      <c r="Q29" s="25" t="n">
         <v>2036</v>
       </c>
-      <c r="R29" s="12" t="n">
+      <c r="R29" s="25" t="n">
         <v>1100</v>
       </c>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12" t="n">
+      <c r="S29" s="23" t="n"/>
+      <c r="T29" s="23" t="n"/>
+      <c r="U29" s="25" t="n"/>
+      <c r="V29" s="25" t="n">
         <v>-19.62</v>
       </c>
-      <c r="W29" s="12" t="n">
+      <c r="W29" s="25" t="n">
         <v>104.51</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+    <row customHeight="1" ht="15" r="30" s="15" spans="1:26">
+      <c r="A30" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12" t="n">
+      <c r="B30" s="25" t="n"/>
+      <c r="C30" s="25" t="n">
         <v>351</v>
       </c>
-      <c r="D30" s="12" t="n">
+      <c r="D30" s="25" t="n">
         <v>26</v>
       </c>
-      <c r="E30" s="12" t="n">
+      <c r="E30" s="25" t="n">
         <v>74</v>
       </c>
-      <c r="F30" s="12" t="n">
+      <c r="F30" s="25" t="n">
         <v>384</v>
       </c>
-      <c r="G30" s="12" t="n">
+      <c r="G30" s="25" t="n">
         <v>63</v>
       </c>
-      <c r="H30" s="12" t="n">
+      <c r="H30" s="25" t="n">
         <v>978</v>
       </c>
-      <c r="I30" s="12" t="n">
+      <c r="I30" s="25" t="n">
         <v>872</v>
       </c>
-      <c r="J30" s="10" t="n">
+      <c r="J30" s="23" t="n">
         <v>63</v>
       </c>
-      <c r="K30" s="10" t="n">
+      <c r="K30" s="23" t="n">
         <v>196</v>
       </c>
-      <c r="L30" s="12" t="n">
+      <c r="L30" s="25" t="n">
         <v>244</v>
       </c>
-      <c r="M30" s="12" t="n">
+      <c r="M30" s="25" t="n">
         <v>554</v>
       </c>
-      <c r="N30" s="12" t="n">
+      <c r="N30" s="25" t="n">
         <v>521</v>
       </c>
-      <c r="O30" s="12" t="n">
+      <c r="O30" s="25" t="n">
         <v>872</v>
       </c>
-      <c r="P30" s="12" t="n">
+      <c r="P30" s="25" t="n">
         <v>978</v>
       </c>
-      <c r="Q30" s="12" t="n">
+      <c r="Q30" s="25" t="n">
         <v>1088</v>
       </c>
-      <c r="R30" s="12" t="n">
+      <c r="R30" s="25" t="n">
         <v>1136</v>
       </c>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12" t="n">
+      <c r="S30" s="23" t="n"/>
+      <c r="T30" s="23" t="n"/>
+      <c r="U30" s="25" t="n"/>
+      <c r="V30" s="25" t="n">
         <v>-16.07</v>
       </c>
-      <c r="W30" s="12" t="n">
+      <c r="W30" s="25" t="n">
         <v>81.23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+    <row customHeight="1" ht="15" r="31" s="15" spans="1:26">
+      <c r="A31" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="n">
+      <c r="B31" s="25" t="n"/>
+      <c r="C31" s="25" t="n">
         <v>445</v>
       </c>
-      <c r="D31" s="12" t="n">
+      <c r="D31" s="25" t="n">
         <v>817</v>
       </c>
-      <c r="E31" s="12" t="n">
+      <c r="E31" s="25" t="n">
         <v>60</v>
       </c>
-      <c r="F31" s="12" t="n">
+      <c r="F31" s="25" t="n">
         <v>399</v>
       </c>
-      <c r="G31" s="12" t="n">
+      <c r="G31" s="25" t="n">
         <v>48</v>
       </c>
-      <c r="H31" s="12" t="n">
+      <c r="H31" s="25" t="n">
         <v>855</v>
       </c>
-      <c r="I31" s="12" t="n">
+      <c r="I31" s="25" t="n">
         <v>741</v>
       </c>
-      <c r="J31" s="10" t="n">
+      <c r="J31" s="23" t="n">
         <v>48</v>
       </c>
-      <c r="K31" s="10" t="n">
+      <c r="K31" s="23" t="n">
         <v>974</v>
       </c>
-      <c r="L31" s="12" t="n">
+      <c r="L31" s="25" t="n">
         <v>217</v>
       </c>
-      <c r="M31" s="12" t="n">
+      <c r="M31" s="25" t="n">
         <v>556</v>
       </c>
-      <c r="N31" s="12" t="n">
+      <c r="N31" s="25" t="n">
         <v>602</v>
       </c>
-      <c r="O31" s="12" t="n">
+      <c r="O31" s="25" t="n">
         <v>741</v>
       </c>
-      <c r="P31" s="12" t="n">
+      <c r="P31" s="25" t="n">
         <v>855</v>
       </c>
-      <c r="Q31" s="12" t="n">
+      <c r="Q31" s="25" t="n">
         <v>1761</v>
       </c>
-      <c r="R31" s="12" t="n">
+      <c r="R31" s="25" t="n">
         <v>1004</v>
       </c>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12" t="n">
+      <c r="S31" s="23" t="n"/>
+      <c r="T31" s="23" t="n"/>
+      <c r="U31" s="25" t="n"/>
+      <c r="V31" s="25" t="n">
         <v>-20.18</v>
       </c>
-      <c r="W31" s="12" t="n">
+      <c r="W31" s="25" t="n">
         <v>54.53</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+    <row customHeight="1" ht="15" r="32" s="15" spans="1:26">
+      <c r="A32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12" t="n">
+      <c r="B32" s="25" t="n"/>
+      <c r="C32" s="25" t="n">
         <v>443</v>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="25" t="n">
         <v>783</v>
       </c>
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="25" t="n">
         <v>61</v>
       </c>
-      <c r="F32" s="12" t="n">
+      <c r="F32" s="25" t="n">
         <v>359</v>
       </c>
-      <c r="G32" s="12" t="n">
+      <c r="G32" s="25" t="n">
         <v>27</v>
       </c>
-      <c r="H32" s="12" t="n">
+      <c r="H32" s="25" t="n">
         <v>709</v>
       </c>
-      <c r="I32" s="12" t="n">
+      <c r="I32" s="25" t="n">
         <v>617</v>
       </c>
-      <c r="J32" s="10" t="n">
+      <c r="J32" s="23" t="n">
         <v>27</v>
       </c>
-      <c r="K32" s="10" t="n">
+      <c r="K32" s="23" t="n">
         <v>914</v>
       </c>
-      <c r="L32" s="12" t="n">
+      <c r="L32" s="25" t="n">
         <v>192</v>
       </c>
-      <c r="M32" s="12" t="n">
+      <c r="M32" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="N32" s="12" t="n">
+      <c r="N32" s="25" t="n">
         <v>574</v>
       </c>
-      <c r="O32" s="12" t="n">
+      <c r="O32" s="25" t="n">
         <v>617</v>
       </c>
-      <c r="P32" s="12" t="n">
+      <c r="P32" s="25" t="n">
         <v>709</v>
       </c>
-      <c r="Q32" s="12" t="n">
+      <c r="Q32" s="25" t="n">
         <v>1596</v>
       </c>
-      <c r="R32" s="12" t="n">
+      <c r="R32" s="25" t="n">
         <v>874</v>
       </c>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12" t="n">
+      <c r="S32" s="23" t="n"/>
+      <c r="T32" s="23" t="n"/>
+      <c r="U32" s="25" t="n"/>
+      <c r="V32" s="25" t="n">
         <v>-17.37</v>
       </c>
-      <c r="W32" s="12" t="n">
+      <c r="W32" s="25" t="n">
         <v>46.39</v>
       </c>
     </row>
-    <row r="33" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="33" s="25" spans="1:26">
+      <c r="A33" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="10" t="n">
+      <c r="C33" s="23" t="n">
         <v>463</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="E33" s="10" t="n">
+      <c r="E33" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="F33" s="10" t="n">
+      <c r="F33" s="23" t="n">
         <v>385</v>
       </c>
-      <c r="G33" s="12" t="n">
+      <c r="G33" s="25" t="n">
         <v>125</v>
       </c>
-      <c r="H33" s="12" t="n">
+      <c r="H33" s="25" t="n">
         <v>1252</v>
       </c>
-      <c r="I33" s="12" t="n">
+      <c r="I33" s="25" t="n">
         <v>1154</v>
       </c>
-      <c r="J33" s="12" t="n">
+      <c r="J33" s="25" t="n">
         <v>125</v>
       </c>
-      <c r="K33" s="12" t="n">
+      <c r="K33" s="25" t="n">
         <v>221</v>
       </c>
-      <c r="L33" s="12" t="n">
+      <c r="L33" s="25" t="n">
         <v>269</v>
       </c>
-      <c r="M33" s="12" t="n">
+      <c r="M33" s="25" t="n">
         <v>598</v>
       </c>
-      <c r="N33" s="12" t="n">
+      <c r="N33" s="25" t="n">
         <v>676</v>
       </c>
-      <c r="O33" s="12" t="n">
+      <c r="O33" s="25" t="n">
         <v>1154</v>
       </c>
-      <c r="P33" s="12" t="n">
+      <c r="P33" s="25" t="n">
         <v>1252</v>
       </c>
-      <c r="Q33" s="12" t="n">
+      <c r="Q33" s="25" t="n">
         <v>1336</v>
       </c>
-      <c r="R33" s="12" t="n">
+      <c r="R33" s="25" t="n">
         <v>1384</v>
       </c>
-      <c r="V33" s="12" t="n">
+      <c r="V33" s="25" t="n">
         <v>-16.89</v>
       </c>
-      <c r="W33" s="12" t="n">
+      <c r="W33" s="25" t="n">
         <v>30.64</v>
       </c>
     </row>
-    <row r="34" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="34" s="25" spans="1:26">
+      <c r="A34" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="10" t="n">
+      <c r="C34" s="23" t="n">
         <v>488</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="E34" s="10" t="n">
+      <c r="E34" s="23" t="n">
         <v>47</v>
       </c>
-      <c r="F34" s="10" t="n">
+      <c r="F34" s="23" t="n">
         <v>355</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="25" t="n">
         <v>113</v>
       </c>
-      <c r="H34" s="12" t="n">
+      <c r="H34" s="25" t="n">
         <v>1226</v>
       </c>
-      <c r="I34" s="12" t="n">
+      <c r="I34" s="25" t="n">
         <v>1107</v>
       </c>
-      <c r="J34" s="12" t="n">
+      <c r="J34" s="25" t="n">
         <v>113</v>
       </c>
-      <c r="K34" s="12" t="n">
+      <c r="K34" s="25" t="n">
         <v>224</v>
       </c>
-      <c r="L34" s="12" t="n">
+      <c r="L34" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="M34" s="12" t="n">
+      <c r="M34" s="25" t="n">
         <v>568</v>
       </c>
-      <c r="N34" s="12" t="n">
+      <c r="N34" s="25" t="n">
         <v>701</v>
       </c>
-      <c r="O34" s="12" t="n">
+      <c r="O34" s="25" t="n">
         <v>1107</v>
       </c>
-      <c r="P34" s="12" t="n">
+      <c r="P34" s="25" t="n">
         <v>1226</v>
       </c>
-      <c r="Q34" s="12" t="n">
+      <c r="Q34" s="25" t="n">
         <v>1326</v>
       </c>
-      <c r="R34" s="12" t="n">
+      <c r="R34" s="25" t="n">
         <v>1362</v>
       </c>
-      <c r="V34" s="12" t="n">
+      <c r="V34" s="25" t="n">
         <v>-21.04</v>
       </c>
-      <c r="W34" s="12" t="n">
+      <c r="W34" s="25" t="n">
         <v>31.12</v>
       </c>
     </row>
-    <row r="35" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="35" s="25" spans="1:26">
+      <c r="A35" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="10" t="n">
+      <c r="C35" s="23" t="n">
         <v>454</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D35" s="23" t="n">
         <v>21</v>
       </c>
-      <c r="E35" s="10" t="n">
+      <c r="E35" s="23" t="n">
         <v>71</v>
       </c>
-      <c r="F35" s="10" t="n">
+      <c r="F35" s="23" t="n">
         <v>393</v>
       </c>
     </row>
-    <row r="36" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="36" s="25" spans="1:26">
+      <c r="A36" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="10" t="n">
+      <c r="C36" s="23" t="n">
         <v>422</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="E36" s="10" t="n">
+      <c r="E36" s="23" t="n">
         <v>84</v>
       </c>
-      <c r="F36" s="10" t="n">
+      <c r="F36" s="23" t="n">
         <v>348</v>
       </c>
-      <c r="G36" s="12" t="n">
+      <c r="G36" s="25" t="n">
         <v>99</v>
       </c>
-      <c r="H36" s="12" t="n">
+      <c r="H36" s="25" t="n">
         <v>1129</v>
       </c>
-      <c r="I36" s="12" t="n">
+      <c r="I36" s="25" t="n">
         <v>1020</v>
       </c>
-      <c r="J36" s="12" t="n">
+      <c r="J36" s="25" t="n">
         <v>99</v>
       </c>
-      <c r="K36" s="12" t="n">
+      <c r="K36" s="25" t="n">
         <v>206</v>
       </c>
-      <c r="L36" s="12" t="n">
+      <c r="L36" s="25" t="n">
         <v>283</v>
       </c>
-      <c r="M36" s="12" t="n">
+      <c r="M36" s="25" t="n">
         <v>547</v>
       </c>
-      <c r="N36" s="12" t="n">
+      <c r="N36" s="25" t="n">
         <v>621</v>
       </c>
-      <c r="O36" s="12" t="n">
+      <c r="O36" s="25" t="n">
         <v>1020</v>
       </c>
-      <c r="P36" s="12" t="n">
+      <c r="P36" s="25" t="n">
         <v>1129</v>
       </c>
-      <c r="Q36" s="12" t="n">
+      <c r="Q36" s="25" t="n">
         <v>1216</v>
       </c>
-      <c r="R36" s="12" t="n">
+      <c r="R36" s="25" t="n">
         <v>1293</v>
       </c>
-      <c r="V36" s="12" t="n">
+      <c r="V36" s="25" t="n">
         <v>-19.65</v>
       </c>
-      <c r="W36" s="12" t="n">
+      <c r="W36" s="25" t="n">
         <v>25.63</v>
       </c>
     </row>
-    <row r="37" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="37" s="25" spans="1:26">
+      <c r="A37" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="10" t="n">
+      <c r="C37" s="23" t="n">
         <v>485</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="10" t="n">
+      <c r="E37" s="23" t="n">
         <v>81</v>
       </c>
-      <c r="F37" s="10" t="n">
+      <c r="F37" s="23" t="n">
         <v>387</v>
       </c>
-      <c r="G37" s="12" t="n">
+      <c r="G37" s="25" t="n">
         <v>85</v>
       </c>
-      <c r="H37" s="12" t="n">
+      <c r="H37" s="25" t="n">
         <v>1131</v>
       </c>
-      <c r="I37" s="12" t="n">
+      <c r="I37" s="25" t="n">
         <v>1028</v>
       </c>
-      <c r="J37" s="12" t="n">
+      <c r="J37" s="25" t="n">
         <v>85</v>
       </c>
-      <c r="K37" s="12" t="n">
+      <c r="K37" s="25" t="n">
         <v>198</v>
       </c>
-      <c r="L37" s="12" t="n">
+      <c r="L37" s="25" t="n">
         <v>278</v>
       </c>
-      <c r="M37" s="12" t="n">
+      <c r="M37" s="25" t="n">
         <v>584</v>
       </c>
-      <c r="N37" s="12" t="n">
+      <c r="N37" s="25" t="n">
         <v>682</v>
       </c>
-      <c r="O37" s="12" t="n">
+      <c r="O37" s="25" t="n">
         <v>1028</v>
       </c>
-      <c r="P37" s="12" t="n">
+      <c r="P37" s="25" t="n">
         <v>1131</v>
       </c>
-      <c r="Q37" s="12" t="n">
+      <c r="Q37" s="25" t="n">
         <v>1230</v>
       </c>
-      <c r="R37" s="12" t="n">
+      <c r="R37" s="25" t="n">
         <v>1310</v>
       </c>
-      <c r="V37" s="12" t="n">
+      <c r="V37" s="25" t="n">
         <v>-20.98</v>
       </c>
-      <c r="W37" s="12" t="n">
+      <c r="W37" s="25" t="n">
         <v>41.27</v>
       </c>
     </row>
-    <row r="38" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="38" s="25" spans="1:26">
+      <c r="A38" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="10" t="n">
+      <c r="C38" s="23" t="n">
         <v>445</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="23" t="n">
         <v>36</v>
       </c>
-      <c r="E38" s="10" t="n">
+      <c r="E38" s="23" t="n">
         <v>81</v>
       </c>
-      <c r="F38" s="10" t="n">
+      <c r="F38" s="23" t="n">
         <v>394</v>
       </c>
-      <c r="G38" s="12" t="n">
+      <c r="G38" s="25" t="n">
         <v>96</v>
       </c>
-      <c r="H38" s="12" t="n">
+      <c r="H38" s="25" t="n">
         <v>1039</v>
       </c>
-      <c r="I38" s="12" t="n">
+      <c r="I38" s="25" t="n">
         <v>937</v>
       </c>
-      <c r="J38" s="12" t="n">
+      <c r="J38" s="25" t="n">
         <v>96</v>
       </c>
-      <c r="K38" s="12" t="n">
+      <c r="K38" s="25" t="n">
         <v>222</v>
       </c>
-      <c r="L38" s="12" t="n">
+      <c r="L38" s="25" t="n">
         <v>267</v>
       </c>
-      <c r="M38" s="12" t="n">
+      <c r="M38" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="N38" s="12" t="n">
+      <c r="N38" s="25" t="n">
         <v>631</v>
       </c>
-      <c r="O38" s="12" t="n">
+      <c r="O38" s="25" t="n">
         <v>937</v>
       </c>
-      <c r="P38" s="12" t="n">
+      <c r="P38" s="25" t="n">
         <v>1039</v>
       </c>
-      <c r="Q38" s="12" t="n">
+      <c r="Q38" s="25" t="n">
         <v>1152</v>
       </c>
-      <c r="R38" s="12" t="n">
+      <c r="R38" s="25" t="n">
         <v>1197</v>
       </c>
-      <c r="V38" s="12" t="n">
+      <c r="V38" s="25" t="n">
         <v>-24.38</v>
       </c>
-      <c r="W38" s="12" t="n">
+      <c r="W38" s="25" t="n">
         <v>27.23</v>
       </c>
     </row>
-    <row r="39" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="39" s="25" spans="1:26">
+      <c r="A39" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="10" t="n">
+      <c r="C39" s="23" t="n">
         <v>468</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="23" t="n">
         <v>38</v>
       </c>
-      <c r="E39" s="10" t="n">
+      <c r="E39" s="23" t="n">
         <v>72</v>
       </c>
-      <c r="F39" s="10" t="n">
+      <c r="F39" s="23" t="n">
         <v>397</v>
       </c>
-      <c r="G39" s="12" t="n">
+      <c r="G39" s="25" t="n">
         <v>96</v>
       </c>
-      <c r="H39" s="12" t="n">
+      <c r="H39" s="25" t="n">
         <v>1098</v>
       </c>
-      <c r="I39" s="12" t="n">
+      <c r="I39" s="25" t="n">
         <v>993</v>
       </c>
-      <c r="J39" s="12" t="n">
+      <c r="J39" s="25" t="n">
         <v>96</v>
       </c>
-      <c r="K39" s="12" t="n">
+      <c r="K39" s="25" t="n">
         <v>226</v>
       </c>
-      <c r="L39" s="12" t="n">
+      <c r="L39" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="M39" s="12" t="n">
+      <c r="M39" s="25" t="n">
         <v>585</v>
       </c>
-      <c r="N39" s="12" t="n">
+      <c r="N39" s="25" t="n">
         <v>656</v>
       </c>
-      <c r="O39" s="12" t="n">
+      <c r="O39" s="25" t="n">
         <v>993</v>
       </c>
-      <c r="P39" s="12" t="n">
+      <c r="P39" s="25" t="n">
         <v>1098</v>
       </c>
-      <c r="Q39" s="12" t="n">
+      <c r="Q39" s="25" t="n">
         <v>1207</v>
       </c>
-      <c r="R39" s="12" t="n">
+      <c r="R39" s="25" t="n">
         <v>1241</v>
       </c>
-      <c r="V39" s="12" t="n">
+      <c r="V39" s="25" t="n">
         <v>-19.48</v>
       </c>
-      <c r="W39" s="12" t="n">
+      <c r="W39" s="25" t="n">
         <v>37.09</v>
       </c>
     </row>
-    <row r="40" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="40" s="25" spans="1:26">
+      <c r="A40" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="10" t="n">
+      <c r="C40" s="23" t="n">
         <v>586</v>
       </c>
-      <c r="D40" s="10" t="n">
+      <c r="D40" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="E40" s="10" t="n">
+      <c r="E40" s="23" t="n">
         <v>158</v>
       </c>
-      <c r="F40" s="10" t="n">
+      <c r="F40" s="23" t="n">
         <v>440</v>
       </c>
-      <c r="G40" s="12" t="n">
+      <c r="G40" s="25" t="n">
         <v>115</v>
       </c>
-      <c r="H40" s="12" t="n">
+      <c r="H40" s="25" t="n">
         <v>1333</v>
       </c>
-      <c r="I40" s="12" t="n">
+      <c r="I40" s="25" t="n">
         <v>1228</v>
       </c>
-      <c r="J40" s="12" t="n">
+      <c r="J40" s="25" t="n">
         <v>115</v>
       </c>
-      <c r="K40" s="12" t="n">
+      <c r="K40" s="25" t="n">
         <v>271</v>
       </c>
-      <c r="L40" s="12" t="n">
+      <c r="L40" s="25" t="n">
         <v>389</v>
       </c>
-      <c r="M40" s="12" t="n">
+      <c r="M40" s="25" t="n">
         <v>671</v>
       </c>
-      <c r="N40" s="12" t="n">
+      <c r="N40" s="25" t="n">
         <v>817</v>
       </c>
-      <c r="O40" s="12" t="n">
+      <c r="O40" s="25" t="n">
         <v>1228</v>
       </c>
-      <c r="P40" s="12" t="n">
+      <c r="P40" s="25" t="n">
         <v>1333</v>
       </c>
-      <c r="Q40" s="12" t="n">
+      <c r="Q40" s="25" t="n">
         <v>1461</v>
       </c>
-      <c r="R40" s="12" t="n">
+      <c r="R40" s="25" t="n">
         <v>1579</v>
       </c>
-      <c r="V40" s="12" t="n">
+      <c r="V40" s="25" t="n">
         <v>-6.85</v>
       </c>
-      <c r="W40" s="12" t="n">
-        <v>72.1</v>
-      </c>
-    </row>
-    <row r="41" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
+      <c r="W40" s="25" t="n">
+        <v>72.09999999999999</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="41" s="25" spans="1:26">
+      <c r="A41" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="13" t="n">
+      <c r="C41" s="26" t="n">
         <v>374</v>
       </c>
-      <c r="D41" s="13" t="n">
+      <c r="D41" s="26" t="n">
         <v>104</v>
       </c>
-      <c r="E41" s="13" t="n">
+      <c r="E41" s="26" t="n">
         <v>67</v>
       </c>
-      <c r="F41" s="13" t="n">
+      <c r="F41" s="26" t="n">
         <v>281</v>
       </c>
-      <c r="G41" s="12" t="n">
+      <c r="G41" s="25" t="n">
         <v>43</v>
       </c>
-      <c r="H41" s="12" t="n">
+      <c r="H41" s="25" t="n">
         <v>582</v>
       </c>
-      <c r="I41" s="12" t="n">
+      <c r="I41" s="25" t="n">
         <v>468</v>
       </c>
-      <c r="J41" s="12" t="n">
+      <c r="J41" s="25" t="n">
         <v>43</v>
       </c>
-      <c r="K41" s="12" t="n">
+      <c r="K41" s="25" t="n">
         <v>213</v>
       </c>
-      <c r="L41" s="12" t="n">
+      <c r="L41" s="25" t="n">
         <v>176</v>
       </c>
-      <c r="M41" s="12" t="n">
+      <c r="M41" s="25" t="n">
         <v>390</v>
       </c>
-      <c r="N41" s="12" t="n">
+      <c r="N41" s="25" t="n">
         <v>483</v>
       </c>
-      <c r="O41" s="12" t="n">
+      <c r="O41" s="25" t="n">
         <v>468</v>
       </c>
-      <c r="P41" s="12" t="n">
+      <c r="P41" s="25" t="n">
         <v>582</v>
       </c>
-      <c r="Q41" s="12" t="n">
+      <c r="Q41" s="25" t="n">
         <v>834</v>
       </c>
-      <c r="R41" s="12" t="n">
+      <c r="R41" s="25" t="n">
         <v>797</v>
       </c>
-      <c r="V41" s="12" t="n">
+      <c r="V41" s="25" t="n">
         <v>-3.98</v>
       </c>
-      <c r="W41" s="12" t="n">
+      <c r="W41" s="25" t="n">
         <v>44.35</v>
       </c>
     </row>
-    <row r="42" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="42" s="25" spans="1:26">
+      <c r="A42" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="13" t="n">
+      <c r="C42" s="26" t="n">
         <v>334</v>
       </c>
-      <c r="D42" s="13" t="n">
+      <c r="D42" s="26" t="n">
         <v>46</v>
       </c>
-      <c r="E42" s="13" t="n">
+      <c r="E42" s="26" t="n">
         <v>63</v>
       </c>
-      <c r="F42" s="13" t="n">
+      <c r="F42" s="26" t="n">
         <v>312</v>
       </c>
-      <c r="G42" s="12" t="n">
+      <c r="G42" s="25" t="n">
         <v>40</v>
       </c>
-      <c r="H42" s="12" t="n">
+      <c r="H42" s="25" t="n">
         <v>631</v>
       </c>
-      <c r="I42" s="12" t="n">
+      <c r="I42" s="25" t="n">
         <v>535</v>
       </c>
-      <c r="J42" s="12" t="n">
+      <c r="J42" s="25" t="n">
         <v>40</v>
       </c>
-      <c r="K42" s="12" t="n">
+      <c r="K42" s="25" t="n">
         <v>163</v>
       </c>
-      <c r="L42" s="12" t="n">
+      <c r="L42" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="M42" s="12" t="n">
+      <c r="M42" s="25" t="n">
         <v>429</v>
       </c>
-      <c r="N42" s="12" t="n">
+      <c r="N42" s="25" t="n">
         <v>451</v>
       </c>
-      <c r="O42" s="12" t="n">
+      <c r="O42" s="25" t="n">
         <v>535</v>
       </c>
-      <c r="P42" s="12" t="n">
+      <c r="P42" s="25" t="n">
         <v>631</v>
       </c>
-      <c r="Q42" s="12" t="n">
+      <c r="Q42" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="R42" s="12" t="n">
+      <c r="R42" s="25" t="n">
         <v>767</v>
       </c>
-      <c r="V42" s="12" t="n">
+      <c r="V42" s="25" t="n">
         <v>-5.17</v>
       </c>
-      <c r="W42" s="12" t="n">
+      <c r="W42" s="25" t="n">
         <v>104.96</v>
       </c>
     </row>
-    <row r="43" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="43" s="25" spans="1:26">
+      <c r="A43" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="12" t="n">
+      <c r="C43" s="25" t="n">
         <v>540</v>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="25" t="n">
         <v>19</v>
       </c>
-      <c r="E43" s="12" t="n">
+      <c r="E43" s="25" t="n">
         <v>117</v>
       </c>
-      <c r="F43" s="12" t="n">
+      <c r="F43" s="25" t="n">
         <v>384</v>
       </c>
-      <c r="G43" s="12" t="n">
+      <c r="G43" s="25" t="n">
         <v>119</v>
       </c>
-      <c r="H43" s="12" t="n">
+      <c r="H43" s="25" t="n">
         <v>1334</v>
       </c>
-      <c r="I43" s="12" t="n">
+      <c r="I43" s="25" t="n">
         <v>1195</v>
       </c>
-      <c r="J43" s="12" t="n">
+      <c r="J43" s="25" t="n">
         <v>119</v>
       </c>
-      <c r="K43" s="12" t="n">
+      <c r="K43" s="25" t="n">
         <v>247</v>
       </c>
-      <c r="L43" s="12" t="n">
+      <c r="L43" s="25" t="n">
         <v>345</v>
       </c>
-      <c r="M43" s="12" t="n">
+      <c r="M43" s="25" t="n">
         <v>612</v>
       </c>
-      <c r="N43" s="12" t="n">
+      <c r="N43" s="25" t="n">
         <v>768</v>
       </c>
-      <c r="O43" s="12" t="n">
+      <c r="O43" s="25" t="n">
         <v>1195</v>
       </c>
-      <c r="P43" s="12" t="n">
+      <c r="P43" s="25" t="n">
         <v>1334</v>
       </c>
-      <c r="Q43" s="12" t="n">
+      <c r="Q43" s="25" t="n">
         <v>1458</v>
       </c>
-      <c r="R43" s="12" t="n">
+      <c r="R43" s="25" t="n">
         <v>1556</v>
       </c>
-      <c r="V43" s="12" t="n">
+      <c r="V43" s="25" t="n">
         <v>-4.39</v>
       </c>
-      <c r="W43" s="12" t="n">
+      <c r="W43" s="25" t="n">
         <v>95.69</v>
       </c>
     </row>
-    <row r="44" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="44" s="25" spans="1:26">
+      <c r="A44" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="13" t="n">
+      <c r="C44" s="26" t="n">
         <v>467</v>
       </c>
-      <c r="D44" s="13" t="n">
+      <c r="D44" s="26" t="n">
         <v>43</v>
       </c>
-      <c r="E44" s="13" t="n">
+      <c r="E44" s="26" t="n">
         <v>172</v>
       </c>
-      <c r="F44" s="13" t="n">
+      <c r="F44" s="26" t="n">
         <v>402</v>
       </c>
-      <c r="G44" s="12" t="n">
+      <c r="G44" s="25" t="n">
         <v>49</v>
       </c>
-      <c r="H44" s="12" t="n">
+      <c r="H44" s="25" t="n">
         <v>876</v>
       </c>
-      <c r="I44" s="12" t="n">
+      <c r="I44" s="25" t="n">
         <v>751</v>
       </c>
-      <c r="J44" s="12" t="n">
+      <c r="J44" s="25" t="n">
         <v>49</v>
       </c>
-      <c r="K44" s="12" t="n">
+      <c r="K44" s="25" t="n">
         <v>196</v>
       </c>
-      <c r="L44" s="12" t="n">
+      <c r="L44" s="25" t="n">
         <v>325</v>
       </c>
-      <c r="M44" s="12" t="n">
+      <c r="M44" s="25" t="n">
         <v>555</v>
       </c>
-      <c r="N44" s="12" t="n">
+      <c r="N44" s="25" t="n">
         <v>620</v>
       </c>
-      <c r="O44" s="12" t="n">
+      <c r="O44" s="25" t="n">
         <v>751</v>
       </c>
-      <c r="P44" s="12" t="n">
+      <c r="P44" s="25" t="n">
         <v>876</v>
       </c>
-      <c r="Q44" s="12" t="n">
+      <c r="Q44" s="25" t="n">
         <v>998</v>
       </c>
-      <c r="R44" s="12" t="n">
+      <c r="R44" s="25" t="n">
         <v>1127</v>
       </c>
-      <c r="V44" s="12" t="n">
+      <c r="V44" s="25" t="n">
         <v>-10.09</v>
       </c>
-      <c r="W44" s="12" t="n">
+      <c r="W44" s="25" t="n">
         <v>54.13</v>
       </c>
     </row>
-    <row r="45" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="45" s="25" spans="1:26">
+      <c r="A45" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="13" t="n">
+      <c r="C45" s="26" t="n">
         <v>635</v>
       </c>
-      <c r="D45" s="13" t="n">
+      <c r="D45" s="26" t="n">
         <v>28</v>
       </c>
-      <c r="E45" s="13" t="n">
+      <c r="E45" s="26" t="n">
         <v>186</v>
       </c>
-      <c r="F45" s="13" t="n">
+      <c r="F45" s="26" t="n">
         <v>436</v>
       </c>
-      <c r="G45" s="12" t="n">
+      <c r="G45" s="25" t="n">
         <v>63</v>
       </c>
-      <c r="H45" s="12" t="n">
+      <c r="H45" s="25" t="n">
         <v>1086</v>
       </c>
-      <c r="I45" s="12" t="n">
+      <c r="I45" s="25" t="n">
         <v>983</v>
       </c>
-      <c r="J45" s="12" t="n">
+      <c r="J45" s="25" t="n">
         <v>63</v>
       </c>
-      <c r="K45" s="12" t="n">
+      <c r="K45" s="25" t="n">
         <v>219</v>
       </c>
-      <c r="L45" s="12" t="n">
+      <c r="L45" s="25" t="n">
         <v>377</v>
       </c>
-      <c r="M45" s="12" t="n">
+      <c r="M45" s="25" t="n">
         <v>627</v>
       </c>
-      <c r="N45" s="12" t="n">
+      <c r="N45" s="25" t="n">
         <v>826</v>
       </c>
-      <c r="O45" s="12" t="n">
+      <c r="O45" s="25" t="n">
         <v>983</v>
       </c>
-      <c r="P45" s="12" t="n">
+      <c r="P45" s="25" t="n">
         <v>1086</v>
       </c>
-      <c r="Q45" s="12" t="n">
+      <c r="Q45" s="25" t="n">
         <v>1232</v>
       </c>
-      <c r="R45" s="12" t="n">
+      <c r="R45" s="25" t="n">
         <v>1390</v>
       </c>
-      <c r="V45" s="12" t="n">
+      <c r="V45" s="25" t="n">
         <v>-11.41</v>
       </c>
-      <c r="W45" s="12" t="n">
+      <c r="W45" s="25" t="n">
         <v>91.89</v>
       </c>
     </row>
-    <row r="46" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="46" s="25" spans="1:26">
+      <c r="A46" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="13" t="n">
+      <c r="C46" s="26" t="n">
         <v>527</v>
       </c>
-      <c r="D46" s="13" t="n">
+      <c r="D46" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="E46" s="13" t="n">
+      <c r="E46" s="26" t="n">
         <v>166</v>
       </c>
-      <c r="F46" s="13" t="n">
+      <c r="F46" s="26" t="n">
         <v>406</v>
       </c>
-      <c r="G46" s="12" t="n">
+      <c r="G46" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="H46" s="12" t="n">
+      <c r="H46" s="25" t="n">
         <v>938</v>
       </c>
-      <c r="I46" s="12" t="n">
+      <c r="I46" s="25" t="n">
         <v>818</v>
       </c>
-      <c r="J46" s="12" t="n">
+      <c r="J46" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="K46" s="12" t="n">
+      <c r="K46" s="25" t="n">
         <v>186</v>
       </c>
-      <c r="L46" s="12" t="n">
+      <c r="L46" s="25" t="n">
         <v>334</v>
       </c>
-      <c r="M46" s="12" t="n">
+      <c r="M46" s="25" t="n">
         <v>574</v>
       </c>
-      <c r="N46" s="12" t="n">
+      <c r="N46" s="25" t="n">
         <v>695</v>
       </c>
-      <c r="O46" s="12" t="n">
+      <c r="O46" s="25" t="n">
         <v>818</v>
       </c>
-      <c r="P46" s="12" t="n">
+      <c r="P46" s="25" t="n">
         <v>938</v>
       </c>
-      <c r="Q46" s="12" t="n">
+      <c r="Q46" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="R46" s="12" t="n">
+      <c r="R46" s="25" t="n">
         <v>1218</v>
       </c>
-      <c r="V46" s="12" t="n">
+      <c r="V46" s="25" t="n">
         <v>-10.47</v>
       </c>
-      <c r="W46" s="12" t="n">
+      <c r="W46" s="25" t="n">
         <v>74.62</v>
       </c>
     </row>
-    <row r="47" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="47" s="25" spans="1:26">
+      <c r="A47" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="13" t="n">
+      <c r="C47" s="26" t="n">
         <v>446</v>
       </c>
-      <c r="D47" s="13" t="n">
+      <c r="D47" s="26" t="n">
         <v>25</v>
       </c>
-      <c r="E47" s="13" t="n">
+      <c r="E47" s="26" t="n">
         <v>57</v>
       </c>
-      <c r="F47" s="13" t="n">
+      <c r="F47" s="26" t="n">
         <v>342</v>
       </c>
-      <c r="G47" s="12" t="n">
+      <c r="G47" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="H47" s="12" t="n">
+      <c r="H47" s="25" t="n">
         <v>652</v>
       </c>
-      <c r="I47" s="12" t="n">
+      <c r="I47" s="25" t="n">
         <v>557</v>
       </c>
-      <c r="J47" s="12" t="n">
+      <c r="J47" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="K47" s="12" t="n">
+      <c r="K47" s="25" t="n">
         <v>143</v>
       </c>
-      <c r="L47" s="12" t="n">
+      <c r="L47" s="25" t="n">
         <v>175</v>
       </c>
-      <c r="M47" s="12" t="n">
+      <c r="M47" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="N47" s="12" t="n">
+      <c r="N47" s="25" t="n">
         <v>564</v>
       </c>
-      <c r="O47" s="12" t="n">
+      <c r="O47" s="25" t="n">
         <v>557</v>
       </c>
-      <c r="P47" s="12" t="n">
+      <c r="P47" s="25" t="n">
         <v>652</v>
       </c>
-      <c r="Q47" s="12" t="n">
+      <c r="Q47" s="25" t="n">
         <v>769</v>
       </c>
-      <c r="R47" s="12" t="n">
+      <c r="R47" s="25" t="n">
         <v>801</v>
       </c>
-      <c r="V47" s="12" t="n">
+      <c r="V47" s="25" t="n">
         <v>-11.03</v>
       </c>
-      <c r="W47" s="12" t="n">
+      <c r="W47" s="25" t="n">
         <v>58.09</v>
       </c>
     </row>
-    <row r="48" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="48" s="25" spans="1:26">
+      <c r="A48" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="13" t="n">
+      <c r="C48" s="26" t="n">
         <v>396</v>
       </c>
-      <c r="D48" s="13" t="n">
+      <c r="D48" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="E48" s="13" t="n">
+      <c r="E48" s="26" t="n">
         <v>177</v>
       </c>
-      <c r="F48" s="13" t="n">
+      <c r="F48" s="26" t="n">
         <v>333</v>
       </c>
-      <c r="G48" s="12" t="n">
+      <c r="G48" s="25" t="n">
         <v>74</v>
       </c>
-      <c r="H48" s="12" t="n">
+      <c r="H48" s="25" t="n">
         <v>955</v>
       </c>
-      <c r="I48" s="12" t="n">
+      <c r="I48" s="25" t="n">
         <v>854</v>
       </c>
-      <c r="J48" s="12" t="n">
+      <c r="J48" s="25" t="n">
         <v>74</v>
       </c>
-      <c r="K48" s="12" t="n">
+      <c r="K48" s="25" t="n">
         <v>220</v>
       </c>
-      <c r="L48" s="12" t="n">
+      <c r="L48" s="25" t="n">
         <v>341</v>
       </c>
-      <c r="M48" s="12" t="n">
+      <c r="M48" s="25" t="n">
         <v>497</v>
       </c>
-      <c r="N48" s="12" t="n">
+      <c r="N48" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="O48" s="12" t="n">
+      <c r="O48" s="25" t="n">
         <v>854</v>
       </c>
-      <c r="P48" s="12" t="n">
+      <c r="P48" s="25" t="n">
         <v>955</v>
       </c>
-      <c r="Q48" s="12" t="n">
+      <c r="Q48" s="25" t="n">
         <v>1078</v>
       </c>
-      <c r="R48" s="12" t="n">
+      <c r="R48" s="25" t="n">
         <v>1199</v>
       </c>
-      <c r="V48" s="12" t="n">
+      <c r="V48" s="25" t="n">
         <v>-3.49</v>
       </c>
-      <c r="W48" s="12" t="n">
-        <v>98.51</v>
-      </c>
-    </row>
-    <row r="49" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
+      <c r="W48" s="25" t="n">
+        <v>98.51000000000001</v>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15" r="49" s="25" spans="1:26">
+      <c r="A49" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="10" t="n">
+      <c r="C49" s="23" t="n">
         <v>498</v>
       </c>
-      <c r="D49" s="10" t="n">
+      <c r="D49" s="23" t="n">
         <v>23</v>
       </c>
-      <c r="E49" s="10" t="n">
+      <c r="E49" s="23" t="n">
         <v>67</v>
       </c>
-      <c r="F49" s="10" t="n">
+      <c r="F49" s="23" t="n">
         <v>369</v>
       </c>
-      <c r="G49" s="12" t="n">
+      <c r="G49" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="H49" s="12" t="n">
+      <c r="H49" s="25" t="n">
         <v>1208</v>
       </c>
-      <c r="I49" s="12" t="n">
+      <c r="I49" s="25" t="n">
         <v>1102</v>
       </c>
-      <c r="J49" s="12" t="n">
+      <c r="J49" s="25" t="n">
         <v>140</v>
       </c>
-      <c r="K49" s="12" t="n">
+      <c r="K49" s="25" t="n">
         <v>227</v>
       </c>
-      <c r="L49" s="12" t="n">
+      <c r="L49" s="25" t="n">
         <v>271</v>
       </c>
-      <c r="M49" s="12" t="n">
+      <c r="M49" s="25" t="n">
         <v>573</v>
       </c>
-      <c r="N49" s="12" t="n">
+      <c r="N49" s="25" t="n">
         <v>702</v>
       </c>
-      <c r="O49" s="12" t="n">
+      <c r="O49" s="25" t="n">
         <v>1102</v>
       </c>
-      <c r="P49" s="12" t="n">
+      <c r="P49" s="25" t="n">
         <v>1208</v>
       </c>
-      <c r="Q49" s="12" t="n">
+      <c r="Q49" s="25" t="n">
         <v>1267</v>
       </c>
-      <c r="R49" s="12" t="n">
+      <c r="R49" s="25" t="n">
         <v>1311</v>
       </c>
-      <c r="V49" s="12" t="n">
+      <c r="V49" s="25" t="n">
         <v>-8.52</v>
       </c>
-      <c r="W49" s="12" t="n">
+      <c r="W49" s="25" t="n">
         <v>122.12</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="15" r="50" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="51" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="52" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="53" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="54" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="55" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="56" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="57" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="58" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="59" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="60" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="61" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="62" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="63" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="64" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="65" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="66" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="67" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="68" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="69" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="70" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="71" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="72" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="73" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="74" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="75" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="76" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="77" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="78" s="15" spans="1:26"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="V1:W1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -2163,10 +2163,10 @@
         <v>100</v>
       </c>
       <c r="H24" s="25" t="n">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="I24" s="25" t="n">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="J24" s="23" t="n">
         <v>100</v>
@@ -2184,10 +2184,10 @@
         <v>599</v>
       </c>
       <c r="O24" s="25" t="n">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="P24" s="25" t="n">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="Q24" s="25" t="n">
         <v>2037</v>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -897,40 +897,40 @@
         <v>382</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="H4" s="21" t="n">
-        <v>1244</v>
+        <v>1151</v>
       </c>
       <c r="I4" s="21" t="n">
-        <v>1162</v>
+        <v>1019</v>
       </c>
       <c r="J4" s="23" t="n">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="K4" s="23" t="n">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="L4" s="21" t="n">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>1162</v>
+        <v>1019</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>1244</v>
+        <v>1151</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>1352</v>
+        <v>1265</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>1400</v>
+        <v>1313</v>
       </c>
       <c r="S4" s="23" t="n">
         <v>358</v>
@@ -942,10 +942,10 @@
         <v>0.456632653061225</v>
       </c>
       <c r="V4" s="25" t="n">
-        <v>-16.89</v>
+        <v>-16.81</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>30.64</v>
+        <v>99.58</v>
       </c>
       <c r="X4" s="16" t="n"/>
       <c r="Y4" s="16" t="n"/>
@@ -1782,16 +1782,16 @@
         <v>384</v>
       </c>
       <c r="G18" s="25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18" s="25" t="n">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="I18" s="25" t="n">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="J18" s="23" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>1070</v>
@@ -1806,10 +1806,10 @@
         <v>658</v>
       </c>
       <c r="O18" s="25" t="n">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="P18" s="25" t="n">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="Q18" s="25" t="n">
         <v>1958</v>
@@ -1908,16 +1908,16 @@
         <v>385</v>
       </c>
       <c r="G20" s="25" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H20" s="25" t="n">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="I20" s="25" t="n">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="J20" s="23" t="n">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K20" s="23" t="n">
         <v>226</v>
@@ -1932,10 +1932,10 @@
         <v>728</v>
       </c>
       <c r="O20" s="25" t="n">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="P20" s="25" t="n">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="Q20" s="25" t="n">
         <v>1333</v>
@@ -2160,16 +2160,16 @@
         <v>354</v>
       </c>
       <c r="G24" s="25" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="H24" s="25" t="n">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="I24" s="25" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="J24" s="23" t="n">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="K24" s="23" t="n">
         <v>996</v>
@@ -2184,10 +2184,10 @@
         <v>599</v>
       </c>
       <c r="O24" s="25" t="n">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="P24" s="25" t="n">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="Q24" s="25" t="n">
         <v>2037</v>
@@ -2861,46 +2861,46 @@
         <v>348</v>
       </c>
       <c r="G36" s="25" t="n">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="H36" s="25" t="n">
-        <v>1129</v>
+        <v>1476</v>
       </c>
       <c r="I36" s="25" t="n">
-        <v>1020</v>
+        <v>1388</v>
       </c>
       <c r="J36" s="25" t="n">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="K36" s="25" t="n">
-        <v>206</v>
+        <v>259</v>
       </c>
       <c r="L36" s="25" t="n">
-        <v>283</v>
+        <v>336</v>
       </c>
       <c r="M36" s="25" t="n">
-        <v>547</v>
+        <v>600</v>
       </c>
       <c r="N36" s="25" t="n">
-        <v>621</v>
+        <v>674</v>
       </c>
       <c r="O36" s="25" t="n">
-        <v>1020</v>
+        <v>1388</v>
       </c>
       <c r="P36" s="25" t="n">
-        <v>1129</v>
+        <v>1476</v>
       </c>
       <c r="Q36" s="25" t="n">
-        <v>1216</v>
+        <v>1561</v>
       </c>
       <c r="R36" s="25" t="n">
-        <v>1293</v>
+        <v>1638</v>
       </c>
       <c r="V36" s="25" t="n">
-        <v>-19.65</v>
+        <v>-23.03</v>
       </c>
       <c r="W36" s="25" t="n">
-        <v>25.63</v>
+        <v>38.71</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="15" r="37" s="25" spans="1:26">
@@ -3392,16 +3392,16 @@
         <v>436</v>
       </c>
       <c r="G45" s="25" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="H45" s="25" t="n">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="I45" s="25" t="n">
         <v>983</v>
       </c>
       <c r="J45" s="25" t="n">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="K45" s="25" t="n">
         <v>219</v>
@@ -3419,7 +3419,7 @@
         <v>983</v>
       </c>
       <c r="P45" s="25" t="n">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="Q45" s="25" t="n">
         <v>1232</v>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -897,16 +897,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H4" s="21" t="n">
-        <v>1151</v>
+        <v>1164</v>
       </c>
       <c r="I4" s="21" t="n">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="J4" s="23" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K4" s="23" t="n">
         <v>224</v>
@@ -921,10 +921,10 @@
         <v>653</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>1151</v>
+        <v>1164</v>
       </c>
       <c r="Q4" s="21" t="n">
         <v>1265</v>
@@ -945,7 +945,7 @@
         <v>-16.81</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>99.58</v>
+        <v>57.66</v>
       </c>
       <c r="X4" s="16" t="n"/>
       <c r="Y4" s="16" t="n"/>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -897,16 +897,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H4" s="21" t="n">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="I4" s="21" t="n">
-        <v>1025</v>
+        <v>1040</v>
       </c>
       <c r="J4" s="23" t="n">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K4" s="23" t="n">
         <v>224</v>
@@ -921,10 +921,10 @@
         <v>653</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>1025</v>
+        <v>1040</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="Q4" s="21" t="n">
         <v>1265</v>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -897,40 +897,40 @@
         <v>382</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H4" s="21" t="n">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="I4" s="21" t="n">
-        <v>1040</v>
+        <v>1015</v>
       </c>
       <c r="J4" s="23" t="n">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K4" s="23" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L4" s="21" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>1040</v>
+        <v>1015</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>1265</v>
+        <v>1246</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>1313</v>
+        <v>1294</v>
       </c>
       <c r="S4" s="23" t="n">
         <v>358</v>
@@ -942,10 +942,10 @@
         <v>0.456632653061225</v>
       </c>
       <c r="V4" s="25" t="n">
-        <v>-16.81</v>
+        <v>-17.88</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>57.66</v>
+        <v>32.25</v>
       </c>
       <c r="X4" s="16" t="n"/>
       <c r="Y4" s="16" t="n"/>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -1,49 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
-  <si>
-    <t xml:space="preserve">Pontos marcados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parâmetros calculados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IdPatient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVO(ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MVC(ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVO(ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVC(ms)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+  <si>
+    <t>Pontos marcados</t>
+  </si>
+  <si>
+    <t>Parâmetros calculados</t>
+  </si>
+  <si>
+    <t>IdPatient</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MVO(ms)</t>
+  </si>
+  <si>
+    <t>MVC(ms)</t>
+  </si>
+  <si>
+    <t>AVO(ms)</t>
+  </si>
+  <si>
+    <t>AVC(ms)</t>
   </si>
   <si>
     <t xml:space="preserve"> Onset QRS 1(ms)</t>
@@ -52,268 +47,266 @@
     <t xml:space="preserve"> Onset P(ms)</t>
   </si>
   <si>
-    <t xml:space="preserve">Onset QRS 2(ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ejection Time 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ejection Time 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systolic Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diastolic Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SystolicTime/
+    <t>Onset QRS 2(ms)</t>
+  </si>
+  <si>
+    <t>EMC1</t>
+  </si>
+  <si>
+    <t>IVC1</t>
+  </si>
+  <si>
+    <t>Ejection Time 1</t>
+  </si>
+  <si>
+    <t>IVR</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>EMC2</t>
+  </si>
+  <si>
+    <t>IVC2</t>
+  </si>
+  <si>
+    <t>Ejection Time 2</t>
+  </si>
+  <si>
+    <t>Systolic Time</t>
+  </si>
+  <si>
+    <t>Diastolic Time</t>
+  </si>
+  <si>
+    <t>SystolicTime/
 DiastolicTime</t>
   </si>
   <si>
-    <t xml:space="preserve">GLS(%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD(ms)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aristoteles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adilson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yamaguchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teste1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MariaPastora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosemeire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoaoBartolomeu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MariaValentim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MariaBento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FatimaAparecida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarliRosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FabricioLucena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neusa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adauto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JoseSilva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diogenes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MariaSilva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarcoAntonio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marlene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valdir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PedroFernandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MariaNogueira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roseli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio_Vesceslau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirceu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dirceujr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flavio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antoniobezerra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andersongabriel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabiorodrigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gedirvaldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marialuiza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariarosa</t>
+    <t>GLS(%)</t>
+  </si>
+  <si>
+    <t>MD(ms)</t>
+  </si>
+  <si>
+    <t>Aristoteles</t>
+  </si>
+  <si>
+    <t>Adilson</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Yamaguchi</t>
+  </si>
+  <si>
+    <t>Teste1</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>MariaPastora</t>
+  </si>
+  <si>
+    <t>Rosemeire</t>
+  </si>
+  <si>
+    <t>JoaoBartolomeu</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Alexandre</t>
+  </si>
+  <si>
+    <t>MariaValentim</t>
+  </si>
+  <si>
+    <t>MariaBento</t>
+  </si>
+  <si>
+    <t>FatimaAparecida</t>
+  </si>
+  <si>
+    <t>MarliRosa</t>
+  </si>
+  <si>
+    <t>FabricioLucena</t>
+  </si>
+  <si>
+    <t>Neusa</t>
+  </si>
+  <si>
+    <t>Eliene</t>
+  </si>
+  <si>
+    <t>Adauto</t>
+  </si>
+  <si>
+    <t>JoseSilva</t>
+  </si>
+  <si>
+    <t>Diogenes</t>
+  </si>
+  <si>
+    <t>MariaSilva</t>
+  </si>
+  <si>
+    <t>MarcoAntonio</t>
+  </si>
+  <si>
+    <t>Marlene</t>
+  </si>
+  <si>
+    <t>Valdir</t>
+  </si>
+  <si>
+    <t>PedroFernandes</t>
+  </si>
+  <si>
+    <t>MariaNogueira</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Roseli</t>
+  </si>
+  <si>
+    <t>Antonio_Vesceslau</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Dirceu</t>
+  </si>
+  <si>
+    <t>Dirceujr</t>
+  </si>
+  <si>
+    <t>Flavio</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Antoniobezerra</t>
+  </si>
+  <si>
+    <t>Andersongabriel</t>
+  </si>
+  <si>
+    <t>Fabiorodrigo</t>
+  </si>
+  <si>
+    <t>Gedirvaldo</t>
+  </si>
+  <si>
+    <t>Marialuiza</t>
+  </si>
+  <si>
+    <t>Mariarosa</t>
   </si>
   <si>
     <t xml:space="preserve">Nilton </t>
   </si>
   <si>
-    <t xml:space="preserve">Osvaldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reginaldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alessandra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andersonfrancisco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MariaHelena</t>
+    <t>Osvaldo</t>
+  </si>
+  <si>
+    <t>Reginaldo</t>
+  </si>
+  <si>
+    <t>Abel</t>
+  </si>
+  <si>
+    <t>Alessandra</t>
+  </si>
+  <si>
+    <t>Andersonfrancisco</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>MariaHelena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="9">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
-      <charset val="1"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="0"/>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -332,7 +325,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -340,3603 +333,3838 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="27">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="5" name="Percent" xfId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFEBF1DE"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:Z54"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T14" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V50" activeCellId="0" sqref="V50:W53"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="T14" view="normal" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
+      <selection activeCell="V50" activeCellId="0" pane="topLeft" sqref="V50:W53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="27.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="24.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="22.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="24.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="22.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="33.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="23.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="22.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="1" width="9.85"/>
+    <col customWidth="1" max="1" min="1" style="14" width="28.21"/>
+    <col customWidth="1" max="2" min="2" style="14" width="44.89"/>
+    <col customWidth="1" max="3" min="3" style="14" width="17.1"/>
+    <col customWidth="1" max="4" min="4" style="14" width="15.61"/>
+    <col customWidth="1" max="5" min="5" style="14" width="15.39"/>
+    <col customWidth="1" max="6" min="6" style="14" width="17.1"/>
+    <col customWidth="1" max="7" min="7" style="14" width="27.78"/>
+    <col customWidth="1" max="8" min="8" style="14" width="22.01"/>
+    <col customWidth="1" max="9" min="9" style="14" width="26.51"/>
+    <col customWidth="1" max="10" min="10" style="14" width="27.36"/>
+    <col customWidth="1" max="11" min="11" style="14" width="24.36"/>
+    <col customWidth="1" max="12" min="12" style="14" width="24.41"/>
+    <col customWidth="1" max="13" min="13" style="14" width="13.09"/>
+    <col customWidth="1" max="14" min="14" style="14" width="22.95"/>
+    <col customWidth="1" max="15" min="15" style="14" width="17.28"/>
+    <col customWidth="1" max="16" min="16" style="14" width="14.58"/>
+    <col customWidth="1" max="17" min="17" style="14" width="15.53"/>
+    <col customWidth="1" max="18" min="18" style="14" width="24.49"/>
+    <col customWidth="1" max="19" min="19" style="14" width="22.23"/>
+    <col customWidth="1" max="20" min="20" style="14" width="22.96"/>
+    <col customWidth="1" max="21" min="21" style="14" width="33.34"/>
+    <col customWidth="1" max="22" min="22" style="14" width="23.49"/>
+    <col customWidth="1" max="23" min="23" style="14" width="13.37"/>
+    <col customWidth="1" max="24" min="24" style="14" width="22.39"/>
+    <col customWidth="1" max="1025" min="25" style="14" width="9.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+    <row customHeight="1" ht="12.8" r="1" s="15" spans="1:26">
+      <c r="A1" s="16" t="n"/>
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="16" t="n"/>
+      <c r="D1" s="16" t="n"/>
+      <c r="E1" s="16" t="n"/>
+      <c r="F1" s="16" t="n"/>
+      <c r="G1" s="17" t="n"/>
+      <c r="H1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="5" t="s">
+      <c r="I1" s="17" t="n"/>
+      <c r="J1" s="18" t="n"/>
+      <c r="K1" s="18" t="n"/>
+      <c r="L1" s="16" t="n"/>
+      <c r="M1" s="16" t="n"/>
+      <c r="N1" s="16" t="n"/>
+      <c r="O1" s="16" t="n"/>
+      <c r="P1" s="16" t="n"/>
+      <c r="Q1" s="16" t="n"/>
+      <c r="R1" s="16" t="n"/>
+      <c r="S1" s="18" t="n"/>
+      <c r="T1" s="18" t="n"/>
+      <c r="U1" s="16" t="n"/>
+      <c r="V1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="X1" s="16" t="n"/>
+      <c r="Y1" s="16" t="n"/>
+      <c r="Z1" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="45" r="2" s="15" spans="1:26">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="T2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="V2" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="X2" s="16" t="n"/>
+      <c r="Y2" s="16" t="n"/>
+      <c r="Z2" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="3" s="15" spans="1:26">
+      <c r="A3" s="21" t="n"/>
+      <c r="B3" s="21" t="n"/>
+      <c r="C3" s="21" t="n"/>
+      <c r="D3" s="21" t="n"/>
+      <c r="E3" s="21" t="n"/>
+      <c r="F3" s="21" t="n"/>
+      <c r="G3" s="21" t="n"/>
+      <c r="H3" s="21" t="n"/>
+      <c r="I3" s="21" t="n"/>
+      <c r="J3" s="18" t="n"/>
+      <c r="K3" s="18" t="n"/>
+      <c r="L3" s="21" t="n"/>
+      <c r="M3" s="21" t="n"/>
+      <c r="N3" s="21" t="n"/>
+      <c r="O3" s="21" t="n"/>
+      <c r="P3" s="21" t="n"/>
+      <c r="Q3" s="21" t="n"/>
+      <c r="R3" s="21" t="n"/>
+      <c r="S3" s="18" t="n"/>
+      <c r="T3" s="18" t="n"/>
+      <c r="U3" s="16" t="n"/>
+      <c r="V3" s="22" t="n"/>
+      <c r="W3" s="22" t="n"/>
+      <c r="X3" s="16" t="n"/>
+      <c r="Y3" s="16" t="n"/>
+      <c r="Z3" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="4" s="15" spans="1:26">
+      <c r="A4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="n">
+      <c r="B4" s="21" t="n"/>
+      <c r="C4" s="21" t="n">
         <v>453</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="21" t="n">
         <v>24</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="21" t="n">
         <v>72</v>
       </c>
-      <c r="F4" s="8" t="n">
+      <c r="F4" s="21" t="n">
         <v>382</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="21" t="n">
         <v>110</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="21" t="n">
         <v>1142</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="21" t="n">
         <v>1020</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="23" t="n">
         <v>110</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="23" t="n">
         <v>223</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="21" t="n">
         <v>271</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="M4" s="21" t="n">
         <v>581</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="21" t="n">
         <v>652</v>
       </c>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="21" t="n">
         <v>1020</v>
       </c>
-      <c r="P4" s="8" t="n">
+      <c r="P4" s="21" t="n">
         <v>1142</v>
       </c>
-      <c r="Q4" s="8" t="n">
+      <c r="Q4" s="21" t="n">
         <v>1246</v>
       </c>
-      <c r="R4" s="8" t="n">
+      <c r="R4" s="21" t="n">
         <v>1294</v>
       </c>
-      <c r="S4" s="10" t="n">
+      <c r="S4" s="23" t="n">
         <v>358</v>
       </c>
-      <c r="T4" s="10" t="n">
+      <c r="T4" s="23" t="n">
         <v>784</v>
       </c>
-      <c r="U4" s="11" t="n">
+      <c r="U4" s="24" t="n">
         <v>0.456632653061225</v>
       </c>
-      <c r="V4" s="12" t="n">
+      <c r="V4" s="25" t="n">
         <v>-17.88</v>
       </c>
-      <c r="W4" s="12" t="n">
+      <c r="W4" s="25" t="n">
         <v>36.57</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="Y4" s="16" t="n"/>
+      <c r="Z4" s="16" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="15" spans="1:26">
+      <c r="A5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="n">
+      <c r="B5" s="21" t="n"/>
+      <c r="C5" s="21" t="n">
         <v>609</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="21" t="n">
         <v>50</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="21" t="n">
         <v>126</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="21" t="n">
         <v>428</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="21" t="n">
         <v>95</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="21" t="n">
         <v>1069</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="21" t="n">
         <v>966</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="23" t="n">
         <v>95</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="23" t="n">
         <v>236</v>
       </c>
-      <c r="L5" s="12" t="n">
+      <c r="L5" s="25" t="n">
         <v>312</v>
       </c>
-      <c r="M5" s="12" t="n">
+      <c r="M5" s="25" t="n">
         <v>614</v>
       </c>
-      <c r="N5" s="12" t="n">
+      <c r="N5" s="25" t="n">
         <v>795</v>
       </c>
-      <c r="O5" s="12" t="n">
+      <c r="O5" s="25" t="n">
         <v>966</v>
       </c>
-      <c r="P5" s="12" t="n">
+      <c r="P5" s="25" t="n">
         <v>1069</v>
       </c>
-      <c r="Q5" s="12" t="n">
+      <c r="Q5" s="25" t="n">
         <v>1183</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="R5" s="25" t="n">
         <v>1259</v>
       </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12" t="n">
+      <c r="S5" s="23" t="n"/>
+      <c r="T5" s="23" t="n"/>
+      <c r="U5" s="25" t="n"/>
+      <c r="V5" s="25" t="n">
         <v>-9.5</v>
       </c>
-      <c r="W5" s="12" t="n">
+      <c r="W5" s="25" t="n">
         <v>144.6</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="21" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row customHeight="1" ht="15" r="6" s="15" spans="1:26">
+      <c r="A6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="n">
+      <c r="B6" s="21" t="n"/>
+      <c r="C6" s="21" t="n">
         <v>525</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="21" t="n">
         <v>37</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="21" t="n">
         <v>152</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="21" t="n">
         <v>441</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="21" t="n">
         <v>68</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="21" t="n">
         <v>1105</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="21" t="n">
         <v>949</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="23" t="n">
         <v>68</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="23" t="n">
         <v>230</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="25" t="n">
         <v>345</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="25" t="n">
         <v>634</v>
       </c>
-      <c r="N6" s="12" t="n">
+      <c r="N6" s="25" t="n">
         <v>718</v>
       </c>
-      <c r="O6" s="12" t="n">
+      <c r="O6" s="25" t="n">
         <v>949</v>
       </c>
-      <c r="P6" s="12" t="n">
+      <c r="P6" s="25" t="n">
         <v>1105</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="25" t="n">
         <v>1249</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="25" t="n">
         <v>1364</v>
       </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12" t="n">
+      <c r="S6" s="23" t="n"/>
+      <c r="T6" s="23" t="n"/>
+      <c r="U6" s="25" t="n"/>
+      <c r="V6" s="25" t="n">
         <v>-11.1</v>
       </c>
-      <c r="W6" s="12" t="n">
+      <c r="W6" s="25" t="n">
         <v>81.39</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row customHeight="1" ht="15" r="7" s="15" spans="1:26">
+      <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="n">
+      <c r="B7" s="21" t="n"/>
+      <c r="C7" s="21" t="n">
         <v>404</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="21" t="n">
         <v>823</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="21" t="n">
         <v>61</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="21" t="n">
         <v>310</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="21" t="n">
         <v>759</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="21" t="n">
         <v>615</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="K7" s="10" t="n">
+      <c r="K7" s="23" t="n">
         <v>839</v>
       </c>
-      <c r="L7" s="12" t="n">
+      <c r="L7" s="25" t="n">
         <v>77</v>
       </c>
-      <c r="M7" s="12" t="n">
+      <c r="M7" s="25" t="n">
         <v>326</v>
       </c>
-      <c r="N7" s="12" t="n">
+      <c r="N7" s="25" t="n">
         <v>420</v>
       </c>
-      <c r="O7" s="12" t="n">
+      <c r="O7" s="25" t="n">
         <v>615</v>
       </c>
-      <c r="P7" s="12" t="n">
+      <c r="P7" s="25" t="n">
         <v>759</v>
       </c>
-      <c r="Q7" s="12" t="n">
+      <c r="Q7" s="25" t="n">
         <v>1663</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="25" t="n">
         <v>901</v>
       </c>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12" t="n">
+      <c r="S7" s="23" t="n"/>
+      <c r="T7" s="23" t="n"/>
+      <c r="U7" s="25" t="n"/>
+      <c r="V7" s="25" t="n">
         <v>-8.19</v>
       </c>
-      <c r="W7" s="12" t="n">
+      <c r="W7" s="25" t="n">
         <v>83.16</v>
       </c>
-      <c r="X7" s="8" t="s">
+      <c r="X7" s="21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+    <row customHeight="1" ht="15" r="8" s="15" spans="1:26">
+      <c r="A8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="n">
+      <c r="B8" s="21" t="n"/>
+      <c r="C8" s="21" t="n">
         <v>654.5</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="21" t="n">
         <v>272.8</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="21" t="n">
         <v>336</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="21" t="n">
         <v>586.034402</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="n">
+      <c r="G8" s="21" t="n"/>
+      <c r="H8" s="21" t="n"/>
+      <c r="I8" s="21" t="n"/>
+      <c r="J8" s="23" t="n"/>
+      <c r="K8" s="23" t="n">
         <v>272</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="L8" s="25" t="n">
         <v>336</v>
       </c>
-      <c r="M8" s="12" t="n">
+      <c r="M8" s="25" t="n">
         <v>586</v>
       </c>
-      <c r="N8" s="12" t="n">
+      <c r="N8" s="25" t="n">
         <v>654</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12" t="n">
+      <c r="O8" s="25" t="n"/>
+      <c r="P8" s="25" t="n"/>
+      <c r="Q8" s="25" t="n">
         <v>1105</v>
       </c>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="25" t="n">
         <v>1169</v>
       </c>
-      <c r="S8" s="10" t="n">
+      <c r="S8" s="23" t="n">
         <v>314</v>
       </c>
-      <c r="T8" s="10" t="n">
+      <c r="T8" s="23" t="n">
         <v>519.333333</v>
       </c>
-      <c r="U8" s="12" t="n">
+      <c r="U8" s="25" t="n">
         <v>0.604621309759064</v>
       </c>
-      <c r="V8" s="12" t="n">
+      <c r="V8" s="25" t="n">
         <v>-12.58</v>
       </c>
-      <c r="W8" s="12" t="n">
+      <c r="W8" s="25" t="n">
         <v>144.93</v>
       </c>
-      <c r="X8" s="8" t="s">
+      <c r="X8" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    <row customHeight="1" ht="15" r="9" s="15" spans="1:26">
+      <c r="A9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="n">
+      <c r="B9" s="21" t="n"/>
+      <c r="C9" s="21" t="n">
         <v>485</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="21" t="n">
         <v>903</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="21" t="n">
         <v>75</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="21" t="n">
         <v>460</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="21" t="n">
         <v>41</v>
       </c>
-      <c r="H9" s="8" t="n">
+      <c r="H9" s="21" t="n">
         <v>999</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="21" t="n">
         <v>909</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="K9" s="10" t="n">
+      <c r="K9" s="23" t="n">
         <v>1087</v>
       </c>
-      <c r="L9" s="12" t="n">
+      <c r="L9" s="25" t="n">
         <v>259</v>
       </c>
-      <c r="M9" s="12" t="n">
+      <c r="M9" s="25" t="n">
         <v>644</v>
       </c>
-      <c r="N9" s="12" t="n">
+      <c r="N9" s="25" t="n">
         <v>669</v>
       </c>
-      <c r="O9" s="12" t="n">
+      <c r="O9" s="25" t="n">
         <v>909</v>
       </c>
-      <c r="P9" s="12" t="n">
+      <c r="P9" s="25" t="n">
         <v>999</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="25" t="n">
         <v>2039</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="25" t="n">
         <v>1211</v>
       </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12" t="n">
+      <c r="S9" s="23" t="n"/>
+      <c r="T9" s="23" t="n"/>
+      <c r="U9" s="25" t="n"/>
+      <c r="V9" s="25" t="n">
         <v>-13.55</v>
       </c>
-      <c r="W9" s="12" t="n">
+      <c r="W9" s="25" t="n">
         <v>75.66</v>
       </c>
-      <c r="X9" s="8" t="s">
+      <c r="X9" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+    <row customHeight="1" ht="15" r="10" s="15" spans="1:26">
+      <c r="A10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="n">
+      <c r="B10" s="21" t="n"/>
+      <c r="C10" s="21" t="n">
         <v>479</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="21" t="n">
         <v>887</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="21" t="n">
         <v>62</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="21" t="n">
         <v>395</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="21" t="n">
         <v>41</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="21" t="n">
         <v>930</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="21" t="n">
         <v>804</v>
       </c>
-      <c r="J10" s="10" t="n">
+      <c r="J10" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="K10" s="10" t="n">
+      <c r="K10" s="23" t="n">
         <v>1058</v>
       </c>
-      <c r="L10" s="12" t="n">
+      <c r="L10" s="25" t="n">
         <v>233</v>
       </c>
-      <c r="M10" s="12" t="n">
+      <c r="M10" s="25" t="n">
         <v>566</v>
       </c>
-      <c r="N10" s="12" t="n">
+      <c r="N10" s="25" t="n">
         <v>650</v>
       </c>
-      <c r="O10" s="12" t="n">
+      <c r="O10" s="25" t="n">
         <v>804</v>
       </c>
-      <c r="P10" s="12" t="n">
+      <c r="P10" s="25" t="n">
         <v>930</v>
       </c>
-      <c r="Q10" s="12" t="n">
+      <c r="Q10" s="25" t="n">
         <v>1914</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="25" t="n">
         <v>1089</v>
       </c>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12" t="n">
+      <c r="S10" s="23" t="n"/>
+      <c r="T10" s="23" t="n"/>
+      <c r="U10" s="25" t="n"/>
+      <c r="V10" s="25" t="n">
         <v>-18.26</v>
       </c>
-      <c r="W10" s="12" t="n">
+      <c r="W10" s="25" t="n">
         <v>45.62</v>
       </c>
-      <c r="X10" s="8" t="s">
+      <c r="X10" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row customHeight="1" ht="15" r="11" s="15" spans="1:26">
+      <c r="A11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="n">
+      <c r="B11" s="21" t="n"/>
+      <c r="C11" s="21" t="n">
         <v>383</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="21" t="n">
         <v>674</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="21" t="n">
         <v>91</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="21" t="n">
         <v>286</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="21" t="n">
         <v>35</v>
       </c>
-      <c r="H11" s="8" t="n">
+      <c r="H11" s="21" t="n">
         <v>752</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="21" t="n">
         <v>694</v>
       </c>
-      <c r="J11" s="10" t="n">
+      <c r="J11" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="K11" s="10" t="n">
+      <c r="K11" s="23" t="n">
         <v>808</v>
       </c>
-      <c r="L11" s="12" t="n">
+      <c r="L11" s="25" t="n">
         <v>225</v>
       </c>
-      <c r="M11" s="12" t="n">
+      <c r="M11" s="25" t="n">
         <v>420</v>
       </c>
-      <c r="N11" s="12" t="n">
+      <c r="N11" s="25" t="n">
         <v>517</v>
       </c>
-      <c r="O11" s="12" t="n">
+      <c r="O11" s="25" t="n">
         <v>694</v>
       </c>
-      <c r="P11" s="12" t="n">
+      <c r="P11" s="25" t="n">
         <v>752</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="25" t="n">
         <v>1491</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="25" t="n">
         <v>908</v>
       </c>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12" t="n">
+      <c r="S11" s="23" t="n"/>
+      <c r="T11" s="23" t="n"/>
+      <c r="U11" s="25" t="n"/>
+      <c r="V11" s="25" t="n">
         <v>-4.21</v>
       </c>
-      <c r="W11" s="12" t="n">
+      <c r="W11" s="25" t="n">
         <v>91.33</v>
       </c>
-      <c r="X11" s="8" t="s">
+      <c r="X11" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+    <row customHeight="1" ht="15" r="12" s="15" spans="1:26">
+      <c r="A12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="n">
+      <c r="B12" s="21" t="n"/>
+      <c r="C12" s="21" t="n">
         <v>387</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="21" t="n">
         <v>673</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="21" t="n">
         <v>38</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="21" t="n">
         <v>311</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="21" t="n">
         <v>752</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="21" t="n">
         <v>690</v>
       </c>
-      <c r="J12" s="10" t="n">
+      <c r="J12" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="K12" s="10" t="n">
+      <c r="K12" s="23" t="n">
         <v>801</v>
       </c>
-      <c r="L12" s="12" t="n">
+      <c r="L12" s="25" t="n">
         <v>166</v>
       </c>
-      <c r="M12" s="12" t="n">
+      <c r="M12" s="25" t="n">
         <v>439</v>
       </c>
-      <c r="N12" s="12" t="n">
+      <c r="N12" s="25" t="n">
         <v>515</v>
       </c>
-      <c r="O12" s="12" t="n">
+      <c r="O12" s="25" t="n">
         <v>690</v>
       </c>
-      <c r="P12" s="12" t="n">
+      <c r="P12" s="25" t="n">
         <v>752</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="25" t="n">
         <v>1484</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="25" t="n">
         <v>849</v>
       </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12" t="n">
+      <c r="S12" s="23" t="n"/>
+      <c r="T12" s="23" t="n"/>
+      <c r="U12" s="25" t="n"/>
+      <c r="V12" s="25" t="n">
         <v>-21.48</v>
       </c>
-      <c r="W12" s="12" t="n">
+      <c r="W12" s="25" t="n">
         <v>26.34</v>
       </c>
-      <c r="X12" s="8" t="s">
+      <c r="X12" s="21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="19.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+    <row customHeight="1" ht="19.7" r="13" s="15" spans="1:26">
+      <c r="A13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8" t="n">
+      <c r="B13" s="21" t="n"/>
+      <c r="C13" s="21" t="n">
         <v>472</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="21" t="n">
         <v>28</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="21" t="n">
         <v>61</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="21" t="n">
         <v>375</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="21" t="n">
         <v>74</v>
       </c>
-      <c r="H13" s="8" t="n">
+      <c r="H13" s="21" t="n">
         <v>1062</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="21" t="n">
         <v>928</v>
       </c>
-      <c r="J13" s="10" t="n">
+      <c r="J13" s="23" t="n">
         <v>74</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="23" t="n">
         <v>212</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="25" t="n">
         <v>245</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="25" t="n">
         <v>559</v>
       </c>
-      <c r="N13" s="12" t="n">
+      <c r="N13" s="25" t="n">
         <v>656</v>
       </c>
-      <c r="O13" s="12" t="n">
+      <c r="O13" s="25" t="n">
         <v>928</v>
       </c>
-      <c r="P13" s="12" t="n">
+      <c r="P13" s="25" t="n">
         <v>1062</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="25" t="n">
         <v>1149</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="25" t="n">
         <v>1182</v>
       </c>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12" t="n">
+      <c r="S13" s="23" t="n"/>
+      <c r="T13" s="23" t="n"/>
+      <c r="U13" s="25" t="n"/>
+      <c r="V13" s="25" t="n">
         <v>-16.36</v>
       </c>
-      <c r="W13" s="12" t="n">
+      <c r="W13" s="25" t="n">
         <v>41.81</v>
       </c>
-      <c r="X13" s="8" t="s">
+      <c r="X13" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+    <row customHeight="1" ht="15" r="14" s="15" spans="1:26">
+      <c r="A14" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8" t="n">
+      <c r="B14" s="21" t="n"/>
+      <c r="C14" s="21" t="n">
         <v>408</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="21" t="n">
         <v>763</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="21" t="n">
         <v>79</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="21" t="n">
         <v>294</v>
       </c>
-      <c r="G14" s="8" t="n">
+      <c r="G14" s="21" t="n">
         <v>49</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="21" t="n">
         <v>779</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="21" t="n">
         <v>682</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J14" s="23" t="n">
         <v>49</v>
       </c>
-      <c r="K14" s="10" t="n">
+      <c r="K14" s="23" t="n">
         <v>902</v>
       </c>
-      <c r="L14" s="12" t="n">
+      <c r="L14" s="25" t="n">
         <v>218</v>
       </c>
-      <c r="M14" s="12" t="n">
+      <c r="M14" s="25" t="n">
         <v>433</v>
       </c>
-      <c r="N14" s="12" t="n">
+      <c r="N14" s="25" t="n">
         <v>547</v>
       </c>
-      <c r="O14" s="12" t="n">
+      <c r="O14" s="25" t="n">
         <v>682</v>
       </c>
-      <c r="P14" s="12" t="n">
+      <c r="P14" s="25" t="n">
         <v>779</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="25" t="n">
         <v>1660</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="25" t="n">
         <v>976</v>
       </c>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12" t="n">
+      <c r="S14" s="23" t="n"/>
+      <c r="T14" s="23" t="n"/>
+      <c r="U14" s="25" t="n"/>
+      <c r="V14" s="25" t="n">
         <v>-11.41</v>
       </c>
-      <c r="W14" s="12" t="n">
+      <c r="W14" s="25" t="n">
         <v>51.2</v>
       </c>
-      <c r="X14" s="8" t="s">
+      <c r="X14" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+    <row customHeight="1" ht="15" r="15" s="15" spans="1:26">
+      <c r="A15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8" t="n">
+      <c r="B15" s="21" t="n"/>
+      <c r="C15" s="21" t="n">
         <v>478</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="21" t="n">
         <v>26</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="21" t="n">
         <v>45</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="21" t="n">
         <v>358</v>
       </c>
-      <c r="G15" s="8" t="n">
+      <c r="G15" s="21" t="n">
         <v>86</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="21" t="n">
         <v>1145</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="21" t="n">
         <v>1065</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="23" t="n">
         <v>86</v>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="23" t="n">
         <v>223</v>
       </c>
-      <c r="L15" s="12" t="n">
+      <c r="L15" s="25" t="n">
         <v>242</v>
       </c>
-      <c r="M15" s="12" t="n">
+      <c r="M15" s="25" t="n">
         <v>555</v>
       </c>
-      <c r="N15" s="12" t="n">
+      <c r="N15" s="25" t="n">
         <v>675</v>
       </c>
-      <c r="O15" s="12" t="n">
+      <c r="O15" s="25" t="n">
         <v>1065</v>
       </c>
-      <c r="P15" s="12" t="n">
+      <c r="P15" s="25" t="n">
         <v>1145</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="25" t="n">
         <v>1244</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="25" t="n">
         <v>1263</v>
       </c>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12" t="n">
+      <c r="S15" s="23" t="n"/>
+      <c r="T15" s="23" t="n"/>
+      <c r="U15" s="25" t="n"/>
+      <c r="V15" s="25" t="n">
         <v>-24.93</v>
       </c>
-      <c r="W15" s="12" t="n">
+      <c r="W15" s="25" t="n">
         <v>41.96</v>
       </c>
-      <c r="X15" s="8" t="s">
+      <c r="X15" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+    <row customHeight="1" ht="15" r="16" s="15" spans="1:26">
+      <c r="A16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8" t="n">
+      <c r="B16" s="21" t="n"/>
+      <c r="C16" s="21" t="n">
         <v>483</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="21" t="n">
         <v>93</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="21" t="n">
         <v>399</v>
       </c>
-      <c r="G16" s="8" t="n">
+      <c r="G16" s="21" t="n">
         <v>113</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="21" t="n">
         <v>1179</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="21" t="n">
         <v>1063</v>
       </c>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="23" t="n">
         <v>113</v>
       </c>
-      <c r="K16" s="10" t="n">
+      <c r="K16" s="23" t="n">
         <v>223</v>
       </c>
-      <c r="L16" s="12" t="n">
+      <c r="L16" s="25" t="n">
         <v>306</v>
       </c>
-      <c r="M16" s="12" t="n">
+      <c r="M16" s="25" t="n">
         <v>612</v>
       </c>
-      <c r="N16" s="12" t="n">
+      <c r="N16" s="25" t="n">
         <v>696</v>
       </c>
-      <c r="O16" s="12" t="n">
+      <c r="O16" s="25" t="n">
         <v>1063</v>
       </c>
-      <c r="P16" s="12" t="n">
+      <c r="P16" s="25" t="n">
         <v>1179</v>
       </c>
-      <c r="Q16" s="12" t="n">
+      <c r="Q16" s="25" t="n">
         <v>1290</v>
       </c>
-      <c r="R16" s="12" t="n">
+      <c r="R16" s="25" t="n">
         <v>1373</v>
       </c>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12" t="n">
+      <c r="S16" s="23" t="n"/>
+      <c r="T16" s="23" t="n"/>
+      <c r="U16" s="25" t="n"/>
+      <c r="V16" s="25" t="n">
         <v>-7.33</v>
       </c>
-      <c r="W16" s="12" t="n">
+      <c r="W16" s="25" t="n">
         <v>39.74</v>
       </c>
-      <c r="X16" s="8" t="s">
+      <c r="X16" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
+    <row customHeight="1" ht="15" r="17" s="15" spans="1:26">
+      <c r="A17" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12" t="n">
+      <c r="B17" s="25" t="n"/>
+      <c r="C17" s="25" t="n">
         <v>451</v>
       </c>
-      <c r="D17" s="12" t="n">
+      <c r="D17" s="25" t="n">
         <v>8</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="25" t="n">
         <v>67</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="25" t="n">
         <v>374</v>
       </c>
-      <c r="G17" s="12" t="n">
+      <c r="G17" s="25" t="n">
         <v>75</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="25" t="n">
         <v>888</v>
       </c>
-      <c r="I17" s="12" t="n">
+      <c r="I17" s="25" t="n">
         <v>767</v>
       </c>
-      <c r="J17" s="10" t="n">
+      <c r="J17" s="23" t="n">
         <v>75</v>
       </c>
-      <c r="K17" s="10" t="n">
+      <c r="K17" s="23" t="n">
         <v>165</v>
       </c>
-      <c r="L17" s="12" t="n">
+      <c r="L17" s="25" t="n">
         <v>224</v>
       </c>
-      <c r="M17" s="12" t="n">
+      <c r="M17" s="25" t="n">
         <v>531</v>
       </c>
-      <c r="N17" s="12" t="n">
+      <c r="N17" s="25" t="n">
         <v>608</v>
       </c>
-      <c r="O17" s="12" t="n">
+      <c r="O17" s="25" t="n">
         <v>767</v>
       </c>
-      <c r="P17" s="12" t="n">
+      <c r="P17" s="25" t="n">
         <v>888</v>
       </c>
-      <c r="Q17" s="12" t="n">
+      <c r="Q17" s="25" t="n">
         <v>965</v>
       </c>
-      <c r="R17" s="12" t="n">
+      <c r="R17" s="25" t="n">
         <v>1024</v>
       </c>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12" t="n">
+      <c r="S17" s="23" t="n"/>
+      <c r="T17" s="23" t="n"/>
+      <c r="U17" s="25" t="n"/>
+      <c r="V17" s="25" t="n">
         <v>-17.23</v>
       </c>
-      <c r="W17" s="12" t="n">
+      <c r="W17" s="25" t="n">
         <v>34.18</v>
       </c>
-      <c r="X17" s="12" t="s">
+      <c r="X17" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+    <row customHeight="1" ht="15" r="18" s="15" spans="1:26">
+      <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12" t="n">
+      <c r="B18" s="25" t="n"/>
+      <c r="C18" s="25" t="n">
         <v>493</v>
       </c>
-      <c r="D18" s="12" t="n">
+      <c r="D18" s="25" t="n">
         <v>905</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="25" t="n">
         <v>46</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="25" t="n">
         <v>384</v>
       </c>
-      <c r="G18" s="12" t="n">
+      <c r="G18" s="25" t="n">
         <v>37</v>
       </c>
-      <c r="H18" s="12" t="n">
+      <c r="H18" s="25" t="n">
         <v>939</v>
       </c>
-      <c r="I18" s="12" t="n">
+      <c r="I18" s="25" t="n">
         <v>810</v>
       </c>
-      <c r="J18" s="10" t="n">
+      <c r="J18" s="23" t="n">
         <v>37</v>
       </c>
-      <c r="K18" s="10" t="n">
+      <c r="K18" s="23" t="n">
         <v>1070</v>
       </c>
-      <c r="L18" s="12" t="n">
+      <c r="L18" s="25" t="n">
         <v>211</v>
       </c>
-      <c r="M18" s="12" t="n">
+      <c r="M18" s="25" t="n">
         <v>549</v>
       </c>
-      <c r="N18" s="12" t="n">
+      <c r="N18" s="25" t="n">
         <v>658</v>
       </c>
-      <c r="O18" s="12" t="n">
+      <c r="O18" s="25" t="n">
         <v>810</v>
       </c>
-      <c r="P18" s="12" t="n">
+      <c r="P18" s="25" t="n">
         <v>939</v>
       </c>
-      <c r="Q18" s="12" t="n">
+      <c r="Q18" s="25" t="n">
         <v>1958</v>
       </c>
-      <c r="R18" s="12" t="n">
+      <c r="R18" s="25" t="n">
         <v>1099</v>
       </c>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12" t="n">
+      <c r="S18" s="23" t="n"/>
+      <c r="T18" s="23" t="n"/>
+      <c r="U18" s="25" t="n"/>
+      <c r="V18" s="25" t="n">
         <v>-20.32</v>
       </c>
-      <c r="W18" s="12" t="n">
+      <c r="W18" s="25" t="n">
         <v>43.35</v>
       </c>
-      <c r="X18" s="12" t="s">
+      <c r="X18" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+    <row customHeight="1" ht="15" r="19" s="15" spans="1:26">
+      <c r="A19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="n">
+      <c r="B19" s="25" t="n"/>
+      <c r="C19" s="25" t="n">
         <v>397</v>
       </c>
-      <c r="D19" s="12" t="n">
+      <c r="D19" s="25" t="n">
         <v>877</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="25" t="n">
         <v>65</v>
       </c>
-      <c r="F19" s="12" t="n">
+      <c r="F19" s="25" t="n">
         <v>326</v>
       </c>
-      <c r="G19" s="12" t="n">
+      <c r="G19" s="25" t="n">
         <v>52</v>
       </c>
-      <c r="H19" s="12" t="n">
+      <c r="H19" s="25" t="n">
         <v>925</v>
       </c>
-      <c r="I19" s="12" t="n">
+      <c r="I19" s="25" t="n">
         <v>835</v>
       </c>
-      <c r="J19" s="10" t="n">
+      <c r="J19" s="23" t="n">
         <v>52</v>
       </c>
-      <c r="K19" s="10" t="n">
+      <c r="K19" s="23" t="n">
         <v>1048</v>
       </c>
-      <c r="L19" s="12" t="n">
+      <c r="L19" s="25" t="n">
         <v>236</v>
       </c>
-      <c r="M19" s="12" t="n">
+      <c r="M19" s="25" t="n">
         <v>497</v>
       </c>
-      <c r="N19" s="12" t="n">
+      <c r="N19" s="25" t="n">
         <v>568</v>
       </c>
-      <c r="O19" s="12" t="n">
+      <c r="O19" s="25" t="n">
         <v>835</v>
       </c>
-      <c r="P19" s="12" t="n">
+      <c r="P19" s="25" t="n">
         <v>925</v>
       </c>
-      <c r="Q19" s="12" t="n">
+      <c r="Q19" s="25" t="n">
         <v>1901</v>
       </c>
-      <c r="R19" s="12" t="n">
+      <c r="R19" s="25" t="n">
         <v>1089</v>
       </c>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12" t="n">
+      <c r="S19" s="23" t="n"/>
+      <c r="T19" s="23" t="n"/>
+      <c r="U19" s="25" t="n"/>
+      <c r="V19" s="25" t="n">
         <v>-19.4</v>
       </c>
-      <c r="W19" s="12" t="n">
+      <c r="W19" s="25" t="n">
         <v>35.73</v>
       </c>
-      <c r="X19" s="12" t="s">
+      <c r="X19" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
+    <row customHeight="1" ht="15" r="20" s="15" spans="1:26">
+      <c r="A20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12" t="n">
+      <c r="B20" s="25" t="n"/>
+      <c r="C20" s="25" t="n">
         <v>515</v>
       </c>
-      <c r="D20" s="12" t="n">
+      <c r="D20" s="25" t="n">
         <v>13</v>
       </c>
-      <c r="E20" s="12" t="n">
+      <c r="E20" s="25" t="n">
         <v>31</v>
       </c>
-      <c r="F20" s="12" t="n">
+      <c r="F20" s="25" t="n">
         <v>385</v>
       </c>
-      <c r="G20" s="12" t="n">
+      <c r="G20" s="25" t="n">
         <v>111</v>
       </c>
-      <c r="H20" s="12" t="n">
+      <c r="H20" s="25" t="n">
         <v>1215</v>
       </c>
-      <c r="I20" s="12" t="n">
+      <c r="I20" s="25" t="n">
         <v>1090</v>
       </c>
-      <c r="J20" s="10" t="n">
+      <c r="J20" s="23" t="n">
         <v>111</v>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K20" s="23" t="n">
         <v>226</v>
       </c>
-      <c r="L20" s="12" t="n">
+      <c r="L20" s="25" t="n">
         <v>244</v>
       </c>
-      <c r="M20" s="12" t="n">
+      <c r="M20" s="25" t="n">
         <v>598</v>
       </c>
-      <c r="N20" s="12" t="n">
+      <c r="N20" s="25" t="n">
         <v>728</v>
       </c>
-      <c r="O20" s="12" t="n">
+      <c r="O20" s="25" t="n">
         <v>1090</v>
       </c>
-      <c r="P20" s="12" t="n">
+      <c r="P20" s="25" t="n">
         <v>1215</v>
       </c>
-      <c r="Q20" s="12" t="n">
+      <c r="Q20" s="25" t="n">
         <v>1333</v>
       </c>
-      <c r="R20" s="12" t="n">
+      <c r="R20" s="25" t="n">
         <v>1351</v>
       </c>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12" t="n">
+      <c r="S20" s="23" t="n"/>
+      <c r="T20" s="23" t="n"/>
+      <c r="U20" s="25" t="n"/>
+      <c r="V20" s="25" t="n">
         <v>-15.27</v>
       </c>
-      <c r="W20" s="12" t="n">
+      <c r="W20" s="25" t="n">
         <v>72.09</v>
       </c>
-      <c r="X20" s="12" t="s">
+      <c r="X20" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+    <row customHeight="1" ht="15" r="21" s="15" spans="1:26">
+      <c r="A21" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12" t="n">
+      <c r="B21" s="25" t="n"/>
+      <c r="C21" s="25" t="n">
         <v>484</v>
       </c>
-      <c r="D21" s="12" t="n">
+      <c r="D21" s="25" t="n">
         <v>1071</v>
       </c>
-      <c r="E21" s="12" t="n">
+      <c r="E21" s="25" t="n">
         <v>78</v>
       </c>
-      <c r="F21" s="12" t="n">
+      <c r="F21" s="25" t="n">
         <v>396</v>
       </c>
-      <c r="G21" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="H21" s="12" t="n">
-        <v>890</v>
-      </c>
-      <c r="I21" s="12" t="n">
-        <v>794</v>
-      </c>
-      <c r="J21" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="K21" s="10" t="n">
+      <c r="G21" s="25" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" s="25" t="n">
+        <v>876</v>
+      </c>
+      <c r="I21" s="25" t="n">
+        <v>783</v>
+      </c>
+      <c r="J21" s="23" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" s="23" t="n">
         <v>1091</v>
       </c>
-      <c r="L21" s="12" t="n">
+      <c r="L21" s="25" t="n">
         <v>98</v>
       </c>
-      <c r="M21" s="12" t="n">
+      <c r="M21" s="25" t="n">
         <v>416</v>
       </c>
-      <c r="N21" s="12" t="n">
+      <c r="N21" s="25" t="n">
         <v>504</v>
       </c>
-      <c r="O21" s="12" t="n">
-        <v>794</v>
-      </c>
-      <c r="P21" s="12" t="n">
-        <v>890</v>
-      </c>
-      <c r="Q21" s="12" t="n">
+      <c r="O21" s="25" t="n">
+        <v>783</v>
+      </c>
+      <c r="P21" s="25" t="n">
+        <v>876</v>
+      </c>
+      <c r="Q21" s="25" t="n">
         <v>2041</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="25" t="n">
         <v>1048</v>
       </c>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12" t="n">
-        <v>-16.67</v>
-      </c>
-      <c r="W21" s="12" t="n">
-        <v>155.54</v>
-      </c>
-      <c r="X21" s="12" t="s">
+      <c r="S21" s="23" t="n"/>
+      <c r="T21" s="23" t="n"/>
+      <c r="U21" s="25" t="n"/>
+      <c r="V21" s="25" t="n">
+        <v>-19.38</v>
+      </c>
+      <c r="W21" s="25" t="n">
+        <v>23.87</v>
+      </c>
+      <c r="X21" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+    <row customHeight="1" ht="15" r="22" s="15" spans="1:26">
+      <c r="A22" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="n">
+      <c r="B22" s="25" t="n"/>
+      <c r="C22" s="25" t="n">
         <v>561</v>
       </c>
-      <c r="D22" s="12" t="n">
+      <c r="D22" s="25" t="n">
         <v>45</v>
       </c>
-      <c r="E22" s="12" t="n">
+      <c r="E22" s="25" t="n">
         <v>68</v>
       </c>
-      <c r="F22" s="12" t="n">
+      <c r="F22" s="25" t="n">
         <v>412</v>
       </c>
-      <c r="G22" s="12" t="n">
+      <c r="G22" s="25" t="n">
         <v>71</v>
       </c>
-      <c r="H22" s="12" t="n">
+      <c r="H22" s="25" t="n">
         <v>1189</v>
       </c>
-      <c r="I22" s="12" t="n">
+      <c r="I22" s="25" t="n">
         <v>1091</v>
       </c>
-      <c r="J22" s="10" t="n">
+      <c r="J22" s="23" t="n">
         <v>71</v>
       </c>
-      <c r="K22" s="10" t="n">
+      <c r="K22" s="23" t="n">
         <v>259</v>
       </c>
-      <c r="L22" s="12" t="n">
+      <c r="L22" s="25" t="n">
         <v>282</v>
       </c>
-      <c r="M22" s="12" t="n">
+      <c r="M22" s="25" t="n">
         <v>626</v>
       </c>
-      <c r="N22" s="12" t="n">
+      <c r="N22" s="25" t="n">
         <v>775</v>
       </c>
-      <c r="O22" s="12" t="n">
+      <c r="O22" s="25" t="n">
         <v>1091</v>
       </c>
-      <c r="P22" s="12" t="n">
+      <c r="P22" s="25" t="n">
         <v>1189</v>
       </c>
-      <c r="Q22" s="12" t="n">
+      <c r="Q22" s="25" t="n">
         <v>1378</v>
       </c>
-      <c r="R22" s="12" t="n">
+      <c r="R22" s="25" t="n">
         <v>1401</v>
       </c>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12" t="n">
+      <c r="S22" s="23" t="n"/>
+      <c r="T22" s="23" t="n"/>
+      <c r="U22" s="25" t="n"/>
+      <c r="V22" s="25" t="n">
         <v>-19.06</v>
       </c>
-      <c r="W22" s="12" t="n">
+      <c r="W22" s="25" t="n">
         <v>52.18</v>
       </c>
-      <c r="X22" s="12" t="s">
+      <c r="X22" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+    <row customHeight="1" ht="15" r="23" s="15" spans="1:26">
+      <c r="A23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="n">
+      <c r="B23" s="25" t="n"/>
+      <c r="C23" s="25" t="n">
         <v>453</v>
       </c>
-      <c r="D23" s="12" t="n">
+      <c r="D23" s="25" t="n">
         <v>924</v>
       </c>
-      <c r="E23" s="12" t="n">
+      <c r="E23" s="25" t="n">
         <v>49</v>
       </c>
-      <c r="F23" s="12" t="n">
+      <c r="F23" s="25" t="n">
         <v>355</v>
       </c>
-      <c r="G23" s="12" t="n">
+      <c r="G23" s="25" t="n">
         <v>57</v>
       </c>
-      <c r="H23" s="12" t="n">
+      <c r="H23" s="25" t="n">
         <v>1077</v>
       </c>
-      <c r="I23" s="12" t="n">
+      <c r="I23" s="25" t="n">
         <v>927</v>
       </c>
-      <c r="J23" s="10" t="n">
+      <c r="J23" s="23" t="n">
         <v>57</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K23" s="23" t="n">
         <v>1123</v>
       </c>
-      <c r="L23" s="12" t="n">
+      <c r="L23" s="25" t="n">
         <v>248</v>
       </c>
-      <c r="M23" s="12" t="n">
+      <c r="M23" s="25" t="n">
         <v>554</v>
       </c>
-      <c r="N23" s="12" t="n">
+      <c r="N23" s="25" t="n">
         <v>652</v>
       </c>
-      <c r="O23" s="12" t="n">
+      <c r="O23" s="25" t="n">
         <v>927</v>
       </c>
-      <c r="P23" s="12" t="n">
+      <c r="P23" s="25" t="n">
         <v>1077</v>
       </c>
-      <c r="Q23" s="12" t="n">
+      <c r="Q23" s="25" t="n">
         <v>2119</v>
       </c>
-      <c r="R23" s="12" t="n">
+      <c r="R23" s="25" t="n">
         <v>1244</v>
       </c>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12" t="n">
+      <c r="S23" s="23" t="n"/>
+      <c r="T23" s="23" t="n"/>
+      <c r="U23" s="25" t="n"/>
+      <c r="V23" s="25" t="n">
         <v>-16.82</v>
       </c>
-      <c r="W23" s="12" t="n">
+      <c r="W23" s="25" t="n">
         <v>53.71</v>
       </c>
-      <c r="X23" s="12" t="s">
+      <c r="X23" s="25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+    <row customHeight="1" ht="15" r="24" s="15" spans="1:26">
+      <c r="A24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12" t="n">
+      <c r="B24" s="25" t="n"/>
+      <c r="C24" s="25" t="n">
         <v>399</v>
       </c>
-      <c r="D24" s="12" t="n">
+      <c r="D24" s="25" t="n">
         <v>796</v>
       </c>
-      <c r="E24" s="12" t="n">
+      <c r="E24" s="25" t="n">
         <v>74</v>
       </c>
-      <c r="F24" s="12" t="n">
+      <c r="F24" s="25" t="n">
         <v>354</v>
       </c>
-      <c r="G24" s="12" t="n">
+      <c r="G24" s="25" t="n">
         <v>99</v>
       </c>
-      <c r="H24" s="12" t="n">
+      <c r="H24" s="25" t="n">
         <v>1168</v>
       </c>
-      <c r="I24" s="12" t="n">
+      <c r="I24" s="25" t="n">
         <v>1040</v>
       </c>
-      <c r="J24" s="10" t="n">
+      <c r="J24" s="23" t="n">
         <v>99</v>
       </c>
-      <c r="K24" s="10" t="n">
+      <c r="K24" s="23" t="n">
         <v>996</v>
       </c>
-      <c r="L24" s="12" t="n">
+      <c r="L24" s="25" t="n">
         <v>274</v>
       </c>
-      <c r="M24" s="12" t="n">
+      <c r="M24" s="25" t="n">
         <v>554</v>
       </c>
-      <c r="N24" s="12" t="n">
+      <c r="N24" s="25" t="n">
         <v>599</v>
       </c>
-      <c r="O24" s="12" t="n">
+      <c r="O24" s="25" t="n">
         <v>1040</v>
       </c>
-      <c r="P24" s="12" t="n">
+      <c r="P24" s="25" t="n">
         <v>1168</v>
       </c>
-      <c r="Q24" s="12" t="n">
+      <c r="Q24" s="25" t="n">
         <v>2037</v>
       </c>
-      <c r="R24" s="12" t="n">
+      <c r="R24" s="25" t="n">
         <v>1315</v>
       </c>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12" t="n">
+      <c r="S24" s="23" t="n"/>
+      <c r="T24" s="23" t="n"/>
+      <c r="U24" s="25" t="n"/>
+      <c r="V24" s="25" t="n">
         <v>-16.68</v>
       </c>
-      <c r="W24" s="12" t="n">
+      <c r="W24" s="25" t="n">
         <v>57.66</v>
       </c>
-      <c r="X24" s="12" t="s">
+      <c r="X24" s="25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+    <row customHeight="1" ht="15" r="25" s="15" spans="1:26">
+      <c r="A25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12" t="n">
+      <c r="B25" s="25" t="n"/>
+      <c r="C25" s="25" t="n">
         <v>548</v>
       </c>
-      <c r="D25" s="12" t="n">
+      <c r="D25" s="25" t="n">
         <v>55</v>
       </c>
-      <c r="E25" s="12" t="n">
+      <c r="E25" s="25" t="n">
         <v>78</v>
       </c>
-      <c r="F25" s="12" t="n">
+      <c r="F25" s="25" t="n">
         <v>409</v>
       </c>
-      <c r="G25" s="12" t="n">
+      <c r="G25" s="25" t="n">
         <v>87</v>
       </c>
-      <c r="H25" s="12" t="n">
+      <c r="H25" s="25" t="n">
         <v>1279</v>
       </c>
-      <c r="I25" s="12" t="n">
+      <c r="I25" s="25" t="n">
         <v>1159</v>
       </c>
-      <c r="J25" s="10" t="n">
+      <c r="J25" s="23" t="n">
         <v>87</v>
       </c>
-      <c r="K25" s="10" t="n">
+      <c r="K25" s="23" t="n">
         <v>271</v>
       </c>
-      <c r="L25" s="12" t="n">
+      <c r="L25" s="25" t="n">
         <v>294</v>
       </c>
-      <c r="M25" s="12" t="n">
+      <c r="M25" s="25" t="n">
         <v>625</v>
       </c>
-      <c r="N25" s="12" t="n">
+      <c r="N25" s="25" t="n">
         <v>764</v>
       </c>
-      <c r="O25" s="12" t="n">
+      <c r="O25" s="25" t="n">
         <v>1159</v>
       </c>
-      <c r="P25" s="12" t="n">
+      <c r="P25" s="25" t="n">
         <v>1279</v>
       </c>
-      <c r="Q25" s="12" t="n">
+      <c r="Q25" s="25" t="n">
         <v>1410</v>
       </c>
-      <c r="R25" s="12" t="n">
+      <c r="R25" s="25" t="n">
         <v>1433</v>
       </c>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12" t="n">
+      <c r="S25" s="23" t="n"/>
+      <c r="T25" s="23" t="n"/>
+      <c r="U25" s="25" t="n"/>
+      <c r="V25" s="25" t="n">
         <v>-19.83</v>
       </c>
-      <c r="W25" s="12" t="n">
+      <c r="W25" s="25" t="n">
         <v>30.31</v>
       </c>
-      <c r="X25" s="12" t="s">
+      <c r="X25" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+    <row customHeight="1" ht="15" r="26" s="15" spans="1:26">
+      <c r="A26" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12" t="n">
+      <c r="B26" s="25" t="n"/>
+      <c r="C26" s="25" t="n">
         <v>730</v>
       </c>
-      <c r="D26" s="12" t="n">
+      <c r="D26" s="25" t="n">
         <v>1011</v>
       </c>
-      <c r="E26" s="12" t="n">
+      <c r="E26" s="25" t="n">
         <v>1085</v>
       </c>
-      <c r="F26" s="12" t="n">
+      <c r="F26" s="25" t="n">
         <v>1333</v>
       </c>
-      <c r="G26" s="12" t="n">
+      <c r="G26" s="25" t="n">
         <v>124</v>
       </c>
-      <c r="H26" s="12" t="n">
+      <c r="H26" s="25" t="n">
         <v>737</v>
       </c>
-      <c r="I26" s="12" t="n">
+      <c r="I26" s="25" t="n">
         <v>715</v>
       </c>
-      <c r="J26" s="10" t="n">
+      <c r="J26" s="23" t="n">
         <v>124</v>
       </c>
-      <c r="K26" s="10" t="n">
+      <c r="K26" s="23" t="n">
         <v>1207</v>
       </c>
-      <c r="L26" s="12" t="n">
+      <c r="L26" s="25" t="n">
         <v>1281</v>
       </c>
-      <c r="M26" s="12" t="n">
+      <c r="M26" s="25" t="n">
         <v>1529</v>
       </c>
-      <c r="N26" s="12" t="n">
+      <c r="N26" s="25" t="n">
         <v>926</v>
       </c>
-      <c r="O26" s="12" t="n">
+      <c r="O26" s="25" t="n">
         <v>715</v>
       </c>
-      <c r="P26" s="12" t="n">
+      <c r="P26" s="25" t="n">
         <v>737</v>
       </c>
-      <c r="Q26" s="12" t="n">
+      <c r="Q26" s="25" t="n">
         <v>2216</v>
       </c>
-      <c r="R26" s="12" t="n">
+      <c r="R26" s="25" t="n">
         <v>2290</v>
       </c>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12" t="n">
+      <c r="S26" s="23" t="n"/>
+      <c r="T26" s="23" t="n"/>
+      <c r="U26" s="25" t="n"/>
+      <c r="V26" s="25" t="n">
         <v>-17.04</v>
       </c>
-      <c r="W26" s="12" t="n">
+      <c r="W26" s="25" t="n">
         <v>56.11</v>
       </c>
-      <c r="X26" s="12" t="s">
+      <c r="X26" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12" t="s">
+    <row customHeight="1" ht="15" r="27" s="15" spans="1:26">
+      <c r="A27" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="n">
+      <c r="B27" s="25" t="n"/>
+      <c r="C27" s="25" t="n">
         <v>493</v>
       </c>
-      <c r="D27" s="12" t="n">
+      <c r="D27" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E27" s="12" t="n">
+      <c r="E27" s="25" t="n">
         <v>63</v>
       </c>
-      <c r="F27" s="12" t="n">
+      <c r="F27" s="25" t="n">
         <v>425</v>
       </c>
-      <c r="G27" s="12" t="n">
+      <c r="G27" s="25" t="n">
         <v>91</v>
       </c>
-      <c r="H27" s="12" t="n">
+      <c r="H27" s="25" t="n">
         <v>943</v>
       </c>
-      <c r="I27" s="12" t="n">
+      <c r="I27" s="25" t="n">
         <v>846</v>
       </c>
-      <c r="J27" s="10" t="n">
+      <c r="J27" s="23" t="n">
         <v>91</v>
       </c>
-      <c r="K27" s="10" t="n">
+      <c r="K27" s="23" t="n">
         <v>175</v>
       </c>
-      <c r="L27" s="12" t="n">
+      <c r="L27" s="25" t="n">
         <v>234</v>
       </c>
-      <c r="M27" s="12" t="n">
+      <c r="M27" s="25" t="n">
         <v>596</v>
       </c>
-      <c r="N27" s="12" t="n">
+      <c r="N27" s="25" t="n">
         <v>664</v>
       </c>
-      <c r="O27" s="12" t="n">
+      <c r="O27" s="25" t="n">
         <v>846</v>
       </c>
-      <c r="P27" s="12" t="n">
+      <c r="P27" s="25" t="n">
         <v>943</v>
       </c>
-      <c r="Q27" s="12" t="n">
+      <c r="Q27" s="25" t="n">
         <v>1071</v>
       </c>
-      <c r="R27" s="12" t="n">
+      <c r="R27" s="25" t="n">
         <v>1130</v>
       </c>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12" t="n">
+      <c r="S27" s="23" t="n"/>
+      <c r="T27" s="23" t="n"/>
+      <c r="U27" s="25" t="n"/>
+      <c r="V27" s="25" t="n">
         <v>-20.93</v>
       </c>
-      <c r="W27" s="12" t="n">
+      <c r="W27" s="25" t="n">
         <v>39.85</v>
       </c>
-      <c r="X27" s="12" t="s">
+      <c r="X27" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
+    <row customHeight="1" ht="15" r="28" s="15" spans="1:26">
+      <c r="A28" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12" t="n">
+      <c r="B28" s="25" t="n"/>
+      <c r="C28" s="25" t="n">
         <v>422</v>
       </c>
-      <c r="D28" s="12" t="n">
+      <c r="D28" s="25" t="n">
         <v>840</v>
       </c>
-      <c r="E28" s="12" t="n">
+      <c r="E28" s="25" t="n">
         <v>38</v>
       </c>
-      <c r="F28" s="12" t="n">
+      <c r="F28" s="25" t="n">
         <v>331</v>
       </c>
-      <c r="G28" s="12" t="n">
+      <c r="G28" s="25" t="n">
         <v>102</v>
       </c>
-      <c r="H28" s="12" t="n">
+      <c r="H28" s="25" t="n">
         <v>1022</v>
       </c>
-      <c r="I28" s="12" t="n">
+      <c r="I28" s="25" t="n">
         <v>942</v>
       </c>
-      <c r="J28" s="10" t="n">
+      <c r="J28" s="23" t="n">
         <v>102</v>
       </c>
-      <c r="K28" s="10" t="n">
+      <c r="K28" s="23" t="n">
         <v>1005</v>
       </c>
-      <c r="L28" s="12" t="n">
+      <c r="L28" s="25" t="n">
         <v>203</v>
       </c>
-      <c r="M28" s="12" t="n">
+      <c r="M28" s="25" t="n">
         <v>496</v>
       </c>
-      <c r="N28" s="12" t="n">
+      <c r="N28" s="25" t="n">
         <v>587</v>
       </c>
-      <c r="O28" s="12" t="n">
+      <c r="O28" s="25" t="n">
         <v>942</v>
       </c>
-      <c r="P28" s="12" t="n">
+      <c r="P28" s="25" t="n">
         <v>1022</v>
       </c>
-      <c r="Q28" s="12" t="n">
+      <c r="Q28" s="25" t="n">
         <v>1893</v>
       </c>
-      <c r="R28" s="12" t="n">
+      <c r="R28" s="25" t="n">
         <v>1091</v>
       </c>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12" t="n">
+      <c r="S28" s="23" t="n"/>
+      <c r="T28" s="23" t="n"/>
+      <c r="U28" s="25" t="n"/>
+      <c r="V28" s="25" t="n">
         <v>-14.71</v>
       </c>
-      <c r="W28" s="12" t="n">
+      <c r="W28" s="25" t="n">
         <v>55.13</v>
       </c>
-      <c r="X28" s="12" t="s">
+      <c r="X28" s="25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+    <row customHeight="1" ht="15" r="29" s="15" spans="1:26">
+      <c r="A29" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12" t="n">
+      <c r="B29" s="25" t="n"/>
+      <c r="C29" s="25" t="n">
         <v>434</v>
       </c>
-      <c r="D29" s="12" t="n">
+      <c r="D29" s="25" t="n">
         <v>976</v>
       </c>
-      <c r="E29" s="12" t="n">
+      <c r="E29" s="25" t="n">
         <v>40</v>
       </c>
-      <c r="F29" s="12" t="n">
+      <c r="F29" s="25" t="n">
         <v>341</v>
       </c>
-      <c r="G29" s="12" t="n">
+      <c r="G29" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="H29" s="12" t="n">
+      <c r="H29" s="25" t="n">
         <v>974</v>
       </c>
-      <c r="I29" s="12" t="n">
+      <c r="I29" s="25" t="n">
         <v>883</v>
       </c>
-      <c r="J29" s="10" t="n">
+      <c r="J29" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="K29" s="10" t="n">
+      <c r="K29" s="23" t="n">
         <v>987</v>
       </c>
-      <c r="L29" s="12" t="n">
+      <c r="L29" s="25" t="n">
         <v>51</v>
       </c>
-      <c r="M29" s="12" t="n">
+      <c r="M29" s="25" t="n">
         <v>352</v>
       </c>
-      <c r="N29" s="12" t="n">
+      <c r="N29" s="25" t="n">
         <v>445</v>
       </c>
-      <c r="O29" s="12" t="n">
+      <c r="O29" s="25" t="n">
         <v>883</v>
       </c>
-      <c r="P29" s="12" t="n">
+      <c r="P29" s="25" t="n">
         <v>974</v>
       </c>
-      <c r="Q29" s="12" t="n">
+      <c r="Q29" s="25" t="n">
         <v>2036</v>
       </c>
-      <c r="R29" s="12" t="n">
+      <c r="R29" s="25" t="n">
         <v>1100</v>
       </c>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12" t="n">
+      <c r="S29" s="23" t="n"/>
+      <c r="T29" s="23" t="n"/>
+      <c r="U29" s="25" t="n"/>
+      <c r="V29" s="25" t="n">
         <v>-19.76</v>
       </c>
-      <c r="W29" s="12" t="n">
+      <c r="W29" s="25" t="n">
         <v>36.34</v>
       </c>
-      <c r="X29" s="12" t="s">
+      <c r="X29" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+    <row customHeight="1" ht="15" r="30" s="15" spans="1:26">
+      <c r="A30" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12" t="n">
+      <c r="B30" s="25" t="n"/>
+      <c r="C30" s="25" t="n">
         <v>351</v>
       </c>
-      <c r="D30" s="12" t="n">
+      <c r="D30" s="25" t="n">
         <v>26</v>
       </c>
-      <c r="E30" s="12" t="n">
+      <c r="E30" s="25" t="n">
         <v>74</v>
       </c>
-      <c r="F30" s="12" t="n">
+      <c r="F30" s="25" t="n">
         <v>384</v>
       </c>
-      <c r="G30" s="12" t="n">
+      <c r="G30" s="25" t="n">
         <v>61</v>
       </c>
-      <c r="H30" s="12" t="n">
+      <c r="H30" s="25" t="n">
         <v>976</v>
       </c>
-      <c r="I30" s="12" t="n">
+      <c r="I30" s="25" t="n">
         <v>865</v>
       </c>
-      <c r="J30" s="10" t="n">
+      <c r="J30" s="23" t="n">
         <v>61</v>
       </c>
-      <c r="K30" s="10" t="n">
+      <c r="K30" s="23" t="n">
         <v>196</v>
       </c>
-      <c r="L30" s="12" t="n">
+      <c r="L30" s="25" t="n">
         <v>244</v>
       </c>
-      <c r="M30" s="12" t="n">
+      <c r="M30" s="25" t="n">
         <v>554</v>
       </c>
-      <c r="N30" s="12" t="n">
+      <c r="N30" s="25" t="n">
         <v>521</v>
       </c>
-      <c r="O30" s="12" t="n">
+      <c r="O30" s="25" t="n">
         <v>865</v>
       </c>
-      <c r="P30" s="12" t="n">
+      <c r="P30" s="25" t="n">
         <v>976</v>
       </c>
-      <c r="Q30" s="12" t="n">
+      <c r="Q30" s="25" t="n">
         <v>1088</v>
       </c>
-      <c r="R30" s="12" t="n">
+      <c r="R30" s="25" t="n">
         <v>1136</v>
       </c>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12" t="n">
+      <c r="S30" s="23" t="n"/>
+      <c r="T30" s="23" t="n"/>
+      <c r="U30" s="25" t="n"/>
+      <c r="V30" s="25" t="n">
         <v>-16.63</v>
       </c>
-      <c r="W30" s="12" t="n">
+      <c r="W30" s="25" t="n">
         <v>131.73</v>
       </c>
-      <c r="X30" s="12" t="s">
+      <c r="X30" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12" t="s">
+    <row customHeight="1" ht="15" r="31" s="15" spans="1:26">
+      <c r="A31" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="n">
+      <c r="B31" s="25" t="n"/>
+      <c r="C31" s="25" t="n">
         <v>445</v>
       </c>
-      <c r="D31" s="12" t="n">
+      <c r="D31" s="25" t="n">
         <v>817</v>
       </c>
-      <c r="E31" s="12" t="n">
+      <c r="E31" s="25" t="n">
         <v>60</v>
       </c>
-      <c r="F31" s="12" t="n">
+      <c r="F31" s="25" t="n">
         <v>399</v>
       </c>
-      <c r="G31" s="12" t="n">
+      <c r="G31" s="25" t="n">
         <v>42</v>
       </c>
-      <c r="H31" s="12" t="n">
+      <c r="H31" s="25" t="n">
         <v>842</v>
       </c>
-      <c r="I31" s="12" t="n">
+      <c r="I31" s="25" t="n">
         <v>747</v>
       </c>
-      <c r="J31" s="10" t="n">
+      <c r="J31" s="23" t="n">
         <v>42</v>
       </c>
-      <c r="K31" s="10" t="n">
+      <c r="K31" s="23" t="n">
         <v>974</v>
       </c>
-      <c r="L31" s="12" t="n">
+      <c r="L31" s="25" t="n">
         <v>217</v>
       </c>
-      <c r="M31" s="12" t="n">
+      <c r="M31" s="25" t="n">
         <v>556</v>
       </c>
-      <c r="N31" s="12" t="n">
+      <c r="N31" s="25" t="n">
         <v>602</v>
       </c>
-      <c r="O31" s="12" t="n">
+      <c r="O31" s="25" t="n">
         <v>747</v>
       </c>
-      <c r="P31" s="12" t="n">
+      <c r="P31" s="25" t="n">
         <v>842</v>
       </c>
-      <c r="Q31" s="12" t="n">
+      <c r="Q31" s="25" t="n">
         <v>1761</v>
       </c>
-      <c r="R31" s="12" t="n">
+      <c r="R31" s="25" t="n">
         <v>1004</v>
       </c>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12" t="n">
+      <c r="S31" s="23" t="n"/>
+      <c r="T31" s="23" t="n"/>
+      <c r="U31" s="25" t="n"/>
+      <c r="V31" s="25" t="n">
         <v>-20.47</v>
       </c>
-      <c r="W31" s="12" t="n">
+      <c r="W31" s="25" t="n">
         <v>54.84</v>
       </c>
-      <c r="X31" s="12" t="s">
+      <c r="X31" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12" t="s">
+    <row customHeight="1" ht="15" r="32" s="15" spans="1:26">
+      <c r="A32" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12" t="n">
+      <c r="B32" s="25" t="n"/>
+      <c r="C32" s="25" t="n">
         <v>443</v>
       </c>
-      <c r="D32" s="12" t="n">
+      <c r="D32" s="25" t="n">
         <v>783</v>
       </c>
-      <c r="E32" s="12" t="n">
+      <c r="E32" s="25" t="n">
         <v>61</v>
       </c>
-      <c r="F32" s="12" t="n">
+      <c r="F32" s="25" t="n">
         <v>359</v>
       </c>
-      <c r="G32" s="12" t="n">
+      <c r="G32" s="25" t="n">
         <v>26</v>
       </c>
-      <c r="H32" s="12" t="n">
+      <c r="H32" s="25" t="n">
         <v>701</v>
       </c>
-      <c r="I32" s="12" t="n">
+      <c r="I32" s="25" t="n">
         <v>607</v>
       </c>
-      <c r="J32" s="10" t="n">
+      <c r="J32" s="23" t="n">
         <v>26</v>
       </c>
-      <c r="K32" s="10" t="n">
+      <c r="K32" s="23" t="n">
         <v>914</v>
       </c>
-      <c r="L32" s="12" t="n">
+      <c r="L32" s="25" t="n">
         <v>192</v>
       </c>
-      <c r="M32" s="12" t="n">
+      <c r="M32" s="25" t="n">
         <v>490</v>
       </c>
-      <c r="N32" s="12" t="n">
+      <c r="N32" s="25" t="n">
         <v>574</v>
       </c>
-      <c r="O32" s="12" t="n">
+      <c r="O32" s="25" t="n">
         <v>607</v>
       </c>
-      <c r="P32" s="12" t="n">
+      <c r="P32" s="25" t="n">
         <v>701</v>
       </c>
-      <c r="Q32" s="12" t="n">
+      <c r="Q32" s="25" t="n">
         <v>1596</v>
       </c>
-      <c r="R32" s="12" t="n">
+      <c r="R32" s="25" t="n">
         <v>874</v>
       </c>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12" t="n">
+      <c r="S32" s="23" t="n"/>
+      <c r="T32" s="23" t="n"/>
+      <c r="U32" s="25" t="n"/>
+      <c r="V32" s="25" t="n">
         <v>-17.6</v>
       </c>
-      <c r="W32" s="12" t="n">
+      <c r="W32" s="25" t="n">
         <v>46.39</v>
       </c>
-      <c r="X32" s="12" t="s">
+      <c r="X32" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="33" s="25" spans="1:26">
+      <c r="A33" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="10" t="n">
+      <c r="C33" s="23" t="n">
         <v>463</v>
       </c>
-      <c r="D33" s="10" t="n">
+      <c r="D33" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="E33" s="10" t="n">
+      <c r="E33" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="F33" s="10" t="n">
+      <c r="F33" s="23" t="n">
         <v>385</v>
       </c>
-      <c r="G33" s="12" t="n">
+      <c r="G33" s="25" t="n">
         <v>126</v>
       </c>
-      <c r="H33" s="12" t="n">
+      <c r="H33" s="25" t="n">
         <v>1255</v>
       </c>
-      <c r="I33" s="12" t="n">
+      <c r="I33" s="25" t="n">
         <v>1125</v>
       </c>
-      <c r="J33" s="12" t="n">
+      <c r="J33" s="25" t="n">
         <v>126</v>
       </c>
-      <c r="K33" s="12" t="n">
+      <c r="K33" s="25" t="n">
         <v>221</v>
       </c>
-      <c r="L33" s="12" t="n">
+      <c r="L33" s="25" t="n">
         <v>269</v>
       </c>
-      <c r="M33" s="12" t="n">
+      <c r="M33" s="25" t="n">
         <v>598</v>
       </c>
-      <c r="N33" s="12" t="n">
+      <c r="N33" s="25" t="n">
         <v>676</v>
       </c>
-      <c r="O33" s="12" t="n">
+      <c r="O33" s="25" t="n">
         <v>1125</v>
       </c>
-      <c r="P33" s="12" t="n">
+      <c r="P33" s="25" t="n">
         <v>1255</v>
       </c>
-      <c r="Q33" s="12" t="n">
+      <c r="Q33" s="25" t="n">
         <v>1336</v>
       </c>
-      <c r="R33" s="12" t="n">
+      <c r="R33" s="25" t="n">
         <v>1384</v>
       </c>
-      <c r="V33" s="12" t="n">
+      <c r="V33" s="25" t="n">
         <v>-16.96</v>
       </c>
-      <c r="W33" s="12" t="n">
+      <c r="W33" s="25" t="n">
         <v>28.07</v>
       </c>
-      <c r="X33" s="10" t="s">
+      <c r="X33" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="34" s="25" spans="1:26">
+      <c r="A34" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="10" t="n">
+      <c r="C34" s="23" t="n">
         <v>488</v>
       </c>
-      <c r="D34" s="10" t="n">
+      <c r="D34" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="E34" s="10" t="n">
+      <c r="E34" s="23" t="n">
         <v>47</v>
       </c>
-      <c r="F34" s="10" t="n">
+      <c r="F34" s="23" t="n">
         <v>355</v>
       </c>
-      <c r="G34" s="12" t="n">
+      <c r="G34" s="25" t="n">
         <v>117</v>
       </c>
-      <c r="H34" s="12" t="n">
+      <c r="H34" s="25" t="n">
         <v>1234</v>
       </c>
-      <c r="I34" s="12" t="n">
+      <c r="I34" s="25" t="n">
         <v>1124</v>
       </c>
-      <c r="J34" s="12" t="n">
+      <c r="J34" s="25" t="n">
         <v>117</v>
       </c>
-      <c r="K34" s="12" t="n">
+      <c r="K34" s="25" t="n">
         <v>224</v>
       </c>
-      <c r="L34" s="12" t="n">
+      <c r="L34" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="M34" s="12" t="n">
+      <c r="M34" s="25" t="n">
         <v>568</v>
       </c>
-      <c r="N34" s="12" t="n">
+      <c r="N34" s="25" t="n">
         <v>701</v>
       </c>
-      <c r="O34" s="12" t="n">
+      <c r="O34" s="25" t="n">
         <v>1124</v>
       </c>
-      <c r="P34" s="12" t="n">
+      <c r="P34" s="25" t="n">
         <v>1234</v>
       </c>
-      <c r="Q34" s="12" t="n">
+      <c r="Q34" s="25" t="n">
         <v>1326</v>
       </c>
-      <c r="R34" s="12" t="n">
+      <c r="R34" s="25" t="n">
         <v>1362</v>
       </c>
-      <c r="V34" s="12" t="n">
+      <c r="V34" s="25" t="n">
         <v>-20.28</v>
       </c>
-      <c r="W34" s="12" t="n">
+      <c r="W34" s="25" t="n">
         <v>31.12</v>
       </c>
-      <c r="X34" s="10" t="s">
+      <c r="X34" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="35" s="25" spans="1:26">
+      <c r="A35" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="10" t="n">
+      <c r="C35" s="23" t="n">
         <v>454</v>
       </c>
-      <c r="D35" s="10" t="n">
+      <c r="D35" s="23" t="n">
         <v>21</v>
       </c>
-      <c r="E35" s="10" t="n">
+      <c r="E35" s="23" t="n">
         <v>71</v>
       </c>
-      <c r="F35" s="10" t="n">
+      <c r="F35" s="23" t="n">
         <v>393</v>
       </c>
-      <c r="G35" s="12" t="n">
+      <c r="G35" s="25" t="n">
         <v>179</v>
       </c>
-      <c r="H35" s="12" t="n">
+      <c r="H35" s="25" t="n">
         <v>1479</v>
       </c>
-      <c r="I35" s="12" t="n">
+      <c r="I35" s="25" t="n">
         <v>1377</v>
       </c>
-      <c r="J35" s="12" t="n">
+      <c r="J35" s="25" t="n">
         <v>179</v>
       </c>
-      <c r="K35" s="12" t="n">
+      <c r="K35" s="25" t="n">
         <v>273</v>
       </c>
-      <c r="L35" s="12" t="n">
+      <c r="L35" s="25" t="n">
         <v>323</v>
       </c>
-      <c r="M35" s="12" t="n">
+      <c r="M35" s="25" t="n">
         <v>645</v>
       </c>
-      <c r="N35" s="12" t="n">
+      <c r="N35" s="25" t="n">
         <v>706</v>
       </c>
-      <c r="O35" s="12" t="n">
+      <c r="O35" s="25" t="n">
         <v>1377</v>
       </c>
-      <c r="P35" s="12" t="n">
+      <c r="P35" s="25" t="n">
         <v>1479</v>
       </c>
-      <c r="Q35" s="12" t="n">
+      <c r="Q35" s="25" t="n">
         <v>1575</v>
       </c>
-      <c r="R35" s="12" t="n">
+      <c r="R35" s="25" t="n">
         <v>1625</v>
       </c>
-      <c r="V35" s="12" t="n">
+      <c r="V35" s="25" t="n">
         <v>-23.06</v>
       </c>
-      <c r="W35" s="12" t="n">
+      <c r="W35" s="25" t="n">
         <v>39.57</v>
       </c>
-      <c r="X35" s="10" t="s">
+      <c r="X35" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="36" s="25" spans="1:26">
+      <c r="A36" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="10" t="n">
+      <c r="C36" s="23" t="n">
         <v>422</v>
       </c>
-      <c r="D36" s="10" t="n">
+      <c r="D36" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="E36" s="10" t="n">
+      <c r="E36" s="23" t="n">
         <v>84</v>
       </c>
-      <c r="F36" s="10" t="n">
+      <c r="F36" s="23" t="n">
         <v>348</v>
       </c>
-      <c r="G36" s="12" t="n">
+      <c r="G36" s="25" t="n">
         <v>93</v>
       </c>
-      <c r="H36" s="12" t="n">
+      <c r="H36" s="25" t="n">
         <v>1125</v>
       </c>
-      <c r="I36" s="12" t="n">
+      <c r="I36" s="25" t="n">
         <v>1001</v>
       </c>
-      <c r="J36" s="12" t="n">
+      <c r="J36" s="25" t="n">
         <v>93</v>
       </c>
-      <c r="K36" s="12" t="n">
+      <c r="K36" s="25" t="n">
         <v>206</v>
       </c>
-      <c r="L36" s="12" t="n">
+      <c r="L36" s="25" t="n">
         <v>283</v>
       </c>
-      <c r="M36" s="12" t="n">
+      <c r="M36" s="25" t="n">
         <v>547</v>
       </c>
-      <c r="N36" s="12" t="n">
+      <c r="N36" s="25" t="n">
         <v>621</v>
       </c>
-      <c r="O36" s="12" t="n">
+      <c r="O36" s="25" t="n">
         <v>1001</v>
       </c>
-      <c r="P36" s="12" t="n">
+      <c r="P36" s="25" t="n">
         <v>1125</v>
       </c>
-      <c r="Q36" s="12" t="n">
+      <c r="Q36" s="25" t="n">
         <v>1216</v>
       </c>
-      <c r="R36" s="12" t="n">
+      <c r="R36" s="25" t="n">
         <v>1293</v>
       </c>
-      <c r="V36" s="12" t="n">
+      <c r="V36" s="25" t="n">
         <v>-19.91</v>
       </c>
-      <c r="W36" s="12" t="n">
+      <c r="W36" s="25" t="n">
         <v>27.32</v>
       </c>
-      <c r="X36" s="10" t="s">
+      <c r="X36" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="37" s="25" spans="1:26">
+      <c r="A37" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="10" t="n">
+      <c r="C37" s="23" t="n">
         <v>485</v>
       </c>
-      <c r="D37" s="10" t="n">
+      <c r="D37" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="10" t="n">
+      <c r="E37" s="23" t="n">
         <v>81</v>
       </c>
-      <c r="F37" s="10" t="n">
+      <c r="F37" s="23" t="n">
         <v>387</v>
       </c>
-      <c r="G37" s="12" t="n">
+      <c r="G37" s="25" t="n">
         <v>91</v>
       </c>
-      <c r="H37" s="12" t="n">
+      <c r="H37" s="25" t="n">
         <v>1131</v>
       </c>
-      <c r="I37" s="12" t="n">
+      <c r="I37" s="25" t="n">
         <v>1034</v>
       </c>
-      <c r="J37" s="12" t="n">
+      <c r="J37" s="25" t="n">
         <v>91</v>
       </c>
-      <c r="K37" s="12" t="n">
+      <c r="K37" s="25" t="n">
         <v>198</v>
       </c>
-      <c r="L37" s="12" t="n">
+      <c r="L37" s="25" t="n">
         <v>278</v>
       </c>
-      <c r="M37" s="12" t="n">
+      <c r="M37" s="25" t="n">
         <v>584</v>
       </c>
-      <c r="N37" s="12" t="n">
+      <c r="N37" s="25" t="n">
         <v>682</v>
       </c>
-      <c r="O37" s="12" t="n">
+      <c r="O37" s="25" t="n">
         <v>1034</v>
       </c>
-      <c r="P37" s="12" t="n">
+      <c r="P37" s="25" t="n">
         <v>1131</v>
       </c>
-      <c r="Q37" s="12" t="n">
+      <c r="Q37" s="25" t="n">
         <v>1230</v>
       </c>
-      <c r="R37" s="12" t="n">
+      <c r="R37" s="25" t="n">
         <v>1310</v>
       </c>
-      <c r="V37" s="12" t="n">
+      <c r="V37" s="25" t="n">
         <v>-21.22</v>
       </c>
-      <c r="W37" s="12" t="n">
+      <c r="W37" s="25" t="n">
         <v>34.71</v>
       </c>
-      <c r="X37" s="10" t="s">
+      <c r="X37" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="38" s="25" spans="1:26">
+      <c r="A38" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="10" t="n">
+      <c r="C38" s="23" t="n">
         <v>445</v>
       </c>
-      <c r="D38" s="10" t="n">
+      <c r="D38" s="23" t="n">
         <v>36</v>
       </c>
-      <c r="E38" s="10" t="n">
+      <c r="E38" s="23" t="n">
         <v>81</v>
       </c>
-      <c r="F38" s="10" t="n">
+      <c r="F38" s="23" t="n">
         <v>394</v>
       </c>
-      <c r="G38" s="12" t="n">
+      <c r="G38" s="25" t="n">
         <v>96</v>
       </c>
-      <c r="H38" s="12" t="n">
+      <c r="H38" s="25" t="n">
         <v>1044</v>
       </c>
-      <c r="I38" s="12" t="n">
+      <c r="I38" s="25" t="n">
         <v>905</v>
       </c>
-      <c r="J38" s="12" t="n">
+      <c r="J38" s="25" t="n">
         <v>96</v>
       </c>
-      <c r="K38" s="12" t="n">
+      <c r="K38" s="25" t="n">
         <v>222</v>
       </c>
-      <c r="L38" s="12" t="n">
+      <c r="L38" s="25" t="n">
         <v>267</v>
       </c>
-      <c r="M38" s="12" t="n">
+      <c r="M38" s="25" t="n">
         <v>580</v>
       </c>
-      <c r="N38" s="12" t="n">
+      <c r="N38" s="25" t="n">
         <v>631</v>
       </c>
-      <c r="O38" s="12" t="n">
+      <c r="O38" s="25" t="n">
         <v>905</v>
       </c>
-      <c r="P38" s="12" t="n">
+      <c r="P38" s="25" t="n">
         <v>1044</v>
       </c>
-      <c r="Q38" s="12" t="n">
+      <c r="Q38" s="25" t="n">
         <v>1152</v>
       </c>
-      <c r="R38" s="12" t="n">
+      <c r="R38" s="25" t="n">
         <v>1197</v>
       </c>
-      <c r="V38" s="12" t="n">
+      <c r="V38" s="25" t="n">
         <v>-24.62</v>
       </c>
-      <c r="W38" s="12" t="n">
+      <c r="W38" s="25" t="n">
         <v>27.23</v>
       </c>
-      <c r="X38" s="10" t="s">
+      <c r="X38" s="23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="39" s="25" spans="1:26">
+      <c r="A39" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="10" t="n">
+      <c r="C39" s="23" t="n">
         <v>468</v>
       </c>
-      <c r="D39" s="10" t="n">
+      <c r="D39" s="23" t="n">
         <v>38</v>
       </c>
-      <c r="E39" s="10" t="n">
+      <c r="E39" s="23" t="n">
         <v>72</v>
       </c>
-      <c r="F39" s="10" t="n">
+      <c r="F39" s="23" t="n">
         <v>397</v>
       </c>
-      <c r="G39" s="12" t="n">
+      <c r="G39" s="25" t="n">
         <v>114</v>
       </c>
-      <c r="H39" s="12" t="n">
+      <c r="H39" s="25" t="n">
         <v>1109</v>
       </c>
-      <c r="I39" s="12" t="n">
+      <c r="I39" s="25" t="n">
         <v>992</v>
       </c>
-      <c r="J39" s="12" t="n">
+      <c r="J39" s="25" t="n">
         <v>114</v>
       </c>
-      <c r="K39" s="12" t="n">
+      <c r="K39" s="25" t="n">
         <v>226</v>
       </c>
-      <c r="L39" s="12" t="n">
+      <c r="L39" s="25" t="n">
         <v>260</v>
       </c>
-      <c r="M39" s="12" t="n">
+      <c r="M39" s="25" t="n">
         <v>585</v>
       </c>
-      <c r="N39" s="12" t="n">
+      <c r="N39" s="25" t="n">
         <v>656</v>
       </c>
-      <c r="O39" s="12" t="n">
+      <c r="O39" s="25" t="n">
         <v>992</v>
       </c>
-      <c r="P39" s="12" t="n">
+      <c r="P39" s="25" t="n">
         <v>1109</v>
       </c>
-      <c r="Q39" s="12" t="n">
+      <c r="Q39" s="25" t="n">
         <v>1207</v>
       </c>
-      <c r="R39" s="12" t="n">
+      <c r="R39" s="25" t="n">
         <v>1241</v>
       </c>
-      <c r="V39" s="12" t="n">
+      <c r="V39" s="25" t="n">
         <v>-19.57</v>
       </c>
-      <c r="W39" s="12" t="n">
+      <c r="W39" s="25" t="n">
         <v>35.43</v>
       </c>
-      <c r="X39" s="10" t="s">
+      <c r="X39" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="40" s="25" spans="1:26">
+      <c r="A40" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="10" t="n">
+      <c r="C40" s="23" t="n">
         <v>586</v>
       </c>
-      <c r="D40" s="10" t="n">
+      <c r="D40" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="E40" s="10" t="n">
+      <c r="E40" s="23" t="n">
         <v>158</v>
       </c>
-      <c r="F40" s="10" t="n">
+      <c r="F40" s="23" t="n">
         <v>440</v>
       </c>
-      <c r="G40" s="12" t="n">
+      <c r="G40" s="25" t="n">
         <v>118</v>
       </c>
-      <c r="H40" s="12" t="n">
+      <c r="H40" s="25" t="n">
         <v>1330</v>
       </c>
-      <c r="I40" s="12" t="n">
+      <c r="I40" s="25" t="n">
         <v>1211</v>
       </c>
-      <c r="J40" s="12" t="n">
+      <c r="J40" s="25" t="n">
         <v>118</v>
       </c>
-      <c r="K40" s="12" t="n">
+      <c r="K40" s="25" t="n">
         <v>271</v>
       </c>
-      <c r="L40" s="12" t="n">
+      <c r="L40" s="25" t="n">
         <v>389</v>
       </c>
-      <c r="M40" s="12" t="n">
+      <c r="M40" s="25" t="n">
         <v>671</v>
       </c>
-      <c r="N40" s="12" t="n">
+      <c r="N40" s="25" t="n">
         <v>817</v>
       </c>
-      <c r="O40" s="12" t="n">
+      <c r="O40" s="25" t="n">
         <v>1211</v>
       </c>
-      <c r="P40" s="12" t="n">
+      <c r="P40" s="25" t="n">
         <v>1330</v>
       </c>
-      <c r="Q40" s="12" t="n">
+      <c r="Q40" s="25" t="n">
         <v>1461</v>
       </c>
-      <c r="R40" s="12" t="n">
+      <c r="R40" s="25" t="n">
         <v>1579</v>
       </c>
-      <c r="V40" s="12" t="n">
+      <c r="V40" s="25" t="n">
         <v>-6.46</v>
       </c>
-      <c r="W40" s="12" t="n">
-        <v>73.43</v>
-      </c>
-      <c r="X40" s="10" t="s">
+      <c r="W40" s="25" t="n">
+        <v>73.43000000000001</v>
+      </c>
+      <c r="X40" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="41" s="25" spans="1:26">
+      <c r="A41" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="13" t="n">
+      <c r="C41" s="26" t="n">
         <v>374</v>
       </c>
-      <c r="D41" s="13" t="n">
+      <c r="D41" s="26" t="n">
         <v>104</v>
       </c>
-      <c r="E41" s="13" t="n">
+      <c r="E41" s="26" t="n">
         <v>67</v>
       </c>
-      <c r="F41" s="13" t="n">
+      <c r="F41" s="26" t="n">
         <v>281</v>
       </c>
-      <c r="G41" s="12" t="n">
+      <c r="G41" s="25" t="n">
         <v>33</v>
       </c>
-      <c r="H41" s="12" t="n">
+      <c r="H41" s="25" t="n">
         <v>575</v>
       </c>
-      <c r="I41" s="12" t="n">
+      <c r="I41" s="25" t="n">
         <v>477</v>
       </c>
-      <c r="J41" s="12" t="n">
+      <c r="J41" s="25" t="n">
         <v>33</v>
       </c>
-      <c r="K41" s="12" t="n">
+      <c r="K41" s="25" t="n">
         <v>213</v>
       </c>
-      <c r="L41" s="12" t="n">
+      <c r="L41" s="25" t="n">
         <v>176</v>
       </c>
-      <c r="M41" s="12" t="n">
+      <c r="M41" s="25" t="n">
         <v>390</v>
       </c>
-      <c r="N41" s="12" t="n">
+      <c r="N41" s="25" t="n">
         <v>483</v>
       </c>
-      <c r="O41" s="12" t="n">
+      <c r="O41" s="25" t="n">
         <v>477</v>
       </c>
-      <c r="P41" s="12" t="n">
+      <c r="P41" s="25" t="n">
         <v>575</v>
       </c>
-      <c r="Q41" s="12" t="n">
+      <c r="Q41" s="25" t="n">
         <v>834</v>
       </c>
-      <c r="R41" s="12" t="n">
+      <c r="R41" s="25" t="n">
         <v>797</v>
       </c>
-      <c r="V41" s="12" t="n">
+      <c r="V41" s="25" t="n">
         <v>-3.37</v>
       </c>
-      <c r="W41" s="12" t="n">
+      <c r="W41" s="25" t="n">
         <v>44.35</v>
       </c>
-      <c r="X41" s="13" t="s">
+      <c r="X41" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="42" s="25" spans="1:26">
+      <c r="A42" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="13" t="n">
+      <c r="C42" s="26" t="n">
         <v>334</v>
       </c>
-      <c r="D42" s="13" t="n">
+      <c r="D42" s="26" t="n">
         <v>46</v>
       </c>
-      <c r="E42" s="13" t="n">
+      <c r="E42" s="26" t="n">
         <v>63</v>
       </c>
-      <c r="F42" s="13" t="n">
+      <c r="F42" s="26" t="n">
         <v>312</v>
       </c>
-      <c r="G42" s="12" t="n">
+      <c r="G42" s="25" t="n">
         <v>46</v>
       </c>
-      <c r="H42" s="12" t="n">
+      <c r="H42" s="25" t="n">
         <v>633</v>
       </c>
-      <c r="I42" s="12" t="n">
+      <c r="I42" s="25" t="n">
         <v>546</v>
       </c>
-      <c r="J42" s="12" t="n">
+      <c r="J42" s="25" t="n">
         <v>46</v>
       </c>
-      <c r="K42" s="12" t="n">
+      <c r="K42" s="25" t="n">
         <v>163</v>
       </c>
-      <c r="L42" s="12" t="n">
+      <c r="L42" s="25" t="n">
         <v>180</v>
       </c>
-      <c r="M42" s="12" t="n">
+      <c r="M42" s="25" t="n">
         <v>429</v>
       </c>
-      <c r="N42" s="12" t="n">
+      <c r="N42" s="25" t="n">
         <v>451</v>
       </c>
-      <c r="O42" s="12" t="n">
+      <c r="O42" s="25" t="n">
         <v>546</v>
       </c>
-      <c r="P42" s="12" t="n">
+      <c r="P42" s="25" t="n">
         <v>633</v>
       </c>
-      <c r="Q42" s="12" t="n">
+      <c r="Q42" s="25" t="n">
         <v>750</v>
       </c>
-      <c r="R42" s="12" t="n">
+      <c r="R42" s="25" t="n">
         <v>767</v>
       </c>
-      <c r="V42" s="12" t="n">
+      <c r="V42" s="25" t="n">
         <v>-5.22</v>
       </c>
-      <c r="W42" s="12" t="n">
+      <c r="W42" s="25" t="n">
         <v>103.59</v>
       </c>
-      <c r="X42" s="13" t="s">
+      <c r="X42" s="26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="43" s="25" spans="1:26">
+      <c r="A43" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="12" t="n">
+      <c r="C43" s="25" t="n">
         <v>540</v>
       </c>
-      <c r="D43" s="12" t="n">
+      <c r="D43" s="25" t="n">
         <v>19</v>
       </c>
-      <c r="E43" s="12" t="n">
+      <c r="E43" s="25" t="n">
         <v>117</v>
       </c>
-      <c r="F43" s="12" t="n">
+      <c r="F43" s="25" t="n">
         <v>384</v>
       </c>
-      <c r="G43" s="12" t="n">
+      <c r="G43" s="25" t="n">
         <v>127</v>
       </c>
-      <c r="H43" s="12" t="n">
+      <c r="H43" s="25" t="n">
         <v>1343</v>
       </c>
-      <c r="I43" s="12" t="n">
+      <c r="I43" s="25" t="n">
         <v>1174</v>
       </c>
-      <c r="J43" s="12" t="n">
+      <c r="J43" s="25" t="n">
         <v>127</v>
       </c>
-      <c r="K43" s="12" t="n">
+      <c r="K43" s="25" t="n">
         <v>247</v>
       </c>
-      <c r="L43" s="12" t="n">
+      <c r="L43" s="25" t="n">
         <v>345</v>
       </c>
-      <c r="M43" s="12" t="n">
+      <c r="M43" s="25" t="n">
         <v>612</v>
       </c>
-      <c r="N43" s="12" t="n">
+      <c r="N43" s="25" t="n">
         <v>768</v>
       </c>
-      <c r="O43" s="12" t="n">
+      <c r="O43" s="25" t="n">
         <v>1174</v>
       </c>
-      <c r="P43" s="12" t="n">
+      <c r="P43" s="25" t="n">
         <v>1343</v>
       </c>
-      <c r="Q43" s="12" t="n">
+      <c r="Q43" s="25" t="n">
         <v>1458</v>
       </c>
-      <c r="R43" s="12" t="n">
+      <c r="R43" s="25" t="n">
         <v>1556</v>
       </c>
-      <c r="V43" s="12" t="n">
+      <c r="V43" s="25" t="n">
         <v>-4.32</v>
       </c>
-      <c r="W43" s="12" t="n">
+      <c r="W43" s="25" t="n">
         <v>99.42</v>
       </c>
-      <c r="X43" s="12" t="s">
+      <c r="X43" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="44" s="25" spans="1:26">
+      <c r="A44" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="13" t="n">
+      <c r="C44" s="26" t="n">
         <v>467</v>
       </c>
-      <c r="D44" s="13" t="n">
+      <c r="D44" s="26" t="n">
         <v>43</v>
       </c>
-      <c r="E44" s="13" t="n">
+      <c r="E44" s="26" t="n">
         <v>172</v>
       </c>
-      <c r="F44" s="13" t="n">
+      <c r="F44" s="26" t="n">
         <v>402</v>
       </c>
-      <c r="G44" s="12" t="n">
+      <c r="G44" s="25" t="n">
         <v>53</v>
       </c>
-      <c r="H44" s="12" t="n">
+      <c r="H44" s="25" t="n">
         <v>877</v>
       </c>
-      <c r="I44" s="12" t="n">
+      <c r="I44" s="25" t="n">
         <v>740</v>
       </c>
-      <c r="J44" s="12" t="n">
+      <c r="J44" s="25" t="n">
         <v>53</v>
       </c>
-      <c r="K44" s="12" t="n">
+      <c r="K44" s="25" t="n">
         <v>196</v>
       </c>
-      <c r="L44" s="12" t="n">
+      <c r="L44" s="25" t="n">
         <v>325</v>
       </c>
-      <c r="M44" s="12" t="n">
+      <c r="M44" s="25" t="n">
         <v>555</v>
       </c>
-      <c r="N44" s="12" t="n">
+      <c r="N44" s="25" t="n">
         <v>620</v>
       </c>
-      <c r="O44" s="12" t="n">
+      <c r="O44" s="25" t="n">
         <v>740</v>
       </c>
-      <c r="P44" s="12" t="n">
+      <c r="P44" s="25" t="n">
         <v>877</v>
       </c>
-      <c r="Q44" s="12" t="n">
+      <c r="Q44" s="25" t="n">
         <v>998</v>
       </c>
-      <c r="R44" s="12" t="n">
+      <c r="R44" s="25" t="n">
         <v>1127</v>
       </c>
-      <c r="V44" s="12" t="n">
+      <c r="V44" s="25" t="n">
         <v>-9.83</v>
       </c>
-      <c r="W44" s="12" t="n">
+      <c r="W44" s="25" t="n">
         <v>53.22</v>
       </c>
-      <c r="X44" s="13" t="s">
+      <c r="X44" s="26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="45" s="25" spans="1:26">
+      <c r="A45" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="13" t="n">
+      <c r="C45" s="26" t="n">
         <v>635</v>
       </c>
-      <c r="D45" s="13" t="n">
+      <c r="D45" s="26" t="n">
         <v>28</v>
       </c>
-      <c r="E45" s="13" t="n">
+      <c r="E45" s="26" t="n">
         <v>186</v>
       </c>
-      <c r="F45" s="13" t="n">
+      <c r="F45" s="26" t="n">
         <v>436</v>
       </c>
-      <c r="G45" s="12" t="n">
+      <c r="G45" s="25" t="n">
         <v>65</v>
       </c>
-      <c r="H45" s="12" t="n">
+      <c r="H45" s="25" t="n">
         <v>1098</v>
       </c>
-      <c r="I45" s="12" t="n">
+      <c r="I45" s="25" t="n">
         <v>962</v>
       </c>
-      <c r="J45" s="12" t="n">
+      <c r="J45" s="25" t="n">
         <v>65</v>
       </c>
-      <c r="K45" s="12" t="n">
+      <c r="K45" s="25" t="n">
         <v>219</v>
       </c>
-      <c r="L45" s="12" t="n">
+      <c r="L45" s="25" t="n">
         <v>377</v>
       </c>
-      <c r="M45" s="12" t="n">
+      <c r="M45" s="25" t="n">
         <v>627</v>
       </c>
-      <c r="N45" s="12" t="n">
+      <c r="N45" s="25" t="n">
         <v>826</v>
       </c>
-      <c r="O45" s="12" t="n">
+      <c r="O45" s="25" t="n">
         <v>962</v>
       </c>
-      <c r="P45" s="12" t="n">
+      <c r="P45" s="25" t="n">
         <v>1098</v>
       </c>
-      <c r="Q45" s="12" t="n">
+      <c r="Q45" s="25" t="n">
         <v>1232</v>
       </c>
-      <c r="R45" s="12" t="n">
+      <c r="R45" s="25" t="n">
         <v>1390</v>
       </c>
-      <c r="V45" s="12" t="n">
+      <c r="V45" s="25" t="n">
         <v>-10.95</v>
       </c>
-      <c r="W45" s="12" t="n">
+      <c r="W45" s="25" t="n">
         <v>89.61</v>
       </c>
-      <c r="X45" s="13" t="s">
+      <c r="X45" s="26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="46" s="25" spans="1:26">
+      <c r="A46" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C46" s="13" t="n">
+      <c r="C46" s="26" t="n">
         <v>527</v>
       </c>
-      <c r="D46" s="13" t="n">
+      <c r="D46" s="26" t="n">
         <v>18</v>
       </c>
-      <c r="E46" s="13" t="n">
+      <c r="E46" s="26" t="n">
         <v>166</v>
       </c>
-      <c r="F46" s="13" t="n">
+      <c r="F46" s="26" t="n">
         <v>406</v>
       </c>
-      <c r="G46" s="12" t="n">
+      <c r="G46" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="H46" s="12" t="n">
+      <c r="H46" s="25" t="n">
         <v>938</v>
       </c>
-      <c r="I46" s="12" t="n">
+      <c r="I46" s="25" t="n">
         <v>818</v>
       </c>
-      <c r="J46" s="12" t="n">
+      <c r="J46" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="K46" s="12" t="n">
+      <c r="K46" s="25" t="n">
         <v>186</v>
       </c>
-      <c r="L46" s="12" t="n">
+      <c r="L46" s="25" t="n">
         <v>334</v>
       </c>
-      <c r="M46" s="12" t="n">
+      <c r="M46" s="25" t="n">
         <v>574</v>
       </c>
-      <c r="N46" s="12" t="n">
+      <c r="N46" s="25" t="n">
         <v>695</v>
       </c>
-      <c r="O46" s="12" t="n">
+      <c r="O46" s="25" t="n">
         <v>818</v>
       </c>
-      <c r="P46" s="12" t="n">
+      <c r="P46" s="25" t="n">
         <v>938</v>
       </c>
-      <c r="Q46" s="12" t="n">
+      <c r="Q46" s="25" t="n">
         <v>1070</v>
       </c>
-      <c r="R46" s="12" t="n">
+      <c r="R46" s="25" t="n">
         <v>1218</v>
       </c>
-      <c r="V46" s="12" t="n">
+      <c r="V46" s="25" t="n">
         <v>-10.47</v>
       </c>
-      <c r="W46" s="12" t="n">
+      <c r="W46" s="25" t="n">
         <v>74.62</v>
       </c>
-      <c r="X46" s="13" t="s">
+      <c r="X46" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="47" s="25" spans="1:26">
+      <c r="A47" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C47" s="13" t="n">
+      <c r="C47" s="26" t="n">
         <v>446</v>
       </c>
-      <c r="D47" s="13" t="n">
+      <c r="D47" s="26" t="n">
         <v>25</v>
       </c>
-      <c r="E47" s="13" t="n">
+      <c r="E47" s="26" t="n">
         <v>57</v>
       </c>
-      <c r="F47" s="13" t="n">
+      <c r="F47" s="26" t="n">
         <v>342</v>
       </c>
-      <c r="G47" s="12" t="n">
+      <c r="G47" s="25" t="n">
         <v>42</v>
       </c>
-      <c r="H47" s="12" t="n">
+      <c r="H47" s="25" t="n">
         <v>661</v>
       </c>
-      <c r="I47" s="12" t="n">
+      <c r="I47" s="25" t="n">
         <v>556</v>
       </c>
-      <c r="J47" s="12" t="n">
+      <c r="J47" s="25" t="n">
         <v>42</v>
       </c>
-      <c r="K47" s="12" t="n">
+      <c r="K47" s="25" t="n">
         <v>143</v>
       </c>
-      <c r="L47" s="12" t="n">
+      <c r="L47" s="25" t="n">
         <v>175</v>
       </c>
-      <c r="M47" s="12" t="n">
+      <c r="M47" s="25" t="n">
         <v>460</v>
       </c>
-      <c r="N47" s="12" t="n">
+      <c r="N47" s="25" t="n">
         <v>564</v>
       </c>
-      <c r="O47" s="12" t="n">
+      <c r="O47" s="25" t="n">
         <v>556</v>
       </c>
-      <c r="P47" s="12" t="n">
+      <c r="P47" s="25" t="n">
         <v>661</v>
       </c>
-      <c r="Q47" s="12" t="n">
+      <c r="Q47" s="25" t="n">
         <v>769</v>
       </c>
-      <c r="R47" s="12" t="n">
+      <c r="R47" s="25" t="n">
         <v>801</v>
       </c>
-      <c r="V47" s="12" t="n">
+      <c r="V47" s="25" t="n">
         <v>-11.15</v>
       </c>
-      <c r="W47" s="12" t="n">
+      <c r="W47" s="25" t="n">
         <v>57.8</v>
       </c>
-      <c r="X47" s="10" t="s">
+      <c r="X47" s="23" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="48" s="25" spans="1:26">
+      <c r="A48" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="13" t="n">
+      <c r="C48" s="26" t="n">
         <v>396</v>
       </c>
-      <c r="D48" s="13" t="n">
+      <c r="D48" s="26" t="n">
         <v>56</v>
       </c>
-      <c r="E48" s="13" t="n">
+      <c r="E48" s="26" t="n">
         <v>177</v>
       </c>
-      <c r="F48" s="13" t="n">
+      <c r="F48" s="26" t="n">
         <v>333</v>
       </c>
-      <c r="G48" s="12" t="n">
+      <c r="G48" s="25" t="n">
         <v>76</v>
       </c>
-      <c r="H48" s="12" t="n">
+      <c r="H48" s="25" t="n">
         <v>964</v>
       </c>
-      <c r="I48" s="12" t="n">
+      <c r="I48" s="25" t="n">
         <v>840</v>
       </c>
-      <c r="J48" s="12" t="n">
+      <c r="J48" s="25" t="n">
         <v>76</v>
       </c>
-      <c r="K48" s="12" t="n">
+      <c r="K48" s="25" t="n">
         <v>220</v>
       </c>
-      <c r="L48" s="12" t="n">
+      <c r="L48" s="25" t="n">
         <v>341</v>
       </c>
-      <c r="M48" s="12" t="n">
+      <c r="M48" s="25" t="n">
         <v>497</v>
       </c>
-      <c r="N48" s="12" t="n">
+      <c r="N48" s="25" t="n">
         <v>560</v>
       </c>
-      <c r="O48" s="12" t="n">
+      <c r="O48" s="25" t="n">
         <v>840</v>
       </c>
-      <c r="P48" s="12" t="n">
+      <c r="P48" s="25" t="n">
         <v>964</v>
       </c>
-      <c r="Q48" s="12" t="n">
+      <c r="Q48" s="25" t="n">
         <v>1078</v>
       </c>
-      <c r="R48" s="12" t="n">
+      <c r="R48" s="25" t="n">
         <v>1199</v>
       </c>
-      <c r="V48" s="12" t="n">
+      <c r="V48" s="25" t="n">
         <v>-3.69</v>
       </c>
-      <c r="W48" s="12" t="n">
+      <c r="W48" s="25" t="n">
         <v>94.58</v>
       </c>
-      <c r="X48" s="10" t="s">
+      <c r="X48" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="10" t="s">
+    <row customFormat="1" customHeight="1" ht="15" r="49" s="25" spans="1:26">
+      <c r="A49" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="10" t="n">
+      <c r="C49" s="23" t="n">
         <v>498</v>
       </c>
-      <c r="D49" s="10" t="n">
+      <c r="D49" s="23" t="n">
         <v>23</v>
       </c>
-      <c r="E49" s="10" t="n">
+      <c r="E49" s="23" t="n">
         <v>67</v>
       </c>
-      <c r="F49" s="10" t="n">
+      <c r="F49" s="23" t="n">
         <v>369</v>
       </c>
-      <c r="G49" s="12" t="n">
+      <c r="G49" s="25" t="n">
         <v>147</v>
       </c>
-      <c r="H49" s="12" t="n">
+      <c r="H49" s="25" t="n">
         <v>1208</v>
       </c>
-      <c r="I49" s="12" t="n">
+      <c r="I49" s="25" t="n">
         <v>1104</v>
       </c>
-      <c r="J49" s="12" t="n">
+      <c r="J49" s="25" t="n">
         <v>147</v>
       </c>
-      <c r="K49" s="12" t="n">
+      <c r="K49" s="25" t="n">
         <v>227</v>
       </c>
-      <c r="L49" s="12" t="n">
+      <c r="L49" s="25" t="n">
         <v>271</v>
       </c>
-      <c r="M49" s="12" t="n">
+      <c r="M49" s="25" t="n">
         <v>573</v>
       </c>
-      <c r="N49" s="12" t="n">
+      <c r="N49" s="25" t="n">
         <v>702</v>
       </c>
-      <c r="O49" s="12" t="n">
+      <c r="O49" s="25" t="n">
         <v>1104</v>
       </c>
-      <c r="P49" s="12" t="n">
+      <c r="P49" s="25" t="n">
         <v>1208</v>
       </c>
-      <c r="Q49" s="12" t="n">
+      <c r="Q49" s="25" t="n">
         <v>1267</v>
       </c>
-      <c r="R49" s="12" t="n">
+      <c r="R49" s="25" t="n">
         <v>1311</v>
       </c>
-      <c r="V49" s="12" t="n">
-        <v>-8.64</v>
-      </c>
-      <c r="W49" s="12" t="n">
+      <c r="V49" s="25" t="n">
+        <v>-8.640000000000001</v>
+      </c>
+      <c r="W49" s="25" t="n">
         <v>125.14</v>
       </c>
-      <c r="X49" s="10" t="s">
+      <c r="X49" s="23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
+    <row customHeight="1" ht="15" r="50" s="15" spans="1:26">
+      <c r="A50" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12" t="n">
+      <c r="B50" s="25" t="n"/>
+      <c r="C50" s="25" t="n">
         <v>465</v>
       </c>
-      <c r="D50" s="12" t="n">
+      <c r="D50" s="25" t="n">
         <v>754</v>
       </c>
-      <c r="E50" s="12" t="n">
+      <c r="E50" s="25" t="n">
         <v>91</v>
       </c>
-      <c r="F50" s="12" t="n">
+      <c r="F50" s="25" t="n">
         <v>363</v>
       </c>
-      <c r="G50" s="12" t="n">
+      <c r="G50" s="25" t="n">
         <v>71</v>
       </c>
-      <c r="H50" s="12" t="n">
+      <c r="H50" s="25" t="n">
         <v>885</v>
       </c>
-      <c r="I50" s="12" t="n">
+      <c r="I50" s="25" t="n">
         <v>782</v>
       </c>
-      <c r="J50" s="12" t="n">
+      <c r="J50" s="25" t="n">
         <v>71</v>
       </c>
-      <c r="K50" s="12" t="n">
+      <c r="K50" s="25" t="n">
         <v>915</v>
       </c>
-      <c r="L50" s="12" t="n">
+      <c r="L50" s="25" t="n">
         <v>252</v>
       </c>
-      <c r="M50" s="12" t="n">
+      <c r="M50" s="25" t="n">
         <v>524</v>
       </c>
-      <c r="N50" s="12" t="n">
+      <c r="N50" s="25" t="n">
         <v>626</v>
       </c>
-      <c r="O50" s="12" t="n">
+      <c r="O50" s="25" t="n">
         <v>782</v>
       </c>
-      <c r="P50" s="12" t="n">
+      <c r="P50" s="25" t="n">
         <v>885</v>
       </c>
-      <c r="Q50" s="12" t="n">
+      <c r="Q50" s="25" t="n">
         <v>1720</v>
       </c>
-      <c r="R50" s="12" t="n">
+      <c r="R50" s="25" t="n">
         <v>1057</v>
       </c>
-      <c r="S50" s="12"/>
-      <c r="T50" s="12"/>
-      <c r="U50" s="12"/>
-      <c r="V50" s="12" t="n">
+      <c r="S50" s="25" t="n"/>
+      <c r="T50" s="25" t="n"/>
+      <c r="U50" s="25" t="n"/>
+      <c r="V50" s="25" t="n">
         <v>-6.01</v>
       </c>
-      <c r="W50" s="12" t="n">
-        <v>64.32</v>
-      </c>
-      <c r="X50" s="12" t="s">
+      <c r="W50" s="25" t="n">
+        <v>64.31999999999999</v>
+      </c>
+      <c r="X50" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
+    <row customHeight="1" ht="15" r="51" s="15" spans="1:26">
+      <c r="A51" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12" t="n">
+      <c r="B51" s="25" t="n"/>
+      <c r="C51" s="25" t="n">
         <v>384</v>
       </c>
-      <c r="D51" s="12" t="n">
+      <c r="D51" s="25" t="n">
         <v>14</v>
       </c>
-      <c r="E51" s="12" t="n">
+      <c r="E51" s="25" t="n">
         <v>92</v>
       </c>
-      <c r="F51" s="12" t="n">
+      <c r="F51" s="25" t="n">
         <v>326</v>
       </c>
-      <c r="G51" s="12" t="n">
+      <c r="G51" s="25" t="n">
         <v>37</v>
       </c>
-      <c r="H51" s="12" t="n">
+      <c r="H51" s="25" t="n">
         <v>1024</v>
       </c>
-      <c r="I51" s="12" t="n">
+      <c r="I51" s="25" t="n">
         <v>868</v>
       </c>
-      <c r="J51" s="12" t="n">
+      <c r="J51" s="25" t="n">
         <v>37</v>
       </c>
-      <c r="K51" s="12" t="n">
+      <c r="K51" s="25" t="n">
         <v>197</v>
       </c>
-      <c r="L51" s="12" t="n">
+      <c r="L51" s="25" t="n">
         <v>275</v>
       </c>
-      <c r="M51" s="12" t="n">
+      <c r="M51" s="25" t="n">
         <v>509</v>
       </c>
-      <c r="N51" s="12" t="n">
+      <c r="N51" s="25" t="n">
         <v>567</v>
       </c>
-      <c r="O51" s="12" t="n">
+      <c r="O51" s="25" t="n">
         <v>868</v>
       </c>
-      <c r="P51" s="12" t="n">
+      <c r="P51" s="25" t="n">
         <v>1024</v>
       </c>
-      <c r="Q51" s="12" t="n">
+      <c r="Q51" s="25" t="n">
         <v>1156</v>
       </c>
-      <c r="R51" s="12" t="n">
+      <c r="R51" s="25" t="n">
         <v>1234</v>
       </c>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12" t="n">
+      <c r="S51" s="25" t="n"/>
+      <c r="T51" s="25" t="n"/>
+      <c r="U51" s="25" t="n"/>
+      <c r="V51" s="25" t="n">
         <v>-6.85</v>
       </c>
-      <c r="W51" s="12" t="n">
+      <c r="W51" s="25" t="n">
         <v>74.84</v>
       </c>
-      <c r="X51" s="12" t="s">
+      <c r="X51" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
+    <row customHeight="1" ht="15" r="52" s="15" spans="1:26">
+      <c r="A52" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12" t="n">
+      <c r="B52" s="25" t="n"/>
+      <c r="C52" s="25" t="n">
         <v>43</v>
       </c>
-      <c r="D52" s="12" t="n">
+      <c r="D52" s="25" t="n">
         <v>16</v>
       </c>
-      <c r="E52" s="12" t="n">
+      <c r="E52" s="25" t="n">
         <v>102</v>
       </c>
-      <c r="F52" s="12" t="n">
+      <c r="F52" s="25" t="n">
         <v>391</v>
       </c>
-      <c r="G52" s="12" t="n">
+      <c r="G52" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="H52" s="12" t="n">
+      <c r="H52" s="25" t="n">
         <v>797</v>
       </c>
-      <c r="I52" s="12" t="n">
+      <c r="I52" s="25" t="n">
         <v>686</v>
       </c>
-      <c r="J52" s="12" t="n">
+      <c r="J52" s="25" t="n">
         <v>24</v>
       </c>
-      <c r="K52" s="12" t="n">
+      <c r="K52" s="25" t="n">
         <v>151</v>
       </c>
-      <c r="L52" s="12" t="n">
+      <c r="L52" s="25" t="n">
         <v>237</v>
       </c>
-      <c r="M52" s="12" t="n">
+      <c r="M52" s="25" t="n">
         <v>526</v>
       </c>
-      <c r="N52" s="12" t="n">
+      <c r="N52" s="25" t="n">
         <v>178</v>
       </c>
-      <c r="O52" s="12" t="n">
+      <c r="O52" s="25" t="n">
         <v>686</v>
       </c>
-      <c r="P52" s="12" t="n">
+      <c r="P52" s="25" t="n">
         <v>797</v>
       </c>
-      <c r="Q52" s="12" t="n">
+      <c r="Q52" s="25" t="n">
         <v>895</v>
       </c>
-      <c r="R52" s="12" t="n">
+      <c r="R52" s="25" t="n">
         <v>981</v>
       </c>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12" t="n">
+      <c r="S52" s="25" t="n"/>
+      <c r="T52" s="25" t="n"/>
+      <c r="U52" s="25" t="n"/>
+      <c r="V52" s="25" t="n">
         <v>-10.11</v>
       </c>
-      <c r="W52" s="12" t="n">
+      <c r="W52" s="25" t="n">
         <v>72.2</v>
       </c>
-      <c r="X52" s="12" t="s">
+      <c r="X52" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
+    <row customHeight="1" ht="15" r="53" s="15" spans="1:26">
+      <c r="A53" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12" t="n">
+      <c r="B53" s="25" t="n"/>
+      <c r="C53" s="25" t="n">
         <v>493</v>
       </c>
-      <c r="D53" s="12" t="n">
+      <c r="D53" s="25" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="12" t="n">
+      <c r="E53" s="25" t="n">
         <v>139</v>
       </c>
-      <c r="F53" s="12" t="n">
+      <c r="F53" s="25" t="n">
         <v>395</v>
       </c>
-      <c r="G53" s="12" t="n">
+      <c r="G53" s="25" t="n">
         <v>37</v>
       </c>
-      <c r="H53" s="12" t="n">
+      <c r="H53" s="25" t="n">
         <v>759</v>
       </c>
-      <c r="I53" s="12" t="n">
+      <c r="I53" s="25" t="n">
         <v>652</v>
       </c>
-      <c r="J53" s="12" t="n">
+      <c r="J53" s="25" t="n">
         <v>37</v>
       </c>
-      <c r="K53" s="12" t="n">
+      <c r="K53" s="25" t="n">
         <v>144</v>
       </c>
-      <c r="L53" s="12" t="n">
+      <c r="L53" s="25" t="n">
         <v>278</v>
       </c>
-      <c r="M53" s="12" t="n">
+      <c r="M53" s="25" t="n">
         <v>534</v>
       </c>
-      <c r="N53" s="12" t="n">
+      <c r="N53" s="25" t="n">
         <v>632</v>
       </c>
-      <c r="O53" s="12" t="n">
+      <c r="O53" s="25" t="n">
         <v>652</v>
       </c>
-      <c r="P53" s="12" t="n">
+      <c r="P53" s="25" t="n">
         <v>759</v>
       </c>
-      <c r="Q53" s="12" t="n">
+      <c r="Q53" s="25" t="n">
         <v>856</v>
       </c>
-      <c r="R53" s="12" t="n">
+      <c r="R53" s="25" t="n">
         <v>990</v>
       </c>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12" t="n">
-        <v>-9.28</v>
-      </c>
-      <c r="W53" s="12" t="n">
+      <c r="S53" s="25" t="n"/>
+      <c r="T53" s="25" t="n"/>
+      <c r="U53" s="25" t="n"/>
+      <c r="V53" s="25" t="n">
+        <v>-9.279999999999999</v>
+      </c>
+      <c r="W53" s="25" t="n">
         <v>75.03</v>
       </c>
-      <c r="X53" s="12" t="s">
+      <c r="X53" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row customHeight="1" ht="15" r="54" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="55" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="56" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="57" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="58" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="59" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="60" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="61" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="62" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="63" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="64" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="65" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="66" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="67" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="68" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="69" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="70" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="71" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="72" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="73" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="74" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="75" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="76" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="77" s="15" spans="1:26"/>
+    <row customHeight="1" ht="15" r="78" s="15" spans="1:26"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="V1:W1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -726,8 +726,8 @@
   </sheetPr>
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="T14" view="normal" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
-      <selection activeCell="V50" activeCellId="0" pane="topLeft" sqref="V50:W53"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="N22" view="normal" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100">
+      <selection activeCell="A54" activeCellId="0" pane="topLeft" sqref="A54:R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
@@ -2034,16 +2034,16 @@
         <v>396</v>
       </c>
       <c r="G21" s="25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H21" s="25" t="n">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="I21" s="25" t="n">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="J21" s="23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21" s="23" t="n">
         <v>1091</v>
@@ -2058,10 +2058,10 @@
         <v>504</v>
       </c>
       <c r="O21" s="25" t="n">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="P21" s="25" t="n">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="Q21" s="25" t="n">
         <v>2041</v>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -3383,16 +3383,16 @@
         <v>312</v>
       </c>
       <c r="G42" s="25" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H42" s="25" t="n">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="I42" s="25" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="J42" s="25" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K42" s="25" t="n">
         <v>163</v>
@@ -3407,10 +3407,10 @@
         <v>451</v>
       </c>
       <c r="O42" s="25" t="n">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="P42" s="25" t="n">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="Q42" s="25" t="n">
         <v>750</v>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -910,16 +910,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H4" s="21" t="n">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="I4" s="21" t="n">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="J4" s="23" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K4" s="23" t="n">
         <v>223</v>
@@ -934,10 +934,10 @@
         <v>652</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="Q4" s="21" t="n">
         <v>1246</v>
@@ -987,10 +987,10 @@
         <v>95</v>
       </c>
       <c r="H5" s="21" t="n">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="I5" s="21" t="n">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="J5" s="23" t="n">
         <v>95</v>
@@ -1008,10 +1008,10 @@
         <v>795</v>
       </c>
       <c r="O5" s="25" t="n">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="P5" s="25" t="n">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="Q5" s="25" t="n">
         <v>1183</v>
@@ -1026,7 +1026,7 @@
         <v>-9.5</v>
       </c>
       <c r="W5" s="25" t="n">
-        <v>144.6</v>
+        <v>87.45</v>
       </c>
       <c r="X5" s="21" t="s">
         <v>26</v>
@@ -1119,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="I7" s="21" t="n">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="J7" s="23" t="n">
         <v>3</v>
@@ -1140,10 +1140,10 @@
         <v>420</v>
       </c>
       <c r="O7" s="25" t="n">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="P7" s="25" t="n">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="Q7" s="25" t="n">
         <v>1663</v>
@@ -1374,16 +1374,16 @@
         <v>286</v>
       </c>
       <c r="G11" s="21" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="I11" s="21" t="n">
         <v>694</v>
       </c>
       <c r="J11" s="23" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="K11" s="23" t="n">
         <v>808</v>
@@ -1401,7 +1401,7 @@
         <v>694</v>
       </c>
       <c r="P11" s="25" t="n">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="Q11" s="25" t="n">
         <v>1491</v>
@@ -1509,10 +1509,10 @@
         <v>74</v>
       </c>
       <c r="H13" s="21" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I13" s="21" t="n">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="J13" s="23" t="n">
         <v>74</v>
@@ -1530,10 +1530,10 @@
         <v>656</v>
       </c>
       <c r="O13" s="25" t="n">
-        <v>928</v>
+        <v>937</v>
       </c>
       <c r="P13" s="25" t="n">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="Q13" s="25" t="n">
         <v>1149</v>
@@ -1968,16 +1968,16 @@
         <v>385</v>
       </c>
       <c r="G20" s="25" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H20" s="25" t="n">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="I20" s="25" t="n">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="J20" s="23" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="K20" s="23" t="n">
         <v>226</v>
@@ -1992,10 +1992,10 @@
         <v>728</v>
       </c>
       <c r="O20" s="25" t="n">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="P20" s="25" t="n">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="Q20" s="25" t="n">
         <v>1333</v>
@@ -2232,16 +2232,16 @@
         <v>354</v>
       </c>
       <c r="G24" s="25" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H24" s="25" t="n">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="I24" s="25" t="n">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="J24" s="23" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K24" s="23" t="n">
         <v>996</v>
@@ -2256,10 +2256,10 @@
         <v>599</v>
       </c>
       <c r="O24" s="25" t="n">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="P24" s="25" t="n">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="Q24" s="25" t="n">
         <v>2037</v>
@@ -2298,16 +2298,16 @@
         <v>409</v>
       </c>
       <c r="G25" s="25" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="n">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="I25" s="25" t="n">
-        <v>1159</v>
+        <v>1174</v>
       </c>
       <c r="J25" s="23" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K25" s="23" t="n">
         <v>271</v>
@@ -2322,10 +2322,10 @@
         <v>764</v>
       </c>
       <c r="O25" s="25" t="n">
-        <v>1159</v>
+        <v>1174</v>
       </c>
       <c r="P25" s="25" t="n">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="Q25" s="25" t="n">
         <v>1410</v>
@@ -2496,16 +2496,16 @@
         <v>331</v>
       </c>
       <c r="G28" s="25" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="H28" s="25" t="n">
-        <v>1022</v>
+        <v>974</v>
       </c>
       <c r="I28" s="25" t="n">
-        <v>942</v>
+        <v>890</v>
       </c>
       <c r="J28" s="23" t="n">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="K28" s="23" t="n">
         <v>1005</v>
@@ -2520,10 +2520,10 @@
         <v>587</v>
       </c>
       <c r="O28" s="25" t="n">
-        <v>942</v>
+        <v>890</v>
       </c>
       <c r="P28" s="25" t="n">
-        <v>1022</v>
+        <v>974</v>
       </c>
       <c r="Q28" s="25" t="n">
         <v>1893</v>
@@ -2562,16 +2562,16 @@
         <v>341</v>
       </c>
       <c r="G29" s="25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H29" s="25" t="n">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="I29" s="25" t="n">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="J29" s="23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K29" s="23" t="n">
         <v>987</v>
@@ -2586,10 +2586,10 @@
         <v>445</v>
       </c>
       <c r="O29" s="25" t="n">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="P29" s="25" t="n">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="Q29" s="25" t="n">
         <v>2036</v>
@@ -3383,16 +3383,16 @@
         <v>312</v>
       </c>
       <c r="G42" s="25" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H42" s="25" t="n">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="I42" s="25" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J42" s="25" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K42" s="25" t="n">
         <v>163</v>
@@ -3407,10 +3407,10 @@
         <v>451</v>
       </c>
       <c r="O42" s="25" t="n">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="P42" s="25" t="n">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="Q42" s="25" t="n">
         <v>750</v>
@@ -3422,7 +3422,7 @@
         <v>-5.22</v>
       </c>
       <c r="W42" s="25" t="n">
-        <v>103.59</v>
+        <v>35.29</v>
       </c>
       <c r="X42" s="26" t="s">
         <v>63</v>
@@ -4081,10 +4081,10 @@
         <v>37</v>
       </c>
       <c r="H53" s="25" t="n">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="I53" s="25" t="n">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="J53" s="25" t="n">
         <v>37</v>
@@ -4102,10 +4102,10 @@
         <v>632</v>
       </c>
       <c r="O53" s="25" t="n">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="P53" s="25" t="n">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="Q53" s="25" t="n">
         <v>856</v>
@@ -4120,7 +4120,7 @@
         <v>-9.279999999999999</v>
       </c>
       <c r="W53" s="25" t="n">
-        <v>75.03</v>
+        <v>73.64</v>
       </c>
       <c r="X53" s="25" t="s">
         <v>74</v>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -2235,10 +2235,10 @@
         <v>98</v>
       </c>
       <c r="H24" s="25" t="n">
-        <v>1174</v>
+        <v>1158</v>
       </c>
       <c r="I24" s="25" t="n">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="J24" s="23" t="n">
         <v>98</v>
@@ -2256,10 +2256,10 @@
         <v>599</v>
       </c>
       <c r="O24" s="25" t="n">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="P24" s="25" t="n">
-        <v>1174</v>
+        <v>1158</v>
       </c>
       <c r="Q24" s="25" t="n">
         <v>2037</v>
@@ -2271,7 +2271,7 @@
       <c r="T24" s="23" t="n"/>
       <c r="U24" s="25" t="n"/>
       <c r="V24" s="25" t="n">
-        <v>-16.68</v>
+        <v>-16.73</v>
       </c>
       <c r="W24" s="25" t="n">
         <v>57.66</v>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -365,7 +365,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -404,6 +404,13 @@
     <font>
       <b val="true"/>
       <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -525,39 +532,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,7 +572,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -648,8 +655,8 @@
   </sheetPr>
   <dimension ref="A1:AP58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB6" activeCellId="0" sqref="AB6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y2" activeCellId="0" sqref="Y2:AP2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -679,10 +686,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="13.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="22.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="1" width="9.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="10.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="31" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="12.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="12.1"/>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -922,16 +922,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="29" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H4" s="29" t="n">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="I4" s="29" t="n">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="J4" s="31" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K4" s="31" t="n">
         <v>223</v>
@@ -946,10 +946,10 @@
         <v>652</v>
       </c>
       <c r="O4" s="29" t="n">
-        <v>1024</v>
+        <v>1007</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="Q4" s="29" t="n">
         <v>1246</v>
@@ -4918,10 +4918,10 @@
       <c r="AC53" s="24" t="n">
         <v>-10.57867240534003</v>
       </c>
-      <c r="AD53" t="n">
+      <c r="AD53" s="24" t="n">
         <v>3.611199711739031</v>
       </c>
-      <c r="AE53" t="n">
+      <c r="AE53" s="24" t="n">
         <v>-3.855916894216616</v>
       </c>
     </row>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -922,16 +922,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="29" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H4" s="29" t="n">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="I4" s="29" t="n">
-        <v>1007</v>
+        <v>1031</v>
       </c>
       <c r="J4" s="31" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K4" s="31" t="n">
         <v>223</v>
@@ -946,10 +946,10 @@
         <v>652</v>
       </c>
       <c r="O4" s="29" t="n">
-        <v>1007</v>
+        <v>1031</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="Q4" s="29" t="n">
         <v>1246</v>

--- a/Event_Timing.xlsx
+++ b/Event_Timing.xlsx
@@ -922,16 +922,16 @@
         <v>382</v>
       </c>
       <c r="G4" s="29" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H4" s="29" t="n">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="I4" s="29" t="n">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="J4" s="31" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K4" s="31" t="n">
         <v>223</v>
@@ -946,10 +946,10 @@
         <v>652</v>
       </c>
       <c r="O4" s="29" t="n">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="Q4" s="29" t="n">
         <v>1246</v>
